--- a/ProcessBasedModelsDatabase.xlsx
+++ b/ProcessBasedModelsDatabase.xlsx
@@ -2191,7 +2191,7 @@
     <t xml:space="preserve">DNDC is a computer simulation model of carbon and nitrogen biogeochemistry in agro-ecosystems. The model can be used for predicting crop growth, soil temperature and moisture regimes, soil carbon dynamics, nitrogen leaching, and emissions of trace gases including nitrous oxide (N2O), nitric oxide (NO), dinitrogen (N2), ammonia (NH3), methane (CH4) and carbon dioxide (CO2).  </t>
   </si>
   <si>
-    <t xml:space="preserve">CENTURY/DAYCENT</t>
+    <t xml:space="preserve">CENTURY-DAYCENT</t>
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1029/93GB02042</t>
@@ -3500,7 +3500,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;VERDADERO&quot;;&quot;VERDADERO&quot;;&quot;FALSO&quot;"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="9">
@@ -3984,14 +3984,14 @@
   <dimension ref="A1:CK194"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="J155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D64" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A155" activeCellId="0" sqref="A155"/>
-      <selection pane="bottomRight" activeCell="L192" activeCellId="0" sqref="L192"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
+      <selection pane="bottomRight" activeCell="C111" activeCellId="0" sqref="C111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.14"/>
@@ -4005,7 +4005,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="53.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="18.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="20.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="28.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="50.29"/>
@@ -4015,10 +4015,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="23.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="18.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="0" width="19.99"/>
@@ -4026,10 +4026,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="3" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="2" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="5.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="4" width="14.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="2" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="13.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="21.86"/>
@@ -4039,10 +4039,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="6" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="2" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="0" width="16.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="0" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="0" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="82" style="7" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="0" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="0" width="10.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="0" width="12.71"/>
   </cols>
   <sheetData>
@@ -4453,7 +4453,8 @@
         <v>107</v>
       </c>
       <c r="K3" s="16"/>
-      <c r="L3" s="34" t="b">
+      <c r="L3" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="T3" s="0" t="s">
@@ -4540,7 +4541,8 @@
         <v>107</v>
       </c>
       <c r="K4" s="16"/>
-      <c r="L4" s="34" t="b">
+      <c r="L4" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="T4" s="0" t="s">
@@ -4624,7 +4626,8 @@
         <v>119</v>
       </c>
       <c r="K5" s="16"/>
-      <c r="L5" s="34" t="b">
+      <c r="L5" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P5" s="36" t="s">
@@ -4714,7 +4717,8 @@
         <v>107</v>
       </c>
       <c r="K6" s="16"/>
-      <c r="L6" s="34" t="b">
+      <c r="L6" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -4806,7 +4810,8 @@
         <v>130</v>
       </c>
       <c r="K7" s="16"/>
-      <c r="L7" s="34" t="b">
+      <c r="L7" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="O7" s="0" t="s">
@@ -4890,7 +4895,8 @@
       <c r="K8" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="L8" s="40" t="b">
+      <c r="L8" s="40" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -5004,7 +5010,8 @@
         <v>107</v>
       </c>
       <c r="K9" s="37"/>
-      <c r="L9" s="40" t="b">
+      <c r="L9" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N9" s="0" t="s">
@@ -5095,7 +5102,8 @@
         <v>107</v>
       </c>
       <c r="K10" s="37"/>
-      <c r="L10" s="40" t="b">
+      <c r="L10" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P10" s="36"/>
@@ -5183,7 +5191,8 @@
         <v>159</v>
       </c>
       <c r="K11" s="37"/>
-      <c r="L11" s="40" t="b">
+      <c r="L11" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P11" s="36"/>
@@ -5262,7 +5271,8 @@
         <v>165</v>
       </c>
       <c r="K12" s="37"/>
-      <c r="L12" s="40" t="b">
+      <c r="L12" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="O12" s="41"/>
@@ -5345,7 +5355,8 @@
         <v>107</v>
       </c>
       <c r="K13" s="37"/>
-      <c r="L13" s="40" t="b">
+      <c r="L13" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M13" s="2" t="s">
@@ -5439,7 +5450,8 @@
         <v>165</v>
       </c>
       <c r="K14" s="37"/>
-      <c r="L14" s="40" t="b">
+      <c r="L14" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M14" s="2" t="s">
@@ -5560,7 +5572,8 @@
         <v>165</v>
       </c>
       <c r="K15" s="37"/>
-      <c r="L15" s="40" t="b">
+      <c r="L15" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N15" s="42"/>
@@ -5660,7 +5673,8 @@
       <c r="K16" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="L16" s="40" t="b">
+      <c r="L16" s="40" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O16" s="0" t="s">
@@ -5771,7 +5785,8 @@
         <v>107</v>
       </c>
       <c r="K17" s="37"/>
-      <c r="L17" s="40" t="b">
+      <c r="L17" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N17" s="0" t="s">
@@ -5887,7 +5902,8 @@
         <v>185</v>
       </c>
       <c r="K18" s="37"/>
-      <c r="L18" s="40" t="b">
+      <c r="L18" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M18" s="2" t="s">
@@ -6002,7 +6018,8 @@
         <v>107</v>
       </c>
       <c r="K19" s="37"/>
-      <c r="L19" s="40" t="b">
+      <c r="L19" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P19" s="36"/>
@@ -6108,7 +6125,8 @@
         <v>209</v>
       </c>
       <c r="K20" s="37"/>
-      <c r="L20" s="40" t="b">
+      <c r="L20" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M20" s="2" t="s">
@@ -6230,7 +6248,8 @@
         <v>216</v>
       </c>
       <c r="K21" s="13"/>
-      <c r="L21" s="44" t="b">
+      <c r="L21" s="44" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="O21" s="41"/>
@@ -6328,7 +6347,8 @@
         <v>107</v>
       </c>
       <c r="K22" s="13"/>
-      <c r="L22" s="44" t="b">
+      <c r="L22" s="44" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="O22" s="41"/>
@@ -6413,7 +6433,8 @@
       <c r="K23" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="L23" s="48" t="b">
+      <c r="L23" s="48" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="M23" s="2" t="s">
@@ -6526,7 +6547,8 @@
         <v>165</v>
       </c>
       <c r="K24" s="45"/>
-      <c r="L24" s="48" t="b">
+      <c r="L24" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -6673,7 +6695,8 @@
         <v>107</v>
       </c>
       <c r="K25" s="45"/>
-      <c r="L25" s="48" t="b">
+      <c r="L25" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M25" s="2" t="s">
@@ -6789,7 +6812,8 @@
         <v>107</v>
       </c>
       <c r="K26" s="45"/>
-      <c r="L26" s="48" t="b">
+      <c r="L26" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M26" s="2" t="s">
@@ -6915,7 +6939,8 @@
         <v>165</v>
       </c>
       <c r="K27" s="45"/>
-      <c r="L27" s="48" t="b">
+      <c r="L27" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N27" s="0" t="s">
@@ -7044,7 +7069,8 @@
       <c r="K28" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="L28" s="48" t="b">
+      <c r="L28" s="48" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O28" s="0" t="s">
@@ -7181,7 +7207,8 @@
       <c r="K29" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="L29" s="48" t="b">
+      <c r="L29" s="48" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N29" s="0" t="s">
@@ -7325,7 +7352,8 @@
         <v>216</v>
       </c>
       <c r="K30" s="45"/>
-      <c r="L30" s="48" t="b">
+      <c r="L30" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P30" s="36" t="s">
@@ -7452,7 +7480,8 @@
         <v>165</v>
       </c>
       <c r="K31" s="45"/>
-      <c r="L31" s="48" t="b">
+      <c r="L31" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M31" s="2" t="s">
@@ -7586,7 +7615,8 @@
       <c r="K32" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="L32" s="48" t="b">
+      <c r="L32" s="48" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N32" s="0" t="s">
@@ -7729,7 +7759,8 @@
       <c r="K33" s="45" t="s">
         <v>287</v>
       </c>
-      <c r="L33" s="48" t="b">
+      <c r="L33" s="48" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N33" s="0" t="s">
@@ -7861,7 +7892,8 @@
         <v>296</v>
       </c>
       <c r="K34" s="45"/>
-      <c r="L34" s="48" t="b">
+      <c r="L34" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N34" s="42"/>
@@ -8000,7 +8032,8 @@
       <c r="K35" s="45" t="s">
         <v>303</v>
       </c>
-      <c r="L35" s="48" t="b">
+      <c r="L35" s="48" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="M35" s="2" t="s">
@@ -8148,7 +8181,8 @@
         <v>107</v>
       </c>
       <c r="K36" s="45"/>
-      <c r="L36" s="48" t="b">
+      <c r="L36" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M36" s="2" t="s">
@@ -8299,7 +8333,8 @@
         <v>315</v>
       </c>
       <c r="K37" s="45"/>
-      <c r="L37" s="48" t="b">
+      <c r="L37" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M37" s="2" t="s">
@@ -8444,7 +8479,8 @@
         <v>315</v>
       </c>
       <c r="K38" s="45"/>
-      <c r="L38" s="48" t="b">
+      <c r="L38" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M38" s="2" t="s">
@@ -8560,7 +8596,8 @@
         <v>315</v>
       </c>
       <c r="K39" s="45"/>
-      <c r="L39" s="48" t="b">
+      <c r="L39" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N39" s="42"/>
@@ -8684,7 +8721,8 @@
         <v>107</v>
       </c>
       <c r="K40" s="45"/>
-      <c r="L40" s="48" t="b">
+      <c r="L40" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N40" s="42"/>
@@ -8799,7 +8837,8 @@
         <v>130</v>
       </c>
       <c r="K41" s="45"/>
-      <c r="L41" s="48" t="b">
+      <c r="L41" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M41" s="2" t="s">
@@ -8942,7 +8981,8 @@
         <v>315</v>
       </c>
       <c r="K42" s="45"/>
-      <c r="L42" s="48" t="b">
+      <c r="L42" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M42" s="2" t="s">
@@ -9079,7 +9119,8 @@
         <v>165</v>
       </c>
       <c r="K43" s="45"/>
-      <c r="L43" s="48" t="b">
+      <c r="L43" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M43" s="2" t="s">
@@ -9216,7 +9257,8 @@
         <v>107</v>
       </c>
       <c r="K44" s="45"/>
-      <c r="L44" s="48" t="b">
+      <c r="L44" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N44" s="42"/>
@@ -9350,7 +9392,8 @@
       <c r="K45" s="45" t="s">
         <v>357</v>
       </c>
-      <c r="L45" s="48" t="b">
+      <c r="L45" s="48" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="M45" s="2" t="s">
@@ -9494,7 +9537,8 @@
         <v>315</v>
       </c>
       <c r="K46" s="45"/>
-      <c r="L46" s="48" t="b">
+      <c r="L46" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M46" s="2" t="s">
@@ -9615,7 +9659,8 @@
         <v>185</v>
       </c>
       <c r="K47" s="45"/>
-      <c r="L47" s="48" t="b">
+      <c r="L47" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M47" s="2" t="s">
@@ -9748,7 +9793,8 @@
         <v>107</v>
       </c>
       <c r="K48" s="45"/>
-      <c r="L48" s="48" t="b">
+      <c r="L48" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M48" s="2" t="s">
@@ -9888,7 +9934,8 @@
       <c r="K49" s="45" t="s">
         <v>385</v>
       </c>
-      <c r="L49" s="48" t="b">
+      <c r="L49" s="48" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="M49" s="2" t="s">
@@ -10046,7 +10093,8 @@
       <c r="K50" s="45" t="s">
         <v>394</v>
       </c>
-      <c r="L50" s="48" t="b">
+      <c r="L50" s="48" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="M50" s="2" t="s">
@@ -10187,7 +10235,8 @@
         <v>130</v>
       </c>
       <c r="K51" s="45"/>
-      <c r="L51" s="48" t="b">
+      <c r="L51" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M51" s="2" t="s">
@@ -10328,7 +10377,8 @@
         <v>209</v>
       </c>
       <c r="K52" s="45"/>
-      <c r="L52" s="48" t="b">
+      <c r="L52" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N52" s="0" t="s">
@@ -10456,7 +10506,8 @@
         <v>185</v>
       </c>
       <c r="K53" s="45"/>
-      <c r="L53" s="48" t="b">
+      <c r="L53" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M53" s="2" t="s">
@@ -10601,7 +10652,8 @@
         <v>130</v>
       </c>
       <c r="K54" s="45"/>
-      <c r="L54" s="48" t="b">
+      <c r="L54" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M54" s="2" t="s">
@@ -10739,7 +10791,8 @@
         <v>107</v>
       </c>
       <c r="K55" s="45"/>
-      <c r="L55" s="48" t="b">
+      <c r="L55" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M55" s="2" t="s">
@@ -10885,7 +10938,8 @@
       <c r="K56" s="45" t="s">
         <v>423</v>
       </c>
-      <c r="L56" s="48" t="b">
+      <c r="L56" s="48" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N56" s="0" t="s">
@@ -11044,7 +11098,8 @@
         <v>431</v>
       </c>
       <c r="K57" s="45"/>
-      <c r="L57" s="48" t="b">
+      <c r="L57" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M57" s="2" t="s">
@@ -11186,7 +11241,8 @@
         <v>165</v>
       </c>
       <c r="K58" s="45"/>
-      <c r="L58" s="48" t="b">
+      <c r="L58" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M58" s="2" t="s">
@@ -11324,7 +11380,8 @@
       <c r="K59" s="45" t="s">
         <v>440</v>
       </c>
-      <c r="L59" s="48" t="b">
+      <c r="L59" s="48" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="M59" s="2" t="s">
@@ -11471,7 +11528,8 @@
         <v>107</v>
       </c>
       <c r="K60" s="45"/>
-      <c r="L60" s="48" t="b">
+      <c r="L60" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M60" s="2" t="s">
@@ -11627,7 +11685,8 @@
       <c r="K61" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="L61" s="34" t="b">
+      <c r="L61" s="34" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O61" s="41"/>
@@ -11710,7 +11769,8 @@
         <v>119</v>
       </c>
       <c r="K62" s="16"/>
-      <c r="L62" s="34" t="b">
+      <c r="L62" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="O62" s="41"/>
@@ -11796,7 +11856,8 @@
         <v>130</v>
       </c>
       <c r="K63" s="16"/>
-      <c r="L63" s="34" t="b">
+      <c r="L63" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="O63" s="41"/>
@@ -11893,7 +11954,8 @@
         <v>165</v>
       </c>
       <c r="K64" s="16"/>
-      <c r="L64" s="34" t="b">
+      <c r="L64" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P64" s="36"/>
@@ -11975,7 +12037,8 @@
         <v>479</v>
       </c>
       <c r="K65" s="16"/>
-      <c r="L65" s="34" t="b">
+      <c r="L65" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N65" s="41"/>
@@ -12058,7 +12121,8 @@
       <c r="K66" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="L66" s="34" t="b">
+      <c r="L66" s="34" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="P66" s="36" t="s">
@@ -12134,7 +12198,8 @@
         <v>107</v>
       </c>
       <c r="K67" s="16"/>
-      <c r="L67" s="34" t="b">
+      <c r="L67" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P67" s="36"/>
@@ -12216,7 +12281,8 @@
         <v>130</v>
       </c>
       <c r="K68" s="16"/>
-      <c r="L68" s="34" t="b">
+      <c r="L68" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P68" s="36"/>
@@ -12298,7 +12364,8 @@
         <v>431</v>
       </c>
       <c r="K69" s="16"/>
-      <c r="L69" s="34" t="b">
+      <c r="L69" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P69" s="36"/>
@@ -12378,7 +12445,8 @@
         <v>119</v>
       </c>
       <c r="K70" s="16"/>
-      <c r="L70" s="34" t="b">
+      <c r="L70" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P70" s="36"/>
@@ -12508,7 +12576,8 @@
       <c r="K71" s="16" t="s">
         <v>506</v>
       </c>
-      <c r="L71" s="34" t="b">
+      <c r="L71" s="34" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="P71" s="36" t="s">
@@ -12598,7 +12667,8 @@
       <c r="K72" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="L72" s="34" t="b">
+      <c r="L72" s="34" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="P72" s="36" t="s">
@@ -12688,7 +12758,8 @@
       <c r="K73" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="L73" s="34" t="b">
+      <c r="L73" s="34" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="P73" s="36" t="s">
@@ -12779,7 +12850,8 @@
         <v>159</v>
       </c>
       <c r="K74" s="16"/>
-      <c r="L74" s="34" t="b">
+      <c r="L74" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P74" s="36"/>
@@ -12870,7 +12942,8 @@
         <v>107</v>
       </c>
       <c r="K75" s="16"/>
-      <c r="L75" s="34" t="b">
+      <c r="L75" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P75" s="36" t="s">
@@ -12970,7 +13043,8 @@
         <v>185</v>
       </c>
       <c r="K76" s="16"/>
-      <c r="L76" s="34" t="b">
+      <c r="L76" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N76" s="0" t="s">
@@ -13079,7 +13153,8 @@
         <v>479</v>
       </c>
       <c r="K77" s="16"/>
-      <c r="L77" s="34" t="b">
+      <c r="L77" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="O77" s="41"/>
@@ -13184,7 +13259,8 @@
         <v>547</v>
       </c>
       <c r="K78" s="16"/>
-      <c r="L78" s="34" t="b">
+      <c r="L78" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M78" s="2" t="s">
@@ -13284,7 +13360,8 @@
         <v>107</v>
       </c>
       <c r="K79" s="16"/>
-      <c r="L79" s="34" t="b">
+      <c r="L79" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P79" s="36"/>
@@ -13373,7 +13450,8 @@
         <v>547</v>
       </c>
       <c r="K80" s="16"/>
-      <c r="L80" s="34" t="b">
+      <c r="L80" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M80" s="2" t="s">
@@ -13496,7 +13574,8 @@
         <v>107</v>
       </c>
       <c r="K81" s="37"/>
-      <c r="L81" s="40" t="b">
+      <c r="L81" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P81" s="36"/>
@@ -13594,7 +13673,8 @@
         <v>185</v>
       </c>
       <c r="K82" s="37"/>
-      <c r="L82" s="40" t="b">
+      <c r="L82" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="O82" s="41"/>
@@ -13681,7 +13761,8 @@
         <v>107</v>
       </c>
       <c r="K83" s="37"/>
-      <c r="L83" s="40" t="b">
+      <c r="L83" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N83" s="0" t="s">
@@ -13782,7 +13863,8 @@
         <v>107</v>
       </c>
       <c r="K84" s="37"/>
-      <c r="L84" s="40" t="b">
+      <c r="L84" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="O84" s="41"/>
@@ -13871,7 +13953,8 @@
         <v>165</v>
       </c>
       <c r="K85" s="37"/>
-      <c r="L85" s="40" t="b">
+      <c r="L85" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="O85" s="41"/>
@@ -13984,7 +14067,8 @@
         <v>119</v>
       </c>
       <c r="K86" s="37"/>
-      <c r="L86" s="40" t="b">
+      <c r="L86" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P86" s="36" t="s">
@@ -14102,7 +14186,8 @@
         <v>107</v>
       </c>
       <c r="K87" s="37"/>
-      <c r="L87" s="40" t="b">
+      <c r="L87" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P87" s="36"/>
@@ -14199,7 +14284,8 @@
         <v>185</v>
       </c>
       <c r="K88" s="37"/>
-      <c r="L88" s="40" t="b">
+      <c r="L88" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N88" s="0" t="s">
@@ -14309,7 +14395,8 @@
         <v>600</v>
       </c>
       <c r="K89" s="37"/>
-      <c r="L89" s="40" t="b">
+      <c r="L89" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P89" s="36"/>
@@ -14397,7 +14484,8 @@
         <v>119</v>
       </c>
       <c r="K90" s="37"/>
-      <c r="L90" s="40" t="b">
+      <c r="L90" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N90" s="0" t="s">
@@ -14525,7 +14613,8 @@
         <v>315</v>
       </c>
       <c r="K91" s="37"/>
-      <c r="L91" s="40" t="b">
+      <c r="L91" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P91" s="36"/>
@@ -14638,7 +14727,8 @@
         <v>107</v>
       </c>
       <c r="K92" s="37"/>
-      <c r="L92" s="40" t="b">
+      <c r="L92" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M92" s="2" t="s">
@@ -14742,7 +14832,8 @@
       <c r="K93" s="37" t="s">
         <v>620</v>
       </c>
-      <c r="L93" s="40" t="b">
+      <c r="L93" s="40" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N93" s="41"/>
@@ -14847,7 +14938,8 @@
       <c r="K94" s="37" t="s">
         <v>628</v>
       </c>
-      <c r="L94" s="40" t="b">
+      <c r="L94" s="40" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N94" s="0" t="s">
@@ -14980,7 +15072,8 @@
         <v>600</v>
       </c>
       <c r="K95" s="37"/>
-      <c r="L95" s="40" t="b">
+      <c r="L95" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M95" s="2" t="s">
@@ -15084,7 +15177,8 @@
         <v>315</v>
       </c>
       <c r="K96" s="37"/>
-      <c r="L96" s="40" t="b">
+      <c r="L96" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N96" s="0" t="s">
@@ -15210,7 +15304,8 @@
         <v>547</v>
       </c>
       <c r="K97" s="37"/>
-      <c r="L97" s="40" t="b">
+      <c r="L97" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P97" s="36" t="s">
@@ -15343,7 +15438,8 @@
         <v>119</v>
       </c>
       <c r="K98" s="37"/>
-      <c r="L98" s="40" t="b">
+      <c r="L98" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N98" s="0" t="s">
@@ -15464,7 +15560,8 @@
         <v>185</v>
       </c>
       <c r="K99" s="37"/>
-      <c r="L99" s="40" t="b">
+      <c r="L99" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N99" s="0" t="s">
@@ -15592,7 +15689,8 @@
         <v>660</v>
       </c>
       <c r="K100" s="37"/>
-      <c r="L100" s="40" t="b">
+      <c r="L100" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N100" s="0" t="s">
@@ -15692,7 +15790,8 @@
         <v>165</v>
       </c>
       <c r="K101" s="37"/>
-      <c r="L101" s="40" t="b">
+      <c r="L101" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P101" s="49" t="s">
@@ -15791,7 +15890,8 @@
       <c r="K102" s="37" t="s">
         <v>672</v>
       </c>
-      <c r="L102" s="40" t="b">
+      <c r="L102" s="40" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="P102" s="36" t="s">
@@ -15921,7 +16021,8 @@
         <v>315</v>
       </c>
       <c r="K103" s="37"/>
-      <c r="L103" s="40" t="b">
+      <c r="L103" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N103" s="0" t="s">
@@ -16041,7 +16142,8 @@
         <v>107</v>
       </c>
       <c r="K104" s="37"/>
-      <c r="L104" s="40" t="b">
+      <c r="L104" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="O104" s="0" t="s">
@@ -16135,7 +16237,8 @@
         <v>130</v>
       </c>
       <c r="K105" s="37"/>
-      <c r="L105" s="40" t="b">
+      <c r="L105" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M105" s="2" t="s">
@@ -16262,7 +16365,8 @@
         <v>107</v>
       </c>
       <c r="K106" s="37"/>
-      <c r="L106" s="40" t="b">
+      <c r="L106" s="40" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M106" s="2" t="s">
@@ -16362,7 +16466,8 @@
       <c r="K107" s="37" t="s">
         <v>701</v>
       </c>
-      <c r="L107" s="40" t="b">
+      <c r="L107" s="40" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N107" s="0" t="s">
@@ -16466,7 +16571,8 @@
       <c r="K108" s="37" t="s">
         <v>709</v>
       </c>
-      <c r="L108" s="40" t="b">
+      <c r="L108" s="40" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N108" s="0" t="s">
@@ -16561,7 +16667,8 @@
         <v>107</v>
       </c>
       <c r="K109" s="50"/>
-      <c r="L109" s="53" t="b">
+      <c r="L109" s="53" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P109" s="36"/>
@@ -16642,7 +16749,8 @@
       <c r="K110" s="50" t="s">
         <v>722</v>
       </c>
-      <c r="L110" s="53" t="b">
+      <c r="L110" s="53" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="P110" s="36" t="s">
@@ -16735,7 +16843,8 @@
       <c r="K111" s="50" t="s">
         <v>727</v>
       </c>
-      <c r="L111" s="53" t="b">
+      <c r="L111" s="53" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="P111" s="36" t="s">
@@ -16853,7 +16962,8 @@
         <v>165</v>
       </c>
       <c r="K112" s="50"/>
-      <c r="L112" s="53" t="b">
+      <c r="L112" s="53" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P112" s="36" t="s">
@@ -16951,7 +17061,8 @@
       <c r="K113" s="50" t="s">
         <v>739</v>
       </c>
-      <c r="L113" s="53" t="b">
+      <c r="L113" s="53" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="P113" s="36" t="s">
@@ -17052,7 +17163,8 @@
       <c r="K114" s="50" t="s">
         <v>747</v>
       </c>
-      <c r="L114" s="53" t="b">
+      <c r="L114" s="53" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="P114" s="36" t="s">
@@ -17127,7 +17239,8 @@
         <v>165</v>
       </c>
       <c r="K115" s="50"/>
-      <c r="L115" s="53" t="b">
+      <c r="L115" s="53" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M115" s="2" t="s">
@@ -17223,7 +17336,8 @@
         <v>107</v>
       </c>
       <c r="K116" s="50"/>
-      <c r="L116" s="53" t="b">
+      <c r="L116" s="53" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P116" s="36"/>
@@ -17296,7 +17410,8 @@
         <v>107</v>
       </c>
       <c r="K117" s="50"/>
-      <c r="L117" s="53" t="b">
+      <c r="L117" s="53" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P117" s="36"/>
@@ -17369,7 +17484,8 @@
         <v>107</v>
       </c>
       <c r="K118" s="50"/>
-      <c r="L118" s="53" t="b">
+      <c r="L118" s="53" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P118" s="36"/>
@@ -17442,7 +17558,8 @@
         <v>315</v>
       </c>
       <c r="K119" s="50"/>
-      <c r="L119" s="53" t="b">
+      <c r="L119" s="53" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P119" s="36"/>
@@ -17518,7 +17635,8 @@
         <v>107</v>
       </c>
       <c r="K120" s="50"/>
-      <c r="L120" s="53" t="b">
+      <c r="L120" s="53" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P120" s="36"/>
@@ -17588,7 +17706,8 @@
         <v>107</v>
       </c>
       <c r="K121" s="50"/>
-      <c r="L121" s="53" t="b">
+      <c r="L121" s="53" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M121" s="2" t="s">
@@ -17672,7 +17791,8 @@
       <c r="K122" s="50" t="s">
         <v>790</v>
       </c>
-      <c r="L122" s="53" t="b">
+      <c r="L122" s="53" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="P122" s="36" t="s">
@@ -17747,7 +17867,8 @@
         <v>107</v>
       </c>
       <c r="K123" s="50"/>
-      <c r="L123" s="53" t="b">
+      <c r="L123" s="53" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M123" s="2" t="s">
@@ -17831,7 +17952,8 @@
         <v>107</v>
       </c>
       <c r="K124" s="50"/>
-      <c r="L124" s="53" t="b">
+      <c r="L124" s="53" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M124" s="2" t="s">
@@ -17908,7 +18030,8 @@
         <v>107</v>
       </c>
       <c r="K125" s="50"/>
-      <c r="L125" s="53" t="b">
+      <c r="L125" s="53" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P125" s="36"/>
@@ -17987,7 +18110,8 @@
         <v>315</v>
       </c>
       <c r="K126" s="50"/>
-      <c r="L126" s="53" t="b">
+      <c r="L126" s="53" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M126" s="2" t="s">
@@ -18081,7 +18205,8 @@
       <c r="K127" s="50" t="s">
         <v>812</v>
       </c>
-      <c r="L127" s="53" t="b">
+      <c r="L127" s="53" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="P127" s="36" t="s">
@@ -18171,7 +18296,8 @@
         <v>107</v>
       </c>
       <c r="K128" s="50"/>
-      <c r="L128" s="53" t="b">
+      <c r="L128" s="53" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M128" s="2" t="s">
@@ -18267,7 +18393,8 @@
       <c r="K129" s="13" t="s">
         <v>826</v>
       </c>
-      <c r="L129" s="44" t="b">
+      <c r="L129" s="44" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N129" s="41"/>
@@ -18352,7 +18479,8 @@
       <c r="K130" s="13" t="s">
         <v>831</v>
       </c>
-      <c r="L130" s="44" t="b">
+      <c r="L130" s="44" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="M130" s="2" t="s">
@@ -18470,7 +18598,8 @@
         <v>431</v>
       </c>
       <c r="K131" s="13"/>
-      <c r="L131" s="44" t="b">
+      <c r="L131" s="44" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N131" s="41"/>
@@ -18563,7 +18692,8 @@
         <v>107</v>
       </c>
       <c r="K132" s="13"/>
-      <c r="L132" s="44" t="b">
+      <c r="L132" s="44" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M132" s="2" t="s">
@@ -18656,7 +18786,8 @@
         <v>107</v>
       </c>
       <c r="K133" s="13"/>
-      <c r="L133" s="44" t="b">
+      <c r="L133" s="44" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M133" s="2" t="s">
@@ -18749,7 +18880,8 @@
         <v>216</v>
       </c>
       <c r="K134" s="13"/>
-      <c r="L134" s="44" t="b">
+      <c r="L134" s="44" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N134" s="41"/>
@@ -18844,7 +18976,8 @@
       <c r="K135" s="13" t="s">
         <v>854</v>
       </c>
-      <c r="L135" s="44" t="b">
+      <c r="L135" s="44" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="P135" s="36" t="s">
@@ -18931,7 +19064,8 @@
       <c r="K136" s="54" t="s">
         <v>860</v>
       </c>
-      <c r="L136" s="44" t="b">
+      <c r="L136" s="44" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="M136" s="2" t="s">
@@ -19049,7 +19183,8 @@
         <v>119</v>
       </c>
       <c r="K137" s="13"/>
-      <c r="L137" s="44" t="b">
+      <c r="L137" s="44" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M137" s="2" t="s">
@@ -19150,7 +19285,8 @@
         <v>315</v>
       </c>
       <c r="K138" s="13"/>
-      <c r="L138" s="44" t="b">
+      <c r="L138" s="44" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P138" s="36"/>
@@ -19230,7 +19366,8 @@
         <v>107</v>
       </c>
       <c r="K139" s="13"/>
-      <c r="L139" s="44" t="b">
+      <c r="L139" s="44" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M139" s="2" t="s">
@@ -19355,7 +19492,8 @@
       <c r="K140" s="13" t="s">
         <v>880</v>
       </c>
-      <c r="L140" s="44" t="b">
+      <c r="L140" s="44" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="P140" s="36" t="s">
@@ -19452,7 +19590,8 @@
         <v>209</v>
       </c>
       <c r="K141" s="13"/>
-      <c r="L141" s="44" t="b">
+      <c r="L141" s="44" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P141" s="36"/>
@@ -19558,7 +19697,8 @@
         <v>891</v>
       </c>
       <c r="K142" s="13"/>
-      <c r="L142" s="44" t="b">
+      <c r="L142" s="44" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M142" s="2" t="s">
@@ -19668,7 +19808,8 @@
         <v>107</v>
       </c>
       <c r="K143" s="13"/>
-      <c r="L143" s="44" t="b">
+      <c r="L143" s="44" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M143" s="2" t="s">
@@ -19789,7 +19930,8 @@
         <v>107</v>
       </c>
       <c r="K144" s="13"/>
-      <c r="L144" s="44" t="b">
+      <c r="L144" s="44" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M144" s="2" t="s">
@@ -19911,7 +20053,8 @@
         <v>107</v>
       </c>
       <c r="K145" s="13"/>
-      <c r="L145" s="44" t="b">
+      <c r="L145" s="44" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M145" s="2" t="s">
@@ -20009,7 +20152,8 @@
       <c r="K146" s="13" t="s">
         <v>907</v>
       </c>
-      <c r="L146" s="44" t="b">
+      <c r="L146" s="44" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="M146" s="2" t="s">
@@ -20138,7 +20282,8 @@
         <v>130</v>
       </c>
       <c r="K147" s="13"/>
-      <c r="L147" s="44" t="b">
+      <c r="L147" s="44" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="M147" s="2" t="s">
@@ -20256,7 +20401,8 @@
         <v>107</v>
       </c>
       <c r="K148" s="45"/>
-      <c r="L148" s="48" t="b">
+      <c r="L148" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N148" s="0" t="s">
@@ -20381,7 +20527,8 @@
         <v>479</v>
       </c>
       <c r="K149" s="45"/>
-      <c r="L149" s="48" t="b">
+      <c r="L149" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P149" s="36"/>
@@ -20515,7 +20662,8 @@
         <v>165</v>
       </c>
       <c r="K150" s="45"/>
-      <c r="L150" s="48" t="b">
+      <c r="L150" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M150" s="2" t="s">
@@ -20627,7 +20775,8 @@
       <c r="K151" s="45" t="s">
         <v>932</v>
       </c>
-      <c r="L151" s="48" t="b">
+      <c r="L151" s="48" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="M151" s="2" t="s">
@@ -20727,7 +20876,8 @@
         <v>315</v>
       </c>
       <c r="K152" s="45"/>
-      <c r="L152" s="48" t="b">
+      <c r="L152" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P152" s="36" t="s">
@@ -20826,7 +20976,8 @@
         <v>600</v>
       </c>
       <c r="K153" s="45"/>
-      <c r="L153" s="48" t="b">
+      <c r="L153" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P153" s="36"/>
@@ -20921,7 +21072,8 @@
         <v>315</v>
       </c>
       <c r="K154" s="45"/>
-      <c r="L154" s="48" t="b">
+      <c r="L154" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P154" s="36"/>
@@ -21049,7 +21201,8 @@
         <v>107</v>
       </c>
       <c r="K155" s="45"/>
-      <c r="L155" s="48" t="b">
+      <c r="L155" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P155" s="36"/>
@@ -21157,7 +21310,8 @@
       <c r="K156" s="45" t="s">
         <v>957</v>
       </c>
-      <c r="L156" s="48" t="b">
+      <c r="L156" s="48" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="P156" s="36" t="s">
@@ -21298,7 +21452,8 @@
         <v>600</v>
       </c>
       <c r="K157" s="45"/>
-      <c r="L157" s="48" t="b">
+      <c r="L157" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P157" s="36" t="s">
@@ -21400,7 +21555,8 @@
         <v>159</v>
       </c>
       <c r="K158" s="45"/>
-      <c r="L158" s="48" t="b">
+      <c r="L158" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P158" s="36"/>
@@ -21556,7 +21712,8 @@
       <c r="K159" s="45" t="s">
         <v>974</v>
       </c>
-      <c r="L159" s="48" t="b">
+      <c r="L159" s="48" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="P159" s="36" t="s">
@@ -21667,7 +21824,8 @@
         <v>165</v>
       </c>
       <c r="K160" s="45"/>
-      <c r="L160" s="48" t="b">
+      <c r="L160" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P160" s="36"/>
@@ -21767,7 +21925,8 @@
         <v>165</v>
       </c>
       <c r="K161" s="45"/>
-      <c r="L161" s="48" t="b">
+      <c r="L161" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P161" s="36"/>
@@ -21867,7 +22026,8 @@
         <v>130</v>
       </c>
       <c r="K162" s="45"/>
-      <c r="L162" s="48" t="b">
+      <c r="L162" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M162" s="2" t="s">
@@ -22010,7 +22170,8 @@
         <v>130</v>
       </c>
       <c r="K163" s="45"/>
-      <c r="L163" s="48" t="b">
+      <c r="L163" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P163" s="36" t="s">
@@ -22124,7 +22285,8 @@
         <v>209</v>
       </c>
       <c r="K164" s="45"/>
-      <c r="L164" s="48" t="b">
+      <c r="L164" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N164" s="0" t="s">
@@ -22236,7 +22398,8 @@
         <v>660</v>
       </c>
       <c r="K165" s="45"/>
-      <c r="L165" s="48" t="b">
+      <c r="L165" s="48" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M165" s="2" t="s">
@@ -22367,7 +22530,8 @@
       <c r="K166" s="45" t="s">
         <v>1010</v>
       </c>
-      <c r="L166" s="48" t="b">
+      <c r="L166" s="48" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N166" s="0" t="s">
@@ -22494,7 +22658,8 @@
         <v>185</v>
       </c>
       <c r="K167" s="16"/>
-      <c r="L167" s="34" t="b">
+      <c r="L167" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P167" s="36"/>
@@ -22580,7 +22745,8 @@
         <v>185</v>
       </c>
       <c r="K168" s="16"/>
-      <c r="L168" s="34" t="b">
+      <c r="L168" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N168" s="55"/>
@@ -22677,7 +22843,8 @@
       <c r="K169" s="16" t="s">
         <v>1029</v>
       </c>
-      <c r="L169" s="34" t="b">
+      <c r="L169" s="34" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N169" s="0" t="s">
@@ -22822,7 +22989,8 @@
         <v>107</v>
       </c>
       <c r="K170" s="16"/>
-      <c r="L170" s="34" t="b">
+      <c r="L170" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N170" s="0" t="s">
@@ -22911,7 +23079,8 @@
         <v>107</v>
       </c>
       <c r="K171" s="16"/>
-      <c r="L171" s="34" t="b">
+      <c r="L171" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P171" s="36" t="s">
@@ -23038,7 +23207,8 @@
         <v>119</v>
       </c>
       <c r="K172" s="16"/>
-      <c r="L172" s="34" t="b">
+      <c r="L172" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M172" s="2" t="s">
@@ -23149,7 +23319,8 @@
         <v>119</v>
       </c>
       <c r="K173" s="16"/>
-      <c r="L173" s="34" t="b">
+      <c r="L173" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N173" s="0" t="s">
@@ -23261,7 +23432,8 @@
         <v>107</v>
       </c>
       <c r="K174" s="16"/>
-      <c r="L174" s="34" t="b">
+      <c r="L174" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P174" s="36" t="s">
@@ -23369,7 +23541,8 @@
         <v>431</v>
       </c>
       <c r="K175" s="16"/>
-      <c r="L175" s="34" t="b">
+      <c r="L175" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N175" s="0" t="s">
@@ -23511,7 +23684,8 @@
       <c r="K176" s="16" t="s">
         <v>1067</v>
       </c>
-      <c r="L176" s="34" t="b">
+      <c r="L176" s="34" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="P176" s="36" t="s">
@@ -23649,7 +23823,8 @@
       <c r="K177" s="16" t="s">
         <v>1070</v>
       </c>
-      <c r="L177" s="34" t="b">
+      <c r="L177" s="34" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N177" s="0" t="s">
@@ -23779,7 +23954,8 @@
         <v>315</v>
       </c>
       <c r="K178" s="16"/>
-      <c r="L178" s="34" t="b">
+      <c r="L178" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M178" s="2" t="s">
@@ -23915,7 +24091,8 @@
         <v>107</v>
       </c>
       <c r="K179" s="16"/>
-      <c r="L179" s="34" t="b">
+      <c r="L179" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M179" s="2" t="s">
@@ -24031,7 +24208,8 @@
         <v>209</v>
       </c>
       <c r="K180" s="16"/>
-      <c r="L180" s="34" t="b">
+      <c r="L180" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N180" s="0" t="s">
@@ -24126,7 +24304,8 @@
         <v>107</v>
       </c>
       <c r="K181" s="16"/>
-      <c r="L181" s="34" t="b">
+      <c r="L181" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N181" s="0" t="s">
@@ -24276,7 +24455,8 @@
         <v>431</v>
       </c>
       <c r="K182" s="16"/>
-      <c r="L182" s="34" t="b">
+      <c r="L182" s="34" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N182" s="0" t="s">
@@ -24394,7 +24574,8 @@
         <v>107</v>
       </c>
       <c r="K183" s="13"/>
-      <c r="L183" s="44" t="b">
+      <c r="L183" s="44" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P183" s="36"/>
@@ -24480,7 +24661,8 @@
         <v>107</v>
       </c>
       <c r="K184" s="13"/>
-      <c r="L184" s="44" t="b">
+      <c r="L184" s="44" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P184" s="36"/>
@@ -24569,7 +24751,8 @@
         <v>107</v>
       </c>
       <c r="K185" s="13"/>
-      <c r="L185" s="44" t="b">
+      <c r="L185" s="44" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="U185" s="0" t="s">
@@ -24666,7 +24849,8 @@
         <v>130</v>
       </c>
       <c r="K186" s="13"/>
-      <c r="L186" s="44" t="b">
+      <c r="L186" s="44" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="S186" s="2" t="s">
@@ -24790,7 +24974,8 @@
         <v>479</v>
       </c>
       <c r="K187" s="13"/>
-      <c r="L187" s="44" t="b">
+      <c r="L187" s="44" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M187" s="2" t="s">
@@ -24895,7 +25080,8 @@
       <c r="K188" s="13" t="s">
         <v>1119</v>
       </c>
-      <c r="L188" s="44" t="b">
+      <c r="L188" s="44" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N188" s="0" t="s">
@@ -24997,7 +25183,8 @@
       <c r="K189" s="13" t="s">
         <v>1125</v>
       </c>
-      <c r="L189" s="44" t="b">
+      <c r="L189" s="44" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O189" s="0" t="s">
@@ -25090,7 +25277,8 @@
       <c r="K190" s="13" t="s">
         <v>1131</v>
       </c>
-      <c r="L190" s="44" t="b">
+      <c r="L190" s="44" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="M190" s="2" t="s">
@@ -25199,7 +25387,8 @@
         <v>107</v>
       </c>
       <c r="K191" s="13"/>
-      <c r="L191" s="44" t="b">
+      <c r="L191" s="44" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N191" s="55"/>
@@ -25316,7 +25505,8 @@
       <c r="K192" s="13" t="s">
         <v>1141</v>
       </c>
-      <c r="L192" s="44" t="b">
+      <c r="L192" s="44" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N192" s="55" t="s">
@@ -25480,7 +25670,8 @@
       <c r="K193" s="13" t="s">
         <v>1149</v>
       </c>
-      <c r="L193" s="44" t="b">
+      <c r="L193" s="44" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N193" s="55"/>
@@ -25616,7 +25807,8 @@
       <c r="K194" s="13" t="s">
         <v>1155</v>
       </c>
-      <c r="L194" s="44" t="b">
+      <c r="L194" s="44" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="M194" s="2" t="s">
@@ -25974,8 +26166,8 @@
     <hyperlink ref="P194" r:id="rId278" display="https://cafnrfaculty.missouri.edu/gislab/landis/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/ProcessBasedModelsDatabase.xlsx
+++ b/ProcessBasedModelsDatabase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5017" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5018" uniqueCount="1158">
   <si>
     <t xml:space="preserve">General information</t>
   </si>
@@ -2862,6 +2862,9 @@
   </si>
   <si>
     <t xml:space="preserve">Department of Ecosystem and Landscape Management, TU Minich, Freising</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.waldwachstum.wzw.tum.de/en/research/models/balance/</t>
   </si>
   <si>
     <t xml:space="preserve">DELPHI</t>
@@ -3984,14 +3987,14 @@
   <dimension ref="A1:CK194"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="L136" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
-      <selection pane="bottomRight" activeCell="C111" activeCellId="0" sqref="C111"/>
+      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A136" activeCellId="0" sqref="A136"/>
+      <selection pane="bottomRight" activeCell="P154" activeCellId="0" sqref="P154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.14"/>
@@ -3999,17 +4002,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="53.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="18.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="20.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="28.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="50.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="23.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="21.43"/>
@@ -4024,24 +4027,24 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="3" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="2" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="4" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="5.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="4" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="2" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="21.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="5" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="6" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="5" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="6" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="2" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="0" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="0" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="82" style="7" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="82" style="7" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="0" width="10.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="0" width="12.71"/>
   </cols>
@@ -21076,9 +21079,11 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P154" s="36"/>
+      <c r="P154" s="36" t="s">
+        <v>947</v>
+      </c>
       <c r="Q154" s="0" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="S154" s="2" t="s">
         <v>108</v>
@@ -21179,7 +21184,7 @@
         <v>915</v>
       </c>
       <c r="C155" s="45" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D155" s="45" t="s">
         <v>916</v>
@@ -21189,13 +21194,13 @@
         <v>2004</v>
       </c>
       <c r="G155" s="47" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H155" s="45" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="I155" s="45" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="J155" s="45" t="s">
         <v>107</v>
@@ -21284,38 +21289,38 @@
         <v>915</v>
       </c>
       <c r="C156" s="45" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D156" s="45" t="s">
         <v>916</v>
       </c>
       <c r="E156" s="45" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="F156" s="46" t="n">
         <v>2005</v>
       </c>
       <c r="G156" s="47" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H156" s="45" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="I156" s="45" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="J156" s="45" t="s">
         <v>315</v>
       </c>
       <c r="K156" s="45" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="L156" s="48" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="P156" s="36" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="T156" s="0" t="s">
         <v>108</v>
@@ -21428,22 +21433,22 @@
         <v>915</v>
       </c>
       <c r="C157" s="45" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D157" s="45" t="s">
         <v>916</v>
       </c>
       <c r="E157" s="45" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F157" s="46" t="n">
         <v>2006</v>
       </c>
       <c r="G157" s="47" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H157" s="45" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="I157" s="45" t="s">
         <v>633</v>
@@ -21457,7 +21462,7 @@
         <v>0</v>
       </c>
       <c r="P157" s="36" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="U157" s="0" t="s">
         <v>108</v>
@@ -21531,25 +21536,25 @@
         <v>915</v>
       </c>
       <c r="C158" s="45" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D158" s="45" t="s">
         <v>916</v>
       </c>
       <c r="E158" s="45" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="F158" s="46" t="n">
         <v>2008</v>
       </c>
       <c r="G158" s="47" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H158" s="45" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I158" s="45" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="J158" s="45" t="s">
         <v>159</v>
@@ -21686,38 +21691,38 @@
         <v>915</v>
       </c>
       <c r="C159" s="45" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D159" s="45" t="s">
         <v>916</v>
       </c>
       <c r="E159" s="45" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F159" s="46" t="n">
         <v>2014</v>
       </c>
       <c r="G159" s="47" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H159" s="45" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="I159" s="45" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="J159" s="45" t="s">
         <v>660</v>
       </c>
       <c r="K159" s="45" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="L159" s="48" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="P159" s="36" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="Q159" s="0" t="s">
         <v>257</v>
@@ -21800,25 +21805,25 @@
         <v>915</v>
       </c>
       <c r="C160" s="45" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D160" s="45" t="s">
         <v>916</v>
       </c>
       <c r="E160" s="45" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="F160" s="46" t="n">
         <v>2014</v>
       </c>
       <c r="G160" s="47" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H160" s="45" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="I160" s="45" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="J160" s="45" t="s">
         <v>165</v>
@@ -21901,22 +21906,22 @@
         <v>915</v>
       </c>
       <c r="C161" s="45" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D161" s="45" t="s">
         <v>916</v>
       </c>
       <c r="E161" s="45" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F161" s="46" t="n">
         <v>2016</v>
       </c>
       <c r="G161" s="47" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H161" s="45" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="I161" s="45" t="s">
         <v>455</v>
@@ -22002,22 +22007,22 @@
         <v>915</v>
       </c>
       <c r="C162" s="45" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D162" s="45" t="s">
         <v>916</v>
       </c>
       <c r="E162" s="45" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="F162" s="46" t="n">
         <v>2016</v>
       </c>
       <c r="G162" s="47" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H162" s="45" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="I162" s="45" t="s">
         <v>483</v>
@@ -22031,10 +22036,10 @@
         <v>0</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="N162" s="0" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="P162" s="36"/>
       <c r="Q162" s="0" t="s">
@@ -22148,7 +22153,7 @@
         <v>915</v>
       </c>
       <c r="C163" s="45" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D163" s="45" t="s">
         <v>916</v>
@@ -22158,13 +22163,13 @@
         <v>2017</v>
       </c>
       <c r="G163" s="47" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H163" s="45" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I163" s="45" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="J163" s="45" t="s">
         <v>130</v>
@@ -22175,7 +22180,7 @@
         <v>0</v>
       </c>
       <c r="P163" s="36" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="Q163" s="0" t="s">
         <v>266</v>
@@ -22261,25 +22266,25 @@
         <v>915</v>
       </c>
       <c r="C164" s="45" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D164" s="45" t="s">
         <v>916</v>
       </c>
       <c r="E164" s="45" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="F164" s="46" t="n">
         <v>2017</v>
       </c>
       <c r="G164" s="47" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H164" s="45" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="I164" s="45" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="J164" s="45" t="s">
         <v>209</v>
@@ -22374,25 +22379,25 @@
         <v>915</v>
       </c>
       <c r="C165" s="45" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D165" s="45" t="s">
         <v>916</v>
       </c>
       <c r="E165" s="45" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F165" s="46" t="n">
         <v>2017</v>
       </c>
       <c r="G165" s="47" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H165" s="45" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="I165" s="45" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="J165" s="45" t="s">
         <v>660</v>
@@ -22403,13 +22408,13 @@
         <v>0</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="N165" s="0" t="s">
         <v>717</v>
       </c>
       <c r="P165" s="36" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="Q165" s="0" t="s">
         <v>257</v>
@@ -22504,44 +22509,44 @@
         <v>915</v>
       </c>
       <c r="C166" s="45" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D166" s="45" t="s">
         <v>916</v>
       </c>
       <c r="E166" s="45" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F166" s="46" t="n">
         <v>2020</v>
       </c>
       <c r="G166" s="47" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H166" s="45" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="I166" s="45" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="J166" s="45" t="s">
         <v>159</v>
       </c>
       <c r="K166" s="45" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="L166" s="48" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N166" s="0" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="P166" s="36" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="Q166" s="0" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="T166" s="0" t="s">
         <v>108</v>
@@ -22630,26 +22635,26 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="16" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D167" s="16" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E167" s="16"/>
       <c r="F167" s="3" t="n">
         <v>1993</v>
       </c>
       <c r="G167" s="33" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H167" s="16" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="I167" s="16" t="s">
         <v>198</v>
@@ -22717,29 +22722,29 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="16" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D168" s="16" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E168" s="16"/>
       <c r="F168" s="3" t="n">
         <v>1999</v>
       </c>
       <c r="G168" s="33" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H168" s="16" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="I168" s="16" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="J168" s="16" t="s">
         <v>185</v>
@@ -22811,47 +22816,47 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="16" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D169" s="16" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="F169" s="3" t="n">
         <v>1993</v>
       </c>
       <c r="G169" s="33" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H169" s="16" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="I169" s="16" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="J169" s="16" t="s">
         <v>107</v>
       </c>
       <c r="K169" s="16" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="L169" s="34" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N169" s="0" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="P169" s="36" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="Q169" s="0" t="s">
         <v>257</v>
@@ -22961,29 +22966,29 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="16" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D170" s="16" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E170" s="16"/>
       <c r="F170" s="3" t="n">
         <v>2002</v>
       </c>
       <c r="G170" s="33" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H170" s="16" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="I170" s="16" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="J170" s="16" t="s">
         <v>107</v>
@@ -22994,7 +22999,7 @@
         <v>0</v>
       </c>
       <c r="N170" s="0" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="P170" s="36"/>
       <c r="S170" s="2" t="s">
@@ -23051,29 +23056,29 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="16" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D171" s="16" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E171" s="16"/>
       <c r="F171" s="3" t="n">
         <v>2008</v>
       </c>
       <c r="G171" s="33" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H171" s="16" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="I171" s="16" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="J171" s="16" t="s">
         <v>107</v>
@@ -23084,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="P171" s="36" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="T171" s="0" t="s">
         <v>108</v>
@@ -23179,29 +23184,29 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="16" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D172" s="16" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E172" s="16"/>
       <c r="F172" s="3" t="n">
         <v>2008</v>
       </c>
       <c r="G172" s="33" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H172" s="16" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="I172" s="16" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="J172" s="16" t="s">
         <v>119</v>
@@ -23212,7 +23217,7 @@
         <v>0</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N172" s="55"/>
       <c r="P172" s="36"/>
@@ -23291,29 +23296,29 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="16" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D173" s="16" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E173" s="16"/>
       <c r="F173" s="3" t="n">
         <v>2009</v>
       </c>
       <c r="G173" s="33" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H173" s="16" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="I173" s="16" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="J173" s="16" t="s">
         <v>119</v>
@@ -23324,10 +23329,10 @@
         <v>0</v>
       </c>
       <c r="N173" s="0" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="P173" s="36" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="T173" s="0" t="s">
         <v>108</v>
@@ -23404,29 +23409,29 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="16" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B174" s="16" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D174" s="16" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E174" s="16"/>
       <c r="F174" s="3" t="n">
         <v>2011</v>
       </c>
       <c r="G174" s="33" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H174" s="16" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="I174" s="16" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="J174" s="16" t="s">
         <v>107</v>
@@ -23437,7 +23442,7 @@
         <v>0</v>
       </c>
       <c r="P174" s="36" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="T174" s="0" t="s">
         <v>108</v>
@@ -23511,31 +23516,31 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="16" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D175" s="16" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F175" s="3" t="n">
         <v>2011</v>
       </c>
       <c r="G175" s="33" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H175" s="16" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="I175" s="16" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="J175" s="16" t="s">
         <v>431</v>
@@ -23546,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="N175" s="0" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="P175" s="36"/>
       <c r="T175" s="0" t="s">
@@ -23654,42 +23659,42 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="16" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B176" s="16" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D176" s="16" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E176" s="16"/>
       <c r="F176" s="3" t="n">
         <v>2012</v>
       </c>
       <c r="G176" s="33" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H176" s="16" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="I176" s="16" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="J176" s="16" t="s">
         <v>107</v>
       </c>
       <c r="K176" s="16" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="L176" s="34" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="P176" s="36" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="T176" s="0" t="s">
         <v>108</v>
@@ -23793,26 +23798,26 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="16" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C177" s="16" t="s">
         <v>621</v>
       </c>
       <c r="D177" s="16" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E177" s="16"/>
       <c r="F177" s="3" t="n">
         <v>2013</v>
       </c>
       <c r="G177" s="33" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H177" s="16" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="I177" s="16" t="s">
         <v>562</v>
@@ -23821,7 +23826,7 @@
         <v>107</v>
       </c>
       <c r="K177" s="16" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="L177" s="34" t="n">
         <f aca="false">TRUE()</f>
@@ -23831,7 +23836,7 @@
         <v>615</v>
       </c>
       <c r="P177" s="36" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="Q177" s="0" t="s">
         <v>266</v>
@@ -23926,26 +23931,26 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="16" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B178" s="16" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D178" s="16" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E178" s="16"/>
       <c r="F178" s="3" t="n">
         <v>2013</v>
       </c>
       <c r="G178" s="33" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H178" s="16" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="I178" s="16" t="s">
         <v>678</v>
@@ -23959,10 +23964,10 @@
         <v>0</v>
       </c>
       <c r="M178" s="2" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="P178" s="36" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="Q178" s="0" t="s">
         <v>266</v>
@@ -24063,29 +24068,29 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="16" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D179" s="16" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E179" s="16"/>
       <c r="F179" s="3" t="n">
         <v>2014</v>
       </c>
       <c r="G179" s="33" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H179" s="16" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="I179" s="16" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="J179" s="16" t="s">
         <v>107</v>
@@ -24096,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="M179" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="N179" s="0" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="P179" s="36"/>
       <c r="T179" s="0" t="s">
@@ -24180,29 +24185,29 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="16" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B180" s="16" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D180" s="16" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E180" s="16"/>
       <c r="F180" s="3" t="n">
         <v>2017</v>
       </c>
       <c r="G180" s="33" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H180" s="16" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="I180" s="16" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="J180" s="16" t="s">
         <v>209</v>
@@ -24213,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="N180" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="P180" s="36"/>
       <c r="T180" s="0" t="s">
@@ -24276,29 +24281,29 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="16" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D181" s="16" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E181" s="16"/>
       <c r="F181" s="3" t="n">
         <v>2019</v>
       </c>
       <c r="G181" s="33" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H181" s="16" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="I181" s="16" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="J181" s="16" t="s">
         <v>107</v>
@@ -24312,7 +24317,7 @@
         <v>756</v>
       </c>
       <c r="P181" s="36" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="V181" s="0" t="s">
         <v>108</v>
@@ -24425,28 +24430,28 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="16" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B182" s="16" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D182" s="16" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="F182" s="3" t="n">
         <v>2020</v>
       </c>
       <c r="G182" s="33" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H182" s="16" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="I182" s="16" t="s">
         <v>497</v>
@@ -24460,10 +24465,10 @@
         <v>0</v>
       </c>
       <c r="N182" s="0" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="P182" s="36" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="U182" s="0" t="s">
         <v>108</v>
@@ -24546,29 +24551,29 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="13" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D183" s="13" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E183" s="13"/>
       <c r="F183" s="5" t="n">
         <v>1996</v>
       </c>
       <c r="G183" s="43" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H183" s="13" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="I183" s="13" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="J183" s="13" t="s">
         <v>107</v>
@@ -24633,29 +24638,29 @@
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="13" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D184" s="13" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E184" s="13"/>
       <c r="F184" s="5" t="n">
         <v>1998</v>
       </c>
       <c r="G184" s="43" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H184" s="13" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="I184" s="13" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="J184" s="13" t="s">
         <v>107</v>
@@ -24723,29 +24728,29 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="13" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D185" s="13" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E185" s="13"/>
       <c r="F185" s="5" t="n">
         <v>1999</v>
       </c>
       <c r="G185" s="43" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H185" s="13" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="I185" s="13" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="J185" s="13" t="s">
         <v>107</v>
@@ -24821,26 +24826,26 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="13" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D186" s="13" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E186" s="13"/>
       <c r="F186" s="5" t="n">
         <v>2001</v>
       </c>
       <c r="G186" s="43" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H186" s="13" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="I186" s="13" t="s">
         <v>129</v>
@@ -24946,26 +24951,26 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="13" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D187" s="13" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E187" s="13"/>
       <c r="F187" s="5" t="n">
         <v>2002</v>
       </c>
       <c r="G187" s="43" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H187" s="13" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="I187" s="13" t="s">
         <v>478</v>
@@ -24979,7 +24984,7 @@
         <v>0</v>
       </c>
       <c r="M187" s="2" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="U187" s="0" t="s">
         <v>108</v>
@@ -25050,26 +25055,26 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="13" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C188" s="13" t="s">
         <v>861</v>
       </c>
       <c r="D188" s="13" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E188" s="13"/>
       <c r="F188" s="5" t="n">
         <v>2004</v>
       </c>
       <c r="G188" s="43" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H188" s="13" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="I188" s="13" t="s">
         <v>859</v>
@@ -25078,17 +25083,17 @@
         <v>431</v>
       </c>
       <c r="K188" s="13" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="L188" s="44" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N188" s="0" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="P188" s="36" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="U188" s="0" t="s">
         <v>108</v>
@@ -25153,26 +25158,26 @@
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="13" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D189" s="13" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E189" s="13"/>
       <c r="F189" s="5" t="n">
         <v>2006</v>
       </c>
       <c r="G189" s="43" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H189" s="13" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="I189" s="13" t="s">
         <v>430</v>
@@ -25181,17 +25186,17 @@
         <v>431</v>
       </c>
       <c r="K189" s="13" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="L189" s="44" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O189" s="0" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="P189" s="49" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="U189" s="0" t="s">
         <v>108</v>
@@ -25247,49 +25252,49 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="13" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D190" s="13" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E190" s="13"/>
       <c r="F190" s="5" t="n">
         <v>2007</v>
       </c>
       <c r="G190" s="43" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H190" s="13" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="I190" s="13" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="J190" s="13" t="s">
         <v>107</v>
       </c>
       <c r="K190" s="13" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="L190" s="44" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="M190" s="2" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N190" s="55"/>
       <c r="O190" s="0" t="s">
         <v>861</v>
       </c>
       <c r="P190" s="36" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="U190" s="0" t="s">
         <v>108</v>
@@ -25357,31 +25362,31 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="13" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D191" s="13" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E191" s="13" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="F191" s="5" t="n">
         <v>2008</v>
       </c>
       <c r="G191" s="43" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H191" s="13" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="I191" s="13" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="J191" s="13" t="s">
         <v>107</v>
@@ -25477,16 +25482,16 @@
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="13" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D192" s="13" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E192" s="13"/>
       <c r="F192" s="5" t="n">
@@ -25494,16 +25499,16 @@
       </c>
       <c r="G192" s="43"/>
       <c r="H192" s="13" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="I192" s="13" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="J192" s="13" t="s">
         <v>107</v>
       </c>
       <c r="K192" s="13" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="L192" s="44" t="n">
         <f aca="false">TRUE()</f>
@@ -25513,7 +25518,7 @@
         <v>133</v>
       </c>
       <c r="P192" s="36" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="Q192" s="0" t="s">
         <v>266</v>
@@ -25638,37 +25643,37 @@
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="13" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D193" s="13" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E193" s="13" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="F193" s="5" t="n">
         <v>2012</v>
       </c>
       <c r="G193" s="43" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H193" s="13" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="I193" s="13" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="J193" s="13" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="K193" s="13" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="L193" s="44" t="n">
         <f aca="false">TRUE()</f>
@@ -25676,7 +25681,7 @@
       </c>
       <c r="N193" s="55"/>
       <c r="P193" s="36" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="Q193" s="0" t="s">
         <v>266</v>
@@ -25777,48 +25782,48 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="13" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D194" s="13" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E194" s="13"/>
       <c r="F194" s="5" t="n">
         <v>2014</v>
       </c>
       <c r="G194" s="43" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H194" s="13" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="I194" s="13" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="J194" s="13" t="s">
         <v>107</v>
       </c>
       <c r="K194" s="13" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="L194" s="44" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="M194" s="2" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N194" s="55" t="s">
         <v>828</v>
       </c>
       <c r="P194" s="36" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="U194" s="0" t="s">
         <v>108</v>
@@ -26166,8 +26171,8 @@
     <hyperlink ref="P194" r:id="rId278" display="https://cafnrfaculty.missouri.edu/gislab/landis/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/ProcessBasedModelsDatabase.xlsx
+++ b/ProcessBasedModelsDatabase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5218" uniqueCount="1162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5229" uniqueCount="1166">
   <si>
     <t xml:space="preserve">General information</t>
   </si>
@@ -2882,6 +2882,21 @@
     <t xml:space="preserve">DELPHI</t>
   </si>
   <si>
+    <t xml:space="preserve">PICUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/S0378-1127(00)00386-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lexer MJ, Hönninger, A modified 3D-patch model for spatially explicit simulation of vegetation composition in heterogeneous landscapes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://boku.ac.at/en/wabo/waldbau/research/working-areas/waldoekosystemmodellierung/dynamische-oekosystemmodelle/picus</t>
+  </si>
+  <si>
     <t xml:space="preserve">FOREST v5.1</t>
   </si>
   <si>
@@ -3480,9 +3495,6 @@
   </si>
   <si>
     <t xml:space="preserve">Institute of Silviculture, Vienna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria</t>
   </si>
   <si>
     <t xml:space="preserve">iLand is a model of forest landscape dynamics, simulating individual tree competition, growth, mortality, and regeneration. It addresses interactions between climate (change), disturbance regimes, vegetation dynamics, and forest management.  In iLand, forest dynamics is modeled as an emergent property of interactions between adaptive agents, and their environment. iLand is a multi-scale process-based model, integrating processes from the individual tree level (e.g., competition) to the landscape scale (e.g., disturbance) in a hierarchical simulation framework.</t>
@@ -3694,7 +3706,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3927,6 +3939,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4009,17 +4025,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CK195"/>
+  <dimension ref="A1:CK1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="I175" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D130" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A175" activeCellId="0" sqref="A175"/>
-      <selection pane="bottomRight" activeCell="K203" activeCellId="0" sqref="K203"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A130" activeCellId="0" sqref="A130"/>
+      <selection pane="bottomRight" activeCell="B156" activeCellId="0" sqref="B156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.14"/>
@@ -4037,7 +4053,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="20.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="28.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="50.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="23.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="21.43"/>
@@ -4054,10 +4070,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="4" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="3" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="5.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="5" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="3" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="21.86"/>
@@ -18964,7 +18980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="148.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="15" t="s">
         <v>451</v>
       </c>
@@ -20040,7 +20056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="15" t="s">
         <v>451</v>
       </c>
@@ -20956,7 +20972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="48" t="s">
         <v>451</v>
       </c>
@@ -21086,7 +21102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="48" t="s">
         <v>451</v>
       </c>
@@ -21101,94 +21117,29 @@
       </c>
       <c r="E156" s="48"/>
       <c r="F156" s="49" t="n">
-        <v>2004</v>
-      </c>
-      <c r="G156" s="50" t="s">
+        <v>2001</v>
+      </c>
+      <c r="G156" s="58" t="s">
         <v>954</v>
       </c>
       <c r="H156" s="48" t="s">
         <v>955</v>
       </c>
-      <c r="I156" s="48" t="s">
+      <c r="I156" s="48"/>
+      <c r="J156" s="48" t="s">
         <v>956</v>
-      </c>
-      <c r="J156" s="48" t="s">
-        <v>107</v>
       </c>
       <c r="K156" s="48"/>
       <c r="L156" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="P156" s="39"/>
-      <c r="U156" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="V156" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="X156" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y156" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB156" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE156" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI156" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ156" s="4" t="n">
-        <f aca="false">COUNTIF(Z156:AI156,"Y")</f>
-        <v>3</v>
-      </c>
-      <c r="AK156" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL156" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AM156" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN156" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP156" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ156" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS156" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT156" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW156" s="5" t="n">
-        <f aca="false">COUNTIF(AK156:AV156,"Y")</f>
-        <v>8</v>
-      </c>
-      <c r="BL156" s="6" t="n">
-        <f aca="false">COUNTIF(AX156:BK156,"Y")</f>
-        <v>0</v>
-      </c>
-      <c r="BR156" s="7" t="n">
-        <f aca="false">COUNTIF(BM156:BQ156,"Y")</f>
-        <v>0</v>
-      </c>
-      <c r="CD156" s="8" t="n">
-        <f aca="false">COUNTIF(BS156:CC156,"Y")</f>
-        <v>0</v>
-      </c>
-      <c r="CK156" s="38" t="n">
-        <f aca="false">COUNTIF(CE156:CJ156,"Y")</f>
-        <v>0</v>
-      </c>
+      <c r="P156" s="39" t="s">
+        <v>957</v>
+      </c>
+      <c r="Q156" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="CK156" s="38"/>
     </row>
     <row r="157" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="48" t="s">
@@ -21198,16 +21149,14 @@
         <v>919</v>
       </c>
       <c r="C157" s="48" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D157" s="48" t="s">
         <v>920</v>
       </c>
-      <c r="E157" s="48" t="s">
-        <v>958</v>
-      </c>
+      <c r="E157" s="48"/>
       <c r="F157" s="49" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G157" s="50" t="s">
         <v>959</v>
@@ -21219,20 +21168,13 @@
         <v>961</v>
       </c>
       <c r="J157" s="48" t="s">
-        <v>317</v>
-      </c>
-      <c r="K157" s="48" t="s">
-        <v>962</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="K157" s="48"/>
       <c r="L157" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="P157" s="39" t="s">
-        <v>963</v>
-      </c>
-      <c r="T157" s="0" t="s">
-        <v>109</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="P157" s="39"/>
       <c r="U157" s="0" t="s">
         <v>109</v>
       </c>
@@ -21248,16 +21190,7 @@
       <c r="AB157" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AC157" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD157" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AE157" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF157" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AI157" s="0" t="s">
@@ -21265,7 +21198,7 @@
       </c>
       <c r="AJ157" s="4" t="n">
         <f aca="false">COUNTIF(Z157:AI157,"Y")</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AK157" s="3" t="s">
         <v>109</v>
@@ -21276,6 +21209,9 @@
       <c r="AM157" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="AN157" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AP157" s="0" t="s">
         <v>109</v>
       </c>
@@ -21285,48 +21221,24 @@
       <c r="AS157" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AU157" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV157" s="0" t="s">
+      <c r="AT157" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AW157" s="5" t="n">
         <f aca="false">COUNTIF(AK157:AV157,"Y")</f>
         <v>8</v>
       </c>
-      <c r="AX157" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY157" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC157" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="BL157" s="6" t="n">
         <f aca="false">COUNTIF(AX157:BK157,"Y")</f>
-        <v>3</v>
-      </c>
-      <c r="BM157" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="BN157" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BQ157" s="0" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="BR157" s="7" t="n">
         <f aca="false">COUNTIF(BM157:BQ157,"Y")</f>
-        <v>3</v>
-      </c>
-      <c r="BY157" s="0" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="CD157" s="8" t="n">
         <f aca="false">COUNTIF(BS157:CC157,"Y")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK157" s="38" t="n">
         <f aca="false">COUNTIF(CE157:CJ157,"Y")</f>
@@ -21341,36 +21253,41 @@
         <v>919</v>
       </c>
       <c r="C158" s="48" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D158" s="48" t="s">
         <v>920</v>
       </c>
       <c r="E158" s="48" t="s">
+        <v>963</v>
+      </c>
+      <c r="F158" s="49" t="n">
+        <v>2005</v>
+      </c>
+      <c r="G158" s="50" t="s">
+        <v>964</v>
+      </c>
+      <c r="H158" s="48" t="s">
         <v>965</v>
       </c>
-      <c r="F158" s="49" t="n">
-        <v>2006</v>
-      </c>
-      <c r="G158" s="50" t="s">
+      <c r="I158" s="48" t="s">
         <v>966</v>
       </c>
-      <c r="H158" s="48" t="s">
+      <c r="J158" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="K158" s="48" t="s">
         <v>967</v>
       </c>
-      <c r="I158" s="48" t="s">
-        <v>635</v>
-      </c>
-      <c r="J158" s="48" t="s">
-        <v>602</v>
-      </c>
-      <c r="K158" s="48"/>
       <c r="L158" s="51" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="P158" s="39" t="s">
         <v>968</v>
       </c>
+      <c r="T158" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="U158" s="0" t="s">
         <v>109</v>
       </c>
@@ -21384,36 +21301,72 @@
         <v>109</v>
       </c>
       <c r="AB158" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC158" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD158" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE158" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF158" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI158" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AJ158" s="4" t="n">
         <f aca="false">COUNTIF(Z158:AI158,"Y")</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AK158" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="AL158" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM158" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP158" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AQ158" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS158" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU158" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV158" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AW158" s="5" t="n">
         <f aca="false">COUNTIF(AK158:AV158,"Y")</f>
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="AX158" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY158" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC158" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="BL158" s="6" t="n">
         <f aca="false">COUNTIF(AX158:BK158,"Y")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BM158" s="3" t="s">
         <v>109</v>
       </c>
       <c r="BN158" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BO158" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BP158" s="0" t="s">
         <v>109</v>
       </c>
       <c r="BQ158" s="0" t="s">
@@ -21421,7 +21374,7 @@
       </c>
       <c r="BR158" s="7" t="n">
         <f aca="false">COUNTIF(BM158:BQ158,"Y")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BY158" s="0" t="s">
         <v>109</v>
@@ -21452,7 +21405,7 @@
         <v>970</v>
       </c>
       <c r="F159" s="49" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G159" s="50" t="s">
         <v>971</v>
@@ -21461,21 +21414,17 @@
         <v>972</v>
       </c>
       <c r="I159" s="48" t="s">
-        <v>973</v>
+        <v>635</v>
       </c>
       <c r="J159" s="48" t="s">
-        <v>161</v>
+        <v>602</v>
       </c>
       <c r="K159" s="48"/>
       <c r="L159" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="P159" s="39"/>
-      <c r="S159" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="T159" s="0" t="s">
-        <v>109</v>
+      <c r="P159" s="39" t="s">
+        <v>973</v>
       </c>
       <c r="U159" s="0" t="s">
         <v>109</v>
@@ -21489,85 +21438,37 @@
       <c r="Y159" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AA159" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AB159" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC159" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE159" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF159" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI159" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AJ159" s="4" t="n">
         <f aca="false">COUNTIF(Z159:AI159,"Y")</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK159" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AL159" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AM159" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN159" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO159" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP159" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AQ159" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS159" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT159" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU159" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV159" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AW159" s="5" t="n">
         <f aca="false">COUNTIF(AK159:AV159,"Y")</f>
-        <v>11</v>
-      </c>
-      <c r="AY159" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ159" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BH159" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ159" s="0" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="BL159" s="6" t="n">
         <f aca="false">COUNTIF(AX159:BK159,"Y")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BM159" s="3" t="s">
         <v>109</v>
       </c>
       <c r="BN159" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BO159" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BP159" s="0" t="s">
         <v>109</v>
       </c>
       <c r="BQ159" s="0" t="s">
@@ -21575,7 +21476,7 @@
       </c>
       <c r="BR159" s="7" t="n">
         <f aca="false">COUNTIF(BM159:BQ159,"Y")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BY159" s="0" t="s">
         <v>109</v>
@@ -21606,7 +21507,7 @@
         <v>975</v>
       </c>
       <c r="F160" s="49" t="n">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="G160" s="50" t="s">
         <v>976</v>
@@ -21618,20 +21519,13 @@
         <v>978</v>
       </c>
       <c r="J160" s="48" t="s">
-        <v>662</v>
-      </c>
-      <c r="K160" s="48" t="s">
-        <v>979</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="K160" s="48"/>
       <c r="L160" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="P160" s="39" t="s">
-        <v>980</v>
-      </c>
-      <c r="Q160" s="0" t="s">
-        <v>259</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="P160" s="39"/>
       <c r="S160" s="3" t="s">
         <v>109</v>
       </c>
@@ -21644,16 +21538,19 @@
       <c r="V160" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="W160" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="X160" s="0" t="s">
         <v>109</v>
       </c>
       <c r="Y160" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="AA160" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AB160" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC160" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AE160" s="0" t="s">
@@ -21667,35 +21564,80 @@
       </c>
       <c r="AJ160" s="4" t="n">
         <f aca="false">COUNTIF(Z160:AI160,"Y")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK160" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="AL160" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM160" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN160" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO160" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP160" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AQ160" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AS160" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT160" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU160" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV160" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AW160" s="5" t="n">
         <f aca="false">COUNTIF(AK160:AV160,"Y")</f>
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="AY160" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ160" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BH160" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BJ160" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="BL160" s="6" t="n">
         <f aca="false">COUNTIF(AX160:BK160,"Y")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BM160" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN160" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BQ160" s="0" t="s">
         <v>109</v>
       </c>
       <c r="BR160" s="7" t="n">
         <f aca="false">COUNTIF(BM160:BQ160,"Y")</f>
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="BY160" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="CD160" s="8" t="n">
         <f aca="false">COUNTIF(BS160:CC160,"Y")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK160" s="38" t="n">
         <f aca="false">COUNTIF(CE160:CJ160,"Y")</f>
@@ -21710,36 +21652,46 @@
         <v>919</v>
       </c>
       <c r="C161" s="48" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D161" s="48" t="s">
         <v>920</v>
       </c>
       <c r="E161" s="48" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F161" s="49" t="n">
         <v>2014</v>
       </c>
       <c r="G161" s="50" t="s">
+        <v>981</v>
+      </c>
+      <c r="H161" s="48" t="s">
+        <v>982</v>
+      </c>
+      <c r="I161" s="48" t="s">
         <v>983</v>
       </c>
-      <c r="H161" s="48" t="s">
+      <c r="J161" s="48" t="s">
+        <v>662</v>
+      </c>
+      <c r="K161" s="48" t="s">
         <v>984</v>
       </c>
-      <c r="I161" s="48" t="s">
+      <c r="L161" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="P161" s="39" t="s">
         <v>985</v>
       </c>
-      <c r="J161" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="K161" s="48"/>
-      <c r="L161" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="P161" s="39"/>
       <c r="Q161" s="0" t="s">
-        <v>822</v>
+        <v>259</v>
+      </c>
+      <c r="S161" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T161" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="U161" s="0" t="s">
         <v>109</v>
@@ -21747,6 +21699,9 @@
       <c r="V161" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="W161" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="X161" s="0" t="s">
         <v>109</v>
       </c>
@@ -21757,6 +21712,9 @@
         <v>109</v>
       </c>
       <c r="AE161" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF161" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AI161" s="0" t="s">
@@ -21764,23 +21722,20 @@
       </c>
       <c r="AJ161" s="4" t="n">
         <f aca="false">COUNTIF(Z161:AI161,"Y")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK161" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AL161" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AM161" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN161" s="0" t="s">
+      <c r="AQ161" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS161" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AW161" s="5" t="n">
         <f aca="false">COUNTIF(AK161:AV161,"Y")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BL161" s="6" t="n">
         <f aca="false">COUNTIF(AX161:BK161,"Y")</f>
@@ -21819,7 +21774,7 @@
         <v>987</v>
       </c>
       <c r="F162" s="49" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G162" s="50" t="s">
         <v>988</v>
@@ -21828,7 +21783,7 @@
         <v>989</v>
       </c>
       <c r="I162" s="48" t="s">
-        <v>457</v>
+        <v>990</v>
       </c>
       <c r="J162" s="48" t="s">
         <v>167</v>
@@ -21838,6 +21793,9 @@
         <v>108</v>
       </c>
       <c r="P162" s="39"/>
+      <c r="Q162" s="0" t="s">
+        <v>822</v>
+      </c>
       <c r="U162" s="0" t="s">
         <v>109</v>
       </c>
@@ -21875,12 +21833,9 @@
       <c r="AN162" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AO162" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AW162" s="5" t="n">
         <f aca="false">COUNTIF(AK162:AV162,"Y")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BL162" s="6" t="n">
         <f aca="false">COUNTIF(AX162:BK162,"Y")</f>
@@ -21910,74 +21865,50 @@
         <v>919</v>
       </c>
       <c r="C163" s="48" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D163" s="48" t="s">
         <v>920</v>
       </c>
       <c r="E163" s="48" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F163" s="49" t="n">
         <v>2016</v>
       </c>
       <c r="G163" s="50" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H163" s="48" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I163" s="48" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="J163" s="48" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="K163" s="48"/>
       <c r="L163" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="M163" s="3" t="s">
-        <v>994</v>
-      </c>
-      <c r="N163" s="0" t="s">
-        <v>995</v>
-      </c>
       <c r="P163" s="39"/>
-      <c r="Q163" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="S163" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="T163" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="U163" s="0" t="s">
         <v>109</v>
       </c>
       <c r="V163" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="W163" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="X163" s="0" t="s">
         <v>109</v>
       </c>
       <c r="Y163" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="Z163" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="AB163" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AE163" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF163" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AI163" s="0" t="s">
@@ -21985,7 +21916,7 @@
       </c>
       <c r="AJ163" s="4" t="n">
         <f aca="false">COUNTIF(Z163:AI163,"Y")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK163" s="3" t="s">
         <v>109</v>
@@ -21999,44 +21930,23 @@
       <c r="AN163" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AQ163" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS163" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU163" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV163" s="0" t="s">
+      <c r="AO163" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AW163" s="5" t="n">
         <f aca="false">COUNTIF(AK163:AV163,"Y")</f>
-        <v>8</v>
-      </c>
-      <c r="AX163" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY163" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ163" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB163" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC163" s="0" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="BL163" s="6" t="n">
         <f aca="false">COUNTIF(AX163:BK163,"Y")</f>
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="BM163" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="BR163" s="7" t="n">
         <f aca="false">COUNTIF(BM163:BQ163,"Y")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD163" s="8" t="n">
         <f aca="false">COUNTIF(BS163:CC163,"Y")</f>
@@ -22055,14 +21965,16 @@
         <v>919</v>
       </c>
       <c r="C164" s="48" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D164" s="48" t="s">
         <v>920</v>
       </c>
-      <c r="E164" s="48"/>
+      <c r="E164" s="48" t="s">
+        <v>996</v>
+      </c>
       <c r="F164" s="49" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G164" s="50" t="s">
         <v>997</v>
@@ -22071,7 +21983,7 @@
         <v>998</v>
       </c>
       <c r="I164" s="48" t="s">
-        <v>999</v>
+        <v>485</v>
       </c>
       <c r="J164" s="48" t="s">
         <v>131</v>
@@ -22080,15 +21992,22 @@
       <c r="L164" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="P164" s="39" t="s">
+      <c r="M164" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="N164" s="0" t="s">
         <v>1000</v>
       </c>
+      <c r="P164" s="39"/>
       <c r="Q164" s="0" t="s">
         <v>268</v>
       </c>
       <c r="S164" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="T164" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="U164" s="0" t="s">
         <v>109</v>
       </c>
@@ -22104,59 +22023,83 @@
       <c r="Y164" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="Z164" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="AB164" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE164" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF164" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI164" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AJ164" s="4" t="n">
         <f aca="false">COUNTIF(Z164:AI164,"Y")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK164" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="AL164" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AM164" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="AN164" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ164" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AS164" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AU164" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV164" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AW164" s="5" t="n">
         <f aca="false">COUNTIF(AK164:AV164,"Y")</f>
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="AX164" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY164" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ164" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB164" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC164" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="BL164" s="6" t="n">
         <f aca="false">COUNTIF(AX164:BK164,"Y")</f>
-        <v>0</v>
-      </c>
-      <c r="BM164" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="BN164" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BO164" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BQ164" s="0" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="BR164" s="7" t="n">
         <f aca="false">COUNTIF(BM164:BQ164,"Y")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CD164" s="8" t="n">
         <f aca="false">COUNTIF(BS164:CC164,"Y")</f>
         <v>0</v>
       </c>
-      <c r="CE164" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="CK164" s="38" t="n">
         <f aca="false">COUNTIF(CE164:CJ164,"Y")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22172,33 +22115,33 @@
       <c r="D165" s="48" t="s">
         <v>920</v>
       </c>
-      <c r="E165" s="48" t="s">
-        <v>1002</v>
-      </c>
+      <c r="E165" s="48"/>
       <c r="F165" s="49" t="n">
         <v>2017</v>
       </c>
       <c r="G165" s="50" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H165" s="48" t="s">
         <v>1003</v>
       </c>
-      <c r="H165" s="48" t="s">
+      <c r="I165" s="48" t="s">
         <v>1004</v>
       </c>
-      <c r="I165" s="48" t="s">
-        <v>1005</v>
-      </c>
       <c r="J165" s="48" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="K165" s="48"/>
       <c r="L165" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="N165" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="P165" s="39"/>
-      <c r="T165" s="0" t="s">
+      <c r="P165" s="39" t="s">
+        <v>1005</v>
+      </c>
+      <c r="Q165" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="S165" s="3" t="s">
         <v>109</v>
       </c>
       <c r="U165" s="0" t="s">
@@ -22207,52 +22150,49 @@
       <c r="V165" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="W165" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="X165" s="0" t="s">
         <v>109</v>
       </c>
       <c r="Y165" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB165" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AJ165" s="4" t="n">
         <f aca="false">COUNTIF(Z165:AI165,"Y")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK165" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AL165" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AM165" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AQ165" s="0" t="s">
+      <c r="AS165" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AU165" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV165" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AW165" s="5" t="n">
         <f aca="false">COUNTIF(AK165:AV165,"Y")</f>
-        <v>6</v>
-      </c>
-      <c r="AY165" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC165" s="0" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="BL165" s="6" t="n">
         <f aca="false">COUNTIF(AX165:BK165,"Y")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BM165" s="3" t="s">
         <v>109</v>
       </c>
       <c r="BN165" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BO165" s="0" t="s">
         <v>109</v>
       </c>
       <c r="BQ165" s="0" t="s">
@@ -22260,15 +22200,18 @@
       </c>
       <c r="BR165" s="7" t="n">
         <f aca="false">COUNTIF(BM165:BQ165,"Y")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CD165" s="8" t="n">
         <f aca="false">COUNTIF(BS165:CC165,"Y")</f>
         <v>0</v>
       </c>
+      <c r="CE165" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="CK165" s="38" t="n">
         <f aca="false">COUNTIF(CE165:CJ165,"Y")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22297,30 +22240,19 @@
         <v>1009</v>
       </c>
       <c r="I166" s="48" t="s">
-        <v>978</v>
+        <v>1010</v>
       </c>
       <c r="J166" s="48" t="s">
-        <v>662</v>
+        <v>211</v>
       </c>
       <c r="K166" s="48"/>
       <c r="L166" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="M166" s="3" t="s">
-        <v>974</v>
-      </c>
       <c r="N166" s="0" t="s">
-        <v>722</v>
-      </c>
-      <c r="P166" s="39" t="s">
-        <v>980</v>
-      </c>
-      <c r="Q166" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="S166" s="3" t="s">
-        <v>109</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="P166" s="39"/>
       <c r="T166" s="0" t="s">
         <v>109</v>
       </c>
@@ -22334,34 +22266,22 @@
         <v>109</v>
       </c>
       <c r="Y166" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB166" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE166" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF166" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI166" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AJ166" s="4" t="n">
         <f aca="false">COUNTIF(Z166:AI166,"Y")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK166" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AN166" s="0" t="s">
+      <c r="AL166" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM166" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AQ166" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS166" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AU166" s="0" t="s">
@@ -22377,7 +22297,7 @@
       <c r="AY166" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="BA166" s="0" t="s">
+      <c r="BC166" s="0" t="s">
         <v>109</v>
       </c>
       <c r="BL166" s="6" t="n">
@@ -22387,9 +22307,15 @@
       <c r="BM166" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="BN166" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BQ166" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="BR166" s="7" t="n">
         <f aca="false">COUNTIF(BM166:BQ166,"Y")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CD166" s="8" t="n">
         <f aca="false">COUNTIF(BS166:CC166,"Y")</f>
@@ -22408,43 +22334,47 @@
         <v>919</v>
       </c>
       <c r="C167" s="48" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D167" s="48" t="s">
         <v>920</v>
       </c>
       <c r="E167" s="48" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="F167" s="49" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="G167" s="50" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H167" s="48" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="I167" s="48" t="s">
-        <v>1014</v>
+        <v>983</v>
       </c>
       <c r="J167" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="K167" s="48" t="s">
-        <v>1015</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="K167" s="48"/>
       <c r="L167" s="51" t="s">
-        <v>141</v>
+        <v>108</v>
+      </c>
+      <c r="M167" s="3" t="s">
+        <v>979</v>
       </c>
       <c r="N167" s="0" t="s">
-        <v>1016</v>
+        <v>722</v>
       </c>
       <c r="P167" s="39" t="s">
-        <v>1017</v>
+        <v>985</v>
       </c>
       <c r="Q167" s="0" t="s">
-        <v>1018</v>
+        <v>259</v>
+      </c>
+      <c r="S167" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="T167" s="0" t="s">
         <v>109</v>
@@ -22455,16 +22385,13 @@
       <c r="V167" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="W167" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="X167" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="Y167" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AB167" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC167" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AE167" s="0" t="s">
@@ -22478,31 +22405,34 @@
       </c>
       <c r="AJ167" s="4" t="n">
         <f aca="false">COUNTIF(Z167:AI167,"Y")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK167" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AL167" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AM167" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AN167" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AQ167" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS167" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU167" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV167" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AW167" s="5" t="n">
         <f aca="false">COUNTIF(AK167:AV167,"Y")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY167" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="BC167" s="0" t="s">
+      <c r="BA167" s="0" t="s">
         <v>109</v>
       </c>
       <c r="BL167" s="6" t="n">
@@ -22512,19 +22442,13 @@
       <c r="BM167" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="BN167" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="BR167" s="7" t="n">
         <f aca="false">COUNTIF(BM167:BQ167,"Y")</f>
-        <v>2</v>
-      </c>
-      <c r="BY167" s="0" t="s">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="CD167" s="8" t="n">
         <f aca="false">COUNTIF(BS167:CC167,"Y")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK167" s="38" t="n">
         <f aca="false">COUNTIF(CE167:CJ167,"Y")</f>
@@ -22532,43 +22456,64 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="18" t="s">
+      <c r="A168" s="48" t="s">
+        <v>451</v>
+      </c>
+      <c r="B168" s="48" t="s">
+        <v>919</v>
+      </c>
+      <c r="C168" s="48" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D168" s="48" t="s">
+        <v>920</v>
+      </c>
+      <c r="E168" s="48" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F168" s="49" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G168" s="50" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H168" s="48" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I168" s="48" t="s">
         <v>1019</v>
       </c>
-      <c r="B168" s="18" t="s">
+      <c r="J168" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="K168" s="48" t="s">
         <v>1020</v>
       </c>
-      <c r="C168" s="18" t="s">
+      <c r="L168" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="N168" s="0" t="s">
         <v>1021</v>
       </c>
-      <c r="D168" s="18" t="s">
+      <c r="P168" s="39" t="s">
         <v>1022</v>
       </c>
-      <c r="E168" s="18"/>
-      <c r="F168" s="4" t="n">
-        <v>1993</v>
-      </c>
-      <c r="G168" s="36" t="s">
+      <c r="Q168" s="0" t="s">
         <v>1023</v>
       </c>
-      <c r="H168" s="18" t="s">
-        <v>1024</v>
-      </c>
-      <c r="I168" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="J168" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="K168" s="18"/>
-      <c r="L168" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="P168" s="39"/>
       <c r="T168" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="U168" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="V168" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="W168" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="X168" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AB168" s="0" t="s">
@@ -22590,58 +22535,82 @@
         <f aca="false">COUNTIF(Z168:AI168,"Y")</f>
         <v>5</v>
       </c>
-      <c r="AS168" s="0" t="s">
+      <c r="AK168" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL168" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM168" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN168" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ168" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AW168" s="5" t="n">
         <f aca="false">COUNTIF(AK168:AV168,"Y")</f>
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="AY168" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC168" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="BL168" s="6" t="n">
         <f aca="false">COUNTIF(AX168:BK168,"Y")</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="BM168" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN168" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="BR168" s="7" t="n">
         <f aca="false">COUNTIF(BM168:BQ168,"Y")</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="BY168" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="CD168" s="8" t="n">
         <f aca="false">COUNTIF(BS168:CC168,"Y")</f>
-        <v>0</v>
-      </c>
-      <c r="CI168" s="0" t="s">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="CK168" s="38" t="n">
         <f aca="false">COUNTIF(CE168:CJ168,"Y")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="18" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="C169" s="18" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="E169" s="18"/>
       <c r="F169" s="4" t="n">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="G169" s="36" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="H169" s="18" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="I169" s="18" t="s">
-        <v>1028</v>
+        <v>200</v>
       </c>
       <c r="J169" s="18" t="s">
         <v>187</v>
@@ -22650,9 +22619,8 @@
       <c r="L169" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="N169" s="58"/>
       <c r="P169" s="39"/>
-      <c r="S169" s="3" t="s">
+      <c r="T169" s="0" t="s">
         <v>109</v>
       </c>
       <c r="W169" s="0" t="s">
@@ -22680,12 +22648,9 @@
       <c r="AS169" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AT169" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AW169" s="5" t="n">
         <f aca="false">COUNTIF(AK169:AV169,"Y")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL169" s="6" t="n">
         <f aca="false">COUNTIF(AX169:BK169,"Y")</f>
@@ -22699,35 +22664,30 @@
         <f aca="false">COUNTIF(BS169:CC169,"Y")</f>
         <v>0</v>
       </c>
-      <c r="CF169" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="CI169" s="0" t="s">
         <v>109</v>
       </c>
       <c r="CK169" s="38" t="n">
         <f aca="false">COUNTIF(CE169:CJ169,"Y")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="18" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="C170" s="18" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D170" s="18" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E170" s="18" t="s">
-        <v>1030</v>
-      </c>
+        <v>1027</v>
+      </c>
+      <c r="E170" s="18"/>
       <c r="F170" s="4" t="n">
-        <v>1993</v>
+        <v>1999</v>
       </c>
       <c r="G170" s="36" t="s">
         <v>1031</v>
@@ -22739,54 +22699,30 @@
         <v>1033</v>
       </c>
       <c r="J170" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="K170" s="18" t="s">
-        <v>1034</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="K170" s="18"/>
       <c r="L170" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="N170" s="0" t="s">
-        <v>1035</v>
-      </c>
-      <c r="P170" s="39" t="s">
-        <v>1036</v>
-      </c>
-      <c r="Q170" s="0" t="s">
-        <v>259</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N170" s="59"/>
+      <c r="P170" s="39"/>
       <c r="S170" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="T170" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="W170" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="X170" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y170" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AB170" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AC170" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AD170" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AE170" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AF170" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH170" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AI170" s="0" t="s">
@@ -22794,45 +22730,21 @@
       </c>
       <c r="AJ170" s="4" t="n">
         <f aca="false">COUNTIF(Z170:AI170,"Y")</f>
-        <v>7</v>
-      </c>
-      <c r="AK170" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AM170" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN170" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ170" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU170" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS170" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT170" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AW170" s="5" t="n">
         <f aca="false">COUNTIF(AK170:AV170,"Y")</f>
-        <v>5</v>
-      </c>
-      <c r="AY170" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB170" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC170" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD170" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE170" s="0" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="BL170" s="6" t="n">
         <f aca="false">COUNTIF(AX170:BK170,"Y")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BR170" s="7" t="n">
         <f aca="false">COUNTIF(BM170:BQ170,"Y")</f>
@@ -22845,92 +22757,137 @@
       <c r="CF170" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="CG170" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="CH170" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="CI170" s="0" t="s">
         <v>109</v>
       </c>
       <c r="CK170" s="38" t="n">
         <f aca="false">COUNTIF(CE170:CJ170,"Y")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="18" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="C171" s="18" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D171" s="18" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E171" s="18" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F171" s="4" t="n">
+        <v>1993</v>
+      </c>
+      <c r="G171" s="36" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H171" s="18" t="s">
         <v>1037</v>
       </c>
-      <c r="D171" s="18" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E171" s="18"/>
-      <c r="F171" s="4" t="n">
-        <v>2002</v>
-      </c>
-      <c r="G171" s="36" t="s">
+      <c r="I171" s="18" t="s">
         <v>1038</v>
-      </c>
-      <c r="H171" s="18" t="s">
-        <v>1039</v>
-      </c>
-      <c r="I171" s="18" t="s">
-        <v>1040</v>
       </c>
       <c r="J171" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="K171" s="18"/>
+      <c r="K171" s="18" t="s">
+        <v>1039</v>
+      </c>
       <c r="L171" s="37" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="N171" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="P171" s="39" t="s">
         <v>1041</v>
       </c>
-      <c r="P171" s="39"/>
+      <c r="Q171" s="0" t="s">
+        <v>259</v>
+      </c>
       <c r="S171" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="T171" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="W171" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="X171" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="Y171" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AB171" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="AC171" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD171" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AE171" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AF171" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH171" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI171" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AJ171" s="4" t="n">
         <f aca="false">COUNTIF(Z171:AI171,"Y")</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AK171" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AO171" s="0" t="s">
+      <c r="AM171" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN171" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ171" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU171" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AW171" s="5" t="n">
         <f aca="false">COUNTIF(AK171:AV171,"Y")</f>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="AY171" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB171" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC171" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD171" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE171" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="BL171" s="6" t="n">
         <f aca="false">COUNTIF(AX171:BK171,"Y")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BR171" s="7" t="n">
         <f aca="false">COUNTIF(BM171:BQ171,"Y")</f>
@@ -22943,27 +22900,36 @@
       <c r="CF171" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="CG171" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH171" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI171" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="CK171" s="38" t="n">
         <f aca="false">COUNTIF(CE171:CJ171,"Y")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="18" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="C172" s="18" t="s">
         <v>1042</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="E172" s="18"/>
       <c r="F172" s="4" t="n">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="G172" s="36" t="s">
         <v>1043</v>
@@ -22981,87 +22947,49 @@
       <c r="L172" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="P172" s="39" t="s">
+      <c r="N172" s="0" t="s">
         <v>1046</v>
       </c>
-      <c r="T172" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="V172" s="0" t="s">
+      <c r="P172" s="39"/>
+      <c r="S172" s="3" t="s">
         <v>109</v>
       </c>
       <c r="W172" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="X172" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="Y172" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="Z172" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA172" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AB172" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AC172" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AE172" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AF172" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI172" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AJ172" s="4" t="n">
         <f aca="false">COUNTIF(Z172:AI172,"Y")</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AK172" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM172" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN172" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ172" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS172" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU172" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV172" s="0" t="s">
+      <c r="AO172" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AW172" s="5" t="n">
         <f aca="false">COUNTIF(AK172:AV172,"Y")</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BL172" s="6" t="n">
         <f aca="false">COUNTIF(AX172:BK172,"Y")</f>
         <v>0</v>
       </c>
-      <c r="BM172" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="BQ172" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="BR172" s="7" t="n">
         <f aca="false">COUNTIF(BM172:BQ172,"Y")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CD172" s="8" t="n">
         <f aca="false">COUNTIF(BS172:CC172,"Y")</f>
@@ -23077,16 +23005,16 @@
     </row>
     <row r="173" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="18" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="C173" s="18" t="s">
         <v>1047</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="E173" s="18"/>
       <c r="F173" s="4" t="n">
@@ -23102,23 +23030,33 @@
         <v>1050</v>
       </c>
       <c r="J173" s="18" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="K173" s="18"/>
       <c r="L173" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="M173" s="3" t="s">
+      <c r="P173" s="39" t="s">
         <v>1051</v>
       </c>
-      <c r="N173" s="58"/>
-      <c r="P173" s="39"/>
       <c r="T173" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="V173" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="W173" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="X173" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y173" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z173" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="AA173" s="0" t="s">
         <v>109</v>
       </c>
@@ -23132,9 +23070,6 @@
         <v>109</v>
       </c>
       <c r="AF173" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH173" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AI173" s="0" t="s">
@@ -23144,9 +23079,30 @@
         <f aca="false">COUNTIF(Z173:AI173,"Y")</f>
         <v>7</v>
       </c>
+      <c r="AK173" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM173" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN173" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ173" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS173" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU173" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV173" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AW173" s="5" t="n">
         <f aca="false">COUNTIF(AK173:AV173,"Y")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BL173" s="6" t="n">
         <f aca="false">COUNTIF(AX173:BK173,"Y")</f>
@@ -23155,53 +23111,41 @@
       <c r="BM173" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="BQ173" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="BR173" s="7" t="n">
         <f aca="false">COUNTIF(BM173:BQ173,"Y")</f>
-        <v>1</v>
-      </c>
-      <c r="BY173" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BZ173" s="0" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="CD173" s="8" t="n">
         <f aca="false">COUNTIF(BS173:CC173,"Y")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CF173" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="CG173" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="CH173" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="CI173" s="0" t="s">
         <v>109</v>
       </c>
       <c r="CK173" s="38" t="n">
         <f aca="false">COUNTIF(CE173:CJ173,"Y")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="18" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="C174" s="18" t="s">
         <v>1052</v>
       </c>
       <c r="D174" s="18" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="E174" s="18"/>
       <c r="F174" s="4" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G174" s="36" t="s">
         <v>1053</v>
@@ -23219,12 +23163,11 @@
       <c r="L174" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="N174" s="0" t="s">
+      <c r="M174" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="P174" s="39" t="s">
-        <v>1057</v>
-      </c>
+      <c r="N174" s="59"/>
+      <c r="P174" s="39"/>
       <c r="T174" s="0" t="s">
         <v>109</v>
       </c>
@@ -23237,13 +23180,16 @@
       <c r="AB174" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AD174" s="0" t="s">
+      <c r="AC174" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AE174" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AF174" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH174" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AI174" s="0" t="s">
@@ -23251,43 +23197,40 @@
       </c>
       <c r="AJ174" s="4" t="n">
         <f aca="false">COUNTIF(Z174:AI174,"Y")</f>
-        <v>6</v>
-      </c>
-      <c r="AK174" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL174" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AM174" s="0" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="AW174" s="5" t="n">
         <f aca="false">COUNTIF(AK174:AV174,"Y")</f>
-        <v>3</v>
-      </c>
-      <c r="AY174" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC174" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BF174" s="0" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="BL174" s="6" t="n">
         <f aca="false">COUNTIF(AX174:BK174,"Y")</f>
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="BM174" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="BR174" s="7" t="n">
         <f aca="false">COUNTIF(BM174:BQ174,"Y")</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BY174" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BZ174" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="CD174" s="8" t="n">
         <f aca="false">COUNTIF(BS174:CC174,"Y")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CF174" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG174" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH174" s="0" t="s">
         <v>109</v>
       </c>
       <c r="CI174" s="0" t="s">
@@ -23295,42 +23238,45 @@
       </c>
       <c r="CK174" s="38" t="n">
         <f aca="false">COUNTIF(CE174:CJ174,"Y")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="18" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="C175" s="18" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D175" s="18" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="E175" s="18"/>
       <c r="F175" s="4" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G175" s="36" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H175" s="18" t="s">
         <v>1059</v>
       </c>
-      <c r="H175" s="18" t="s">
+      <c r="I175" s="18" t="s">
         <v>1060</v>
       </c>
-      <c r="I175" s="18" t="s">
-        <v>1061</v>
-      </c>
       <c r="J175" s="18" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="K175" s="18"/>
       <c r="L175" s="37" t="s">
         <v>108</v>
       </c>
+      <c r="N175" s="0" t="s">
+        <v>1061</v>
+      </c>
       <c r="P175" s="39" t="s">
         <v>1062</v>
       </c>
@@ -23343,6 +23289,9 @@
       <c r="AA175" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="AB175" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AD175" s="0" t="s">
         <v>109</v>
       </c>
@@ -23357,36 +23306,33 @@
       </c>
       <c r="AJ175" s="4" t="n">
         <f aca="false">COUNTIF(Z175:AI175,"Y")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK175" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AU175" s="0" t="s">
+      <c r="AL175" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM175" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AW175" s="5" t="n">
         <f aca="false">COUNTIF(AK175:AV175,"Y")</f>
-        <v>2</v>
-      </c>
-      <c r="AZ175" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB175" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY175" s="0" t="s">
         <v>109</v>
       </c>
       <c r="BC175" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="BD175" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE175" s="0" t="s">
+      <c r="BF175" s="0" t="s">
         <v>109</v>
       </c>
       <c r="BL175" s="6" t="n">
         <f aca="false">COUNTIF(AX175:BK175,"Y")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BR175" s="7" t="n">
         <f aca="false">COUNTIF(BM175:BQ175,"Y")</f>
@@ -23399,75 +23345,57 @@
       <c r="CF175" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="CI175" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="CK175" s="38" t="n">
         <f aca="false">COUNTIF(CE175:CJ175,"Y")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="18" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="C176" s="18" t="s">
         <v>1063</v>
       </c>
       <c r="D176" s="18" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E176" s="18" t="s">
-        <v>1064</v>
-      </c>
+        <v>1027</v>
+      </c>
+      <c r="E176" s="18"/>
       <c r="F176" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="G176" s="36" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H176" s="18" t="s">
         <v>1065</v>
       </c>
-      <c r="H176" s="18" t="s">
+      <c r="I176" s="18" t="s">
         <v>1066</v>
       </c>
-      <c r="I176" s="18" t="s">
-        <v>1067</v>
-      </c>
       <c r="J176" s="18" t="s">
-        <v>433</v>
+        <v>107</v>
       </c>
       <c r="K176" s="18"/>
       <c r="L176" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="N176" s="0" t="s">
-        <v>1068</v>
-      </c>
-      <c r="P176" s="39"/>
+      <c r="P176" s="39" t="s">
+        <v>1067</v>
+      </c>
       <c r="T176" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="U176" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="V176" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="W176" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="X176" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y176" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AA176" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB176" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC176" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AD176" s="0" t="s">
@@ -23484,55 +23412,40 @@
       </c>
       <c r="AJ176" s="4" t="n">
         <f aca="false">COUNTIF(Z176:AI176,"Y")</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK176" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM176" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN176" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ176" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT176" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AU176" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV176" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AW176" s="5" t="n">
         <f aca="false">COUNTIF(AK176:AV176,"Y")</f>
-        <v>7</v>
-      </c>
-      <c r="AX176" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY176" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ176" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB176" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC176" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD176" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE176" s="0" t="s">
         <v>109</v>
       </c>
       <c r="BL176" s="6" t="n">
         <f aca="false">COUNTIF(AX176:BK176,"Y")</f>
-        <v>2</v>
-      </c>
-      <c r="BM176" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="BN176" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BQ176" s="0" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="BR176" s="7" t="n">
         <f aca="false">COUNTIF(BM176:BQ176,"Y")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CD176" s="8" t="n">
         <f aca="false">COUNTIF(BS176:CC176,"Y")</f>
@@ -23548,20 +23461,22 @@
     </row>
     <row r="177" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="18" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="C177" s="18" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D177" s="18" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E177" s="18" t="s">
         <v>1069</v>
       </c>
-      <c r="D177" s="18" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E177" s="18"/>
       <c r="F177" s="4" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G177" s="36" t="s">
         <v>1070</v>
@@ -23570,23 +23485,25 @@
         <v>1071</v>
       </c>
       <c r="I177" s="18" t="s">
-        <v>1045</v>
+        <v>1072</v>
       </c>
       <c r="J177" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="K177" s="18" t="s">
-        <v>1072</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="K177" s="18"/>
       <c r="L177" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="P177" s="39" t="s">
-        <v>1046</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N177" s="0" t="s">
+        <v>1073</v>
+      </c>
+      <c r="P177" s="39"/>
       <c r="T177" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="U177" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="V177" s="0" t="s">
         <v>109</v>
       </c>
@@ -23597,9 +23514,6 @@
         <v>109</v>
       </c>
       <c r="Y177" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z177" s="3" t="s">
         <v>109</v>
       </c>
       <c r="AA177" s="0" t="s">
@@ -23625,7 +23539,7 @@
       </c>
       <c r="AJ177" s="4" t="n">
         <f aca="false">COUNTIF(Z177:AI177,"Y")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK177" s="3" t="s">
         <v>109</v>
@@ -23636,13 +23550,7 @@
       <c r="AN177" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AP177" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AQ177" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS177" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AT177" s="0" t="s">
@@ -23656,15 +23564,30 @@
       </c>
       <c r="AW177" s="5" t="n">
         <f aca="false">COUNTIF(AK177:AV177,"Y")</f>
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="AX177" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY177" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="BL177" s="6" t="n">
         <f aca="false">COUNTIF(AX177:BK177,"Y")</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="BM177" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN177" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BQ177" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="BR177" s="7" t="n">
         <f aca="false">COUNTIF(BM177:BQ177,"Y")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CD177" s="8" t="n">
         <f aca="false">COUNTIF(BS177:CC177,"Y")</f>
@@ -23673,73 +23596,61 @@
       <c r="CF177" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="CH177" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="CI177" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="CK177" s="38" t="n">
         <f aca="false">COUNTIF(CE177:CJ177,"Y")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="18" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="C178" s="18" t="s">
-        <v>623</v>
+        <v>1074</v>
       </c>
       <c r="D178" s="18" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="E178" s="18"/>
       <c r="F178" s="4" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G178" s="36" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="H178" s="18" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="I178" s="18" t="s">
-        <v>564</v>
+        <v>1050</v>
       </c>
       <c r="J178" s="18" t="s">
         <v>107</v>
       </c>
       <c r="K178" s="18" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="L178" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="N178" s="0" t="s">
-        <v>617</v>
-      </c>
       <c r="P178" s="39" t="s">
-        <v>1076</v>
-      </c>
-      <c r="Q178" s="0" t="s">
-        <v>268</v>
+        <v>1051</v>
       </c>
       <c r="T178" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="U178" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="V178" s="0" t="s">
         <v>109</v>
       </c>
       <c r="W178" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="X178" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="Y178" s="0" t="s">
         <v>109</v>
       </c>
@@ -23762,9 +23673,6 @@
         <v>109</v>
       </c>
       <c r="AF178" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG178" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AI178" s="0" t="s">
@@ -23772,7 +23680,7 @@
       </c>
       <c r="AJ178" s="4" t="n">
         <f aca="false">COUNTIF(Z178:AI178,"Y")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK178" s="3" t="s">
         <v>109</v>
@@ -23780,29 +23688,38 @@
       <c r="AM178" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="AN178" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP178" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AQ178" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="AS178" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT178" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AU178" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV178" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AW178" s="5" t="n">
         <f aca="false">COUNTIF(AK178:AV178,"Y")</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BL178" s="6" t="n">
         <f aca="false">COUNTIF(AX178:BK178,"Y")</f>
         <v>0</v>
       </c>
-      <c r="BM178" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="BN178" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="BR178" s="7" t="n">
         <f aca="false">COUNTIF(BM178:BQ178,"Y")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CD178" s="8" t="n">
         <f aca="false">COUNTIF(BS178:CC178,"Y")</f>
@@ -23811,23 +23728,29 @@
       <c r="CF178" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="CH178" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI178" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="CK178" s="38" t="n">
         <f aca="false">COUNTIF(CE178:CJ178,"Y")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="18" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="C179" s="18" t="s">
-        <v>1077</v>
+        <v>623</v>
       </c>
       <c r="D179" s="18" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="E179" s="18"/>
       <c r="F179" s="4" t="n">
@@ -23840,17 +23763,19 @@
         <v>1079</v>
       </c>
       <c r="I179" s="18" t="s">
-        <v>680</v>
+        <v>564</v>
       </c>
       <c r="J179" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="K179" s="18"/>
+        <v>107</v>
+      </c>
+      <c r="K179" s="18" t="s">
+        <v>1080</v>
+      </c>
       <c r="L179" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="M179" s="3" t="s">
-        <v>1080</v>
+        <v>141</v>
+      </c>
+      <c r="N179" s="0" t="s">
+        <v>617</v>
       </c>
       <c r="P179" s="39" t="s">
         <v>1081</v>
@@ -23861,16 +23786,40 @@
       <c r="T179" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="U179" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="V179" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="W179" s="0" t="s">
         <v>109</v>
       </c>
       <c r="Y179" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="Z179" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="AA179" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="AB179" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC179" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD179" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AE179" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF179" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG179" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AI179" s="0" t="s">
@@ -23878,24 +23827,15 @@
       </c>
       <c r="AJ179" s="4" t="n">
         <f aca="false">COUNTIF(Z179:AI179,"Y")</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AK179" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AL179" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AM179" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AN179" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AQ179" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS179" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AU179" s="0" t="s">
@@ -23903,46 +23843,25 @@
       </c>
       <c r="AW179" s="5" t="n">
         <f aca="false">COUNTIF(AK179:AV179,"Y")</f>
-        <v>7</v>
-      </c>
-      <c r="AY179" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB179" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC179" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD179" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE179" s="0" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="BL179" s="6" t="n">
         <f aca="false">COUNTIF(AX179:BK179,"Y")</f>
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="BM179" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN179" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="BR179" s="7" t="n">
         <f aca="false">COUNTIF(BM179:BQ179,"Y")</f>
-        <v>0</v>
-      </c>
-      <c r="BX179" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BY179" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BZ179" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="CA179" s="0" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="CD179" s="8" t="n">
         <f aca="false">COUNTIF(BS179:CC179,"Y")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CF179" s="0" t="s">
         <v>109</v>
@@ -23954,20 +23873,20 @@
     </row>
     <row r="180" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="18" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="C180" s="18" t="s">
         <v>1082</v>
       </c>
       <c r="D180" s="18" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="E180" s="18"/>
       <c r="F180" s="4" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G180" s="36" t="s">
         <v>1083</v>
@@ -23976,47 +23895,37 @@
         <v>1084</v>
       </c>
       <c r="I180" s="18" t="s">
-        <v>1085</v>
+        <v>680</v>
       </c>
       <c r="J180" s="18" t="s">
-        <v>107</v>
+        <v>317</v>
       </c>
       <c r="K180" s="18"/>
       <c r="L180" s="37" t="s">
         <v>108</v>
       </c>
       <c r="M180" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="P180" s="39" t="s">
         <v>1086</v>
       </c>
-      <c r="N180" s="0" t="s">
-        <v>1087</v>
-      </c>
-      <c r="P180" s="39"/>
+      <c r="Q180" s="0" t="s">
+        <v>268</v>
+      </c>
       <c r="T180" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="W180" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="Y180" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="Z180" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="AA180" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AB180" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC180" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD180" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AE180" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF180" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AI180" s="0" t="s">
@@ -24024,83 +23933,116 @@
       </c>
       <c r="AJ180" s="4" t="n">
         <f aca="false">COUNTIF(Z180:AI180,"Y")</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AK180" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="AL180" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AM180" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="AN180" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ180" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AS180" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU180" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AW180" s="5" t="n">
         <f aca="false">COUNTIF(AK180:AV180,"Y")</f>
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="AY180" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB180" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC180" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD180" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE180" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="BL180" s="6" t="n">
         <f aca="false">COUNTIF(AX180:BK180,"Y")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BR180" s="7" t="n">
         <f aca="false">COUNTIF(BM180:BQ180,"Y")</f>
         <v>0</v>
       </c>
-      <c r="BV180" s="0" t="s">
+      <c r="BX180" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY180" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BZ180" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA180" s="0" t="s">
         <v>109</v>
       </c>
       <c r="CD180" s="8" t="n">
         <f aca="false">COUNTIF(BS180:CC180,"Y")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CF180" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="CH180" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="CI180" s="0" t="s">
         <v>109</v>
       </c>
       <c r="CK180" s="38" t="n">
         <f aca="false">COUNTIF(CE180:CJ180,"Y")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="18" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="C181" s="18" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D181" s="18" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="E181" s="18"/>
       <c r="F181" s="4" t="n">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="G181" s="36" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H181" s="18" t="s">
         <v>1089</v>
       </c>
-      <c r="H181" s="18" t="s">
+      <c r="I181" s="18" t="s">
         <v>1090</v>
       </c>
-      <c r="I181" s="18" t="s">
-        <v>1091</v>
-      </c>
       <c r="J181" s="18" t="s">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="K181" s="18"/>
       <c r="L181" s="37" t="s">
         <v>108</v>
       </c>
+      <c r="M181" s="3" t="s">
+        <v>1091</v>
+      </c>
       <c r="N181" s="0" t="s">
         <v>1092</v>
       </c>
@@ -24108,7 +24050,13 @@
       <c r="T181" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="W181" s="0" t="s">
+      <c r="Y181" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z181" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA181" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AB181" s="0" t="s">
@@ -24117,7 +24065,13 @@
       <c r="AC181" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="AD181" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AE181" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF181" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AI181" s="0" t="s">
@@ -24125,9 +24079,12 @@
       </c>
       <c r="AJ181" s="4" t="n">
         <f aca="false">COUNTIF(Z181:AI181,"Y")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AK181" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM181" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AS181" s="0" t="s">
@@ -24135,7 +24092,7 @@
       </c>
       <c r="AW181" s="5" t="n">
         <f aca="false">COUNTIF(AK181:AV181,"Y")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL181" s="6" t="n">
         <f aca="false">COUNTIF(AX181:BK181,"Y")</f>
@@ -24145,9 +24102,12 @@
         <f aca="false">COUNTIF(BM181:BQ181,"Y")</f>
         <v>0</v>
       </c>
+      <c r="BV181" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="CD181" s="8" t="n">
         <f aca="false">COUNTIF(BS181:CC181,"Y")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF181" s="0" t="s">
         <v>109</v>
@@ -24165,20 +24125,20 @@
     </row>
     <row r="182" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="18" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="C182" s="18" t="s">
         <v>1093</v>
       </c>
       <c r="D182" s="18" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="E182" s="18"/>
       <c r="F182" s="4" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G182" s="36" t="s">
         <v>1094</v>
@@ -24187,52 +24147,32 @@
         <v>1095</v>
       </c>
       <c r="I182" s="18" t="s">
-        <v>1045</v>
+        <v>1096</v>
       </c>
       <c r="J182" s="18" t="s">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="K182" s="18"/>
       <c r="L182" s="37" t="s">
         <v>108</v>
       </c>
       <c r="N182" s="0" t="s">
-        <v>761</v>
-      </c>
-      <c r="P182" s="39" t="s">
-        <v>1046</v>
-      </c>
-      <c r="V182" s="0" t="s">
+        <v>1097</v>
+      </c>
+      <c r="P182" s="39"/>
+      <c r="T182" s="0" t="s">
         <v>109</v>
       </c>
       <c r="W182" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="X182" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y182" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z182" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA182" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AB182" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AC182" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AD182" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AE182" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF182" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AI182" s="0" t="s">
@@ -24240,54 +24180,21 @@
       </c>
       <c r="AJ182" s="4" t="n">
         <f aca="false">COUNTIF(Z182:AI182,"Y")</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AK182" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM182" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN182" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP182" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ182" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AS182" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT182" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU182" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV182" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AW182" s="5" t="n">
         <f aca="false">COUNTIF(AK182:AV182,"Y")</f>
-        <v>9</v>
-      </c>
-      <c r="AY182" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ182" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BI182" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ182" s="0" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="BL182" s="6" t="n">
         <f aca="false">COUNTIF(AX182:BK182,"Y")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BR182" s="7" t="n">
         <f aca="false">COUNTIF(BM182:BQ182,"Y")</f>
@@ -24313,52 +24220,59 @@
     </row>
     <row r="183" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="18" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="C183" s="18" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="D183" s="18" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E183" s="18" t="s">
-        <v>1097</v>
-      </c>
+        <v>1027</v>
+      </c>
+      <c r="E183" s="18"/>
       <c r="F183" s="4" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="G183" s="36" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H183" s="18" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="I183" s="18" t="s">
-        <v>499</v>
+        <v>1050</v>
       </c>
       <c r="J183" s="18" t="s">
-        <v>433</v>
+        <v>107</v>
       </c>
       <c r="K183" s="18"/>
       <c r="L183" s="37" t="s">
         <v>108</v>
       </c>
       <c r="N183" s="0" t="s">
-        <v>1100</v>
+        <v>761</v>
       </c>
       <c r="P183" s="39" t="s">
-        <v>1101</v>
-      </c>
-      <c r="U183" s="0" t="s">
-        <v>109</v>
+        <v>1051</v>
       </c>
       <c r="V183" s="0" t="s">
         <v>109</v>
       </c>
       <c r="W183" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="X183" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y183" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z183" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA183" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AB183" s="0" t="s">
@@ -24381,90 +24295,118 @@
       </c>
       <c r="AJ183" s="4" t="n">
         <f aca="false">COUNTIF(Z183:AI183,"Y")</f>
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="AK183" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM183" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="AN183" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="AP183" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ183" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AS183" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT183" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU183" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV183" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AW183" s="5" t="n">
         <f aca="false">COUNTIF(AK183:AV183,"Y")</f>
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="AY183" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ183" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BI183" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BJ183" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="BL183" s="6" t="n">
         <f aca="false">COUNTIF(AX183:BK183,"Y")</f>
-        <v>0</v>
-      </c>
-      <c r="BM183" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="BN183" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BO183" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BQ183" s="0" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="BR183" s="7" t="n">
         <f aca="false">COUNTIF(BM183:BQ183,"Y")</f>
-        <v>4</v>
-      </c>
-      <c r="BU183" s="0" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="CD183" s="8" t="n">
         <f aca="false">COUNTIF(BS183:CC183,"Y")</f>
-        <v>1</v>
-      </c>
-      <c r="CE183" s="0" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="CF183" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH183" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI183" s="0" t="s">
         <v>109</v>
       </c>
       <c r="CK183" s="38" t="n">
         <f aca="false">COUNTIF(CE183:CJ183,"Y")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="15" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B184" s="15" t="s">
+      <c r="A184" s="18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B184" s="18" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C184" s="18" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D184" s="18" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E184" s="18" t="s">
         <v>1102</v>
       </c>
-      <c r="C184" s="15" t="s">
+      <c r="F184" s="4" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G184" s="36" t="s">
         <v>1103</v>
       </c>
-      <c r="D184" s="15" t="s">
+      <c r="H184" s="18" t="s">
         <v>1104</v>
       </c>
-      <c r="E184" s="15"/>
-      <c r="F184" s="6" t="n">
-        <v>1996</v>
-      </c>
-      <c r="G184" s="46" t="s">
+      <c r="I184" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="J184" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="K184" s="18"/>
+      <c r="L184" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="N184" s="0" t="s">
         <v>1105</v>
       </c>
-      <c r="H184" s="15" t="s">
+      <c r="P184" s="39" t="s">
         <v>1106</v>
       </c>
-      <c r="I184" s="15" t="s">
-        <v>1107</v>
-      </c>
-      <c r="J184" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="K184" s="15"/>
-      <c r="L184" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="P184" s="39"/>
       <c r="U184" s="0" t="s">
         <v>109</v>
       </c>
@@ -24472,15 +24414,39 @@
         <v>109</v>
       </c>
       <c r="W184" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB184" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC184" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD184" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE184" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF184" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI184" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AJ184" s="4" t="n">
         <f aca="false">COUNTIF(Z184:AI184,"Y")</f>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AN184" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS184" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="AW184" s="5" t="n">
         <f aca="false">COUNTIF(AK184:AV184,"Y")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL184" s="6" t="n">
         <f aca="false">COUNTIF(AX184:BK184,"Y")</f>
@@ -24492,14 +24458,17 @@
       <c r="BN184" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="BO184" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="BQ184" s="0" t="s">
         <v>109</v>
       </c>
       <c r="BR184" s="7" t="n">
         <f aca="false">COUNTIF(BM184:BQ184,"Y")</f>
-        <v>3</v>
-      </c>
-      <c r="BS184" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BU184" s="0" t="s">
         <v>109</v>
       </c>
       <c r="CD184" s="8" t="n">
@@ -24509,7 +24478,7 @@
       <c r="CE184" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="CJ184" s="0" t="s">
+      <c r="CF184" s="0" t="s">
         <v>109</v>
       </c>
       <c r="CK184" s="38" t="n">
@@ -24519,29 +24488,29 @@
     </row>
     <row r="185" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="15" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="C185" s="15" t="s">
         <v>1108</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="E185" s="15"/>
       <c r="F185" s="6" t="n">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G185" s="46" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H185" s="15" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="I185" s="15" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="J185" s="15" t="s">
         <v>107</v>
@@ -24560,9 +24529,6 @@
       <c r="W185" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="X185" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AJ185" s="4" t="n">
         <f aca="false">COUNTIF(Z185:AI185,"Y")</f>
         <v>0</v>
@@ -24588,49 +24554,49 @@
         <f aca="false">COUNTIF(BM185:BQ185,"Y")</f>
         <v>3</v>
       </c>
-      <c r="BW185" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BY185" s="0" t="s">
+      <c r="BS185" s="3" t="s">
         <v>109</v>
       </c>
       <c r="CD185" s="8" t="n">
         <f aca="false">COUNTIF(BS185:CC185,"Y")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CE185" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="CJ185" s="0" t="s">
         <v>109</v>
       </c>
       <c r="CK185" s="38" t="n">
         <f aca="false">COUNTIF(CE185:CJ185,"Y")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="15" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="C186" s="15" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="E186" s="15"/>
       <c r="F186" s="6" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G186" s="46" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H186" s="15" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="I186" s="15" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="J186" s="15" t="s">
         <v>107</v>
@@ -24639,6 +24605,7 @@
       <c r="L186" s="47" t="s">
         <v>108</v>
       </c>
+      <c r="P186" s="39"/>
       <c r="U186" s="0" t="s">
         <v>109</v>
       </c>
@@ -24649,14 +24616,11 @@
         <v>109</v>
       </c>
       <c r="X186" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB186" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AJ186" s="4" t="n">
         <f aca="false">COUNTIF(Z186:AI186,"Y")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW186" s="5" t="n">
         <f aca="false">COUNTIF(AK186:AV186,"Y")</f>
@@ -24672,18 +24636,12 @@
       <c r="BN186" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="BO186" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="BQ186" s="0" t="s">
         <v>109</v>
       </c>
       <c r="BR186" s="7" t="n">
         <f aca="false">COUNTIF(BM186:BQ186,"Y")</f>
-        <v>4</v>
-      </c>
-      <c r="BS186" s="3" t="s">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="BW186" s="0" t="s">
         <v>109</v>
@@ -24693,7 +24651,7 @@
       </c>
       <c r="CD186" s="8" t="n">
         <f aca="false">COUNTIF(BS186:CC186,"Y")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CE186" s="0" t="s">
         <v>109</v>
@@ -24705,43 +24663,37 @@
     </row>
     <row r="187" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="15" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="E187" s="15"/>
       <c r="F187" s="6" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G187" s="46" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H187" s="15" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="I187" s="15" t="s">
-        <v>130</v>
+        <v>1120</v>
       </c>
       <c r="J187" s="15" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="K187" s="15"/>
       <c r="L187" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="S187" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="T187" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="U187" s="0" t="s">
         <v>109</v>
       </c>
@@ -24754,40 +24706,16 @@
       <c r="X187" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="Y187" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AB187" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC187" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE187" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF187" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI187" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AJ187" s="4" t="n">
         <f aca="false">COUNTIF(Z187:AI187,"Y")</f>
-        <v>5</v>
-      </c>
-      <c r="AK187" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AM187" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS187" s="0" t="s">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="AW187" s="5" t="n">
         <f aca="false">COUNTIF(AK187:AV187,"Y")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BL187" s="6" t="n">
         <f aca="false">COUNTIF(AX187:BK187,"Y")</f>
@@ -24799,69 +24727,75 @@
       <c r="BN187" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="BO187" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="BQ187" s="0" t="s">
         <v>109</v>
       </c>
       <c r="BR187" s="7" t="n">
         <f aca="false">COUNTIF(BM187:BQ187,"Y")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS187" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW187" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY187" s="0" t="s">
         <v>109</v>
       </c>
       <c r="CD187" s="8" t="n">
         <f aca="false">COUNTIF(BS187:CC187,"Y")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CE187" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="CF187" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="CJ187" s="0" t="s">
         <v>109</v>
       </c>
       <c r="CK187" s="38" t="n">
         <f aca="false">COUNTIF(CE187:CJ187,"Y")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="15" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="E188" s="15"/>
       <c r="F188" s="6" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G188" s="46" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="H188" s="15" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="I188" s="15" t="s">
-        <v>480</v>
+        <v>130</v>
       </c>
       <c r="J188" s="15" t="s">
-        <v>481</v>
+        <v>131</v>
       </c>
       <c r="K188" s="15"/>
       <c r="L188" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="M188" s="3" t="s">
-        <v>1112</v>
+      <c r="S188" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T188" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="U188" s="0" t="s">
         <v>109</v>
@@ -24875,16 +24809,40 @@
       <c r="X188" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="Y188" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AB188" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC188" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE188" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF188" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI188" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AJ188" s="4" t="n">
         <f aca="false">COUNTIF(Z188:AI188,"Y")</f>
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="AK188" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM188" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS188" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="AW188" s="5" t="n">
         <f aca="false">COUNTIF(AK188:AV188,"Y")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL188" s="6" t="n">
         <f aca="false">COUNTIF(AX188:BK188,"Y")</f>
@@ -24896,30 +24854,24 @@
       <c r="BN188" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="BO188" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="BQ188" s="0" t="s">
         <v>109</v>
       </c>
       <c r="BR188" s="7" t="n">
         <f aca="false">COUNTIF(BM188:BQ188,"Y")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BS188" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="BW188" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BY188" s="0" t="s">
         <v>109</v>
       </c>
       <c r="CD188" s="8" t="n">
         <f aca="false">COUNTIF(BS188:CC188,"Y")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CE188" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF188" s="0" t="s">
         <v>109</v>
       </c>
       <c r="CJ188" s="0" t="s">
@@ -24927,49 +24879,44 @@
       </c>
       <c r="CK188" s="38" t="n">
         <f aca="false">COUNTIF(CE188:CJ188,"Y")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="15" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>865</v>
+        <v>1124</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="E189" s="15"/>
       <c r="F189" s="6" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G189" s="46" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="H189" s="15" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="I189" s="15" t="s">
-        <v>863</v>
+        <v>480</v>
       </c>
       <c r="J189" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="K189" s="15" t="s">
-        <v>1124</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="K189" s="15"/>
       <c r="L189" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="N189" s="0" t="s">
-        <v>1125</v>
-      </c>
-      <c r="P189" s="39" t="s">
-        <v>1126</v>
+        <v>108</v>
+      </c>
+      <c r="M189" s="3" t="s">
+        <v>1117</v>
       </c>
       <c r="U189" s="0" t="s">
         <v>109</v>
@@ -24981,9 +24928,6 @@
         <v>109</v>
       </c>
       <c r="X189" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y189" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AB189" s="0" t="s">
@@ -25007,14 +24951,20 @@
       <c r="BN189" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="BO189" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="BQ189" s="0" t="s">
         <v>109</v>
       </c>
       <c r="BR189" s="7" t="n">
         <f aca="false">COUNTIF(BM189:BQ189,"Y")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS189" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW189" s="0" t="s">
         <v>109</v>
       </c>
       <c r="BY189" s="0" t="s">
@@ -25022,55 +24972,58 @@
       </c>
       <c r="CD189" s="8" t="n">
         <f aca="false">COUNTIF(BS189:CC189,"Y")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE189" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="CJ189" s="0" t="s">
         <v>109</v>
       </c>
       <c r="CK189" s="38" t="n">
         <f aca="false">COUNTIF(CE189:CJ189,"Y")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="15" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>1127</v>
+        <v>865</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="E190" s="15"/>
       <c r="F190" s="6" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G190" s="46" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H190" s="15" t="s">
         <v>1128</v>
       </c>
-      <c r="H190" s="15" t="s">
-        <v>1129</v>
-      </c>
       <c r="I190" s="15" t="s">
-        <v>432</v>
+        <v>863</v>
       </c>
       <c r="J190" s="15" t="s">
         <v>433</v>
       </c>
       <c r="K190" s="15" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="L190" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="O190" s="0" t="s">
-        <v>1096</v>
-      </c>
-      <c r="P190" s="52" t="s">
+      <c r="N190" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="P190" s="39" t="s">
         <v>1131</v>
       </c>
       <c r="U190" s="0" t="s">
@@ -25082,15 +25035,18 @@
       <c r="W190" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="X190" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y190" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AB190" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI190" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AJ190" s="4" t="n">
         <f aca="false">COUNTIF(Z190:AI190,"Y")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW190" s="5" t="n">
         <f aca="false">COUNTIF(AK190:AV190,"Y")</f>
@@ -25100,10 +25056,10 @@
         <f aca="false">COUNTIF(AX190:BK190,"Y")</f>
         <v>0</v>
       </c>
+      <c r="BM190" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="BN190" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BO190" s="0" t="s">
         <v>109</v>
       </c>
       <c r="BQ190" s="0" t="s">
@@ -25113,9 +25069,15 @@
         <f aca="false">COUNTIF(BM190:BQ190,"Y")</f>
         <v>3</v>
       </c>
+      <c r="BS190" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY190" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="CD190" s="8" t="n">
         <f aca="false">COUNTIF(BS190:CC190,"Y")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE190" s="0" t="s">
         <v>109</v>
@@ -25127,20 +25089,20 @@
     </row>
     <row r="191" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="15" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="C191" s="15" t="s">
         <v>1132</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="E191" s="15"/>
       <c r="F191" s="6" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G191" s="46" t="s">
         <v>1133</v>
@@ -25149,26 +25111,22 @@
         <v>1134</v>
       </c>
       <c r="I191" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="J191" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="K191" s="15" t="s">
         <v>1135</v>
-      </c>
-      <c r="J191" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="K191" s="15" t="s">
-        <v>1136</v>
       </c>
       <c r="L191" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="M191" s="3" t="s">
-        <v>1112</v>
-      </c>
-      <c r="N191" s="58"/>
       <c r="O191" s="0" t="s">
-        <v>865</v>
-      </c>
-      <c r="P191" s="39" t="s">
-        <v>1137</v>
+        <v>1101</v>
+      </c>
+      <c r="P191" s="52" t="s">
+        <v>1136</v>
       </c>
       <c r="U191" s="0" t="s">
         <v>109</v>
@@ -25180,11 +25138,14 @@
         <v>109</v>
       </c>
       <c r="AB191" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI191" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AJ191" s="4" t="n">
         <f aca="false">COUNTIF(Z191:AI191,"Y")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW191" s="5" t="n">
         <f aca="false">COUNTIF(AK191:AV191,"Y")</f>
@@ -25194,10 +25155,10 @@
         <f aca="false">COUNTIF(AX191:BK191,"Y")</f>
         <v>0</v>
       </c>
-      <c r="BM191" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="BN191" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BO191" s="0" t="s">
         <v>109</v>
       </c>
       <c r="BQ191" s="0" t="s">
@@ -25207,71 +25168,64 @@
         <f aca="false">COUNTIF(BM191:BQ191,"Y")</f>
         <v>3</v>
       </c>
-      <c r="BS191" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="BW191" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BY191" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="CB191" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="CD191" s="8" t="n">
         <f aca="false">COUNTIF(BS191:CC191,"Y")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CE191" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="CJ191" s="0" t="s">
         <v>109</v>
       </c>
       <c r="CK191" s="38" t="n">
         <f aca="false">COUNTIF(CE191:CJ191,"Y")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="15" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="C192" s="15" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D192" s="15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E192" s="15"/>
+      <c r="F192" s="6" t="n">
+        <v>2007</v>
+      </c>
+      <c r="G192" s="46" t="s">
         <v>1138</v>
       </c>
-      <c r="D192" s="15" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E192" s="15" t="s">
+      <c r="H192" s="15" t="s">
         <v>1139</v>
       </c>
-      <c r="F192" s="6" t="n">
-        <v>2008</v>
-      </c>
-      <c r="G192" s="46" t="s">
+      <c r="I192" s="15" t="s">
         <v>1140</v>
-      </c>
-      <c r="H192" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="I192" s="15" t="s">
-        <v>1142</v>
       </c>
       <c r="J192" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="K192" s="15"/>
+      <c r="K192" s="15" t="s">
+        <v>1141</v>
+      </c>
       <c r="L192" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="N192" s="58"/>
-      <c r="P192" s="39"/>
-      <c r="T192" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="M192" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="N192" s="59"/>
+      <c r="O192" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="P192" s="39" t="s">
+        <v>1142</v>
+      </c>
+      <c r="U192" s="0" t="s">
         <v>109</v>
       </c>
       <c r="V192" s="0" t="s">
@@ -25280,49 +25234,25 @@
       <c r="W192" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="Y192" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA192" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AB192" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC192" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE192" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI192" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AJ192" s="4" t="n">
         <f aca="false">COUNTIF(Z192:AI192,"Y")</f>
-        <v>5</v>
-      </c>
-      <c r="AK192" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN192" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP192" s="0" t="s">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="AW192" s="5" t="n">
         <f aca="false">COUNTIF(AK192:AV192,"Y")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BL192" s="6" t="n">
         <f aca="false">COUNTIF(AX192:BK192,"Y")</f>
         <v>0</v>
       </c>
+      <c r="BM192" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="BN192" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BO192" s="0" t="s">
         <v>109</v>
       </c>
       <c r="BQ192" s="0" t="s">
@@ -25335,12 +25265,18 @@
       <c r="BS192" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="BV192" s="0" t="s">
+      <c r="BW192" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY192" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="CB192" s="0" t="s">
         <v>109</v>
       </c>
       <c r="CD192" s="8" t="n">
         <f aca="false">COUNTIF(BS192:CC192,"Y")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CE192" s="0" t="s">
         <v>109</v>
@@ -25355,50 +25291,42 @@
     </row>
     <row r="193" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="15" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="C193" s="15" t="s">
         <v>1143</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E193" s="15"/>
+        <v>1109</v>
+      </c>
+      <c r="E193" s="15" t="s">
+        <v>1144</v>
+      </c>
       <c r="F193" s="6" t="n">
-        <v>2011</v>
-      </c>
-      <c r="G193" s="46"/>
+        <v>2008</v>
+      </c>
+      <c r="G193" s="46" t="s">
+        <v>1145</v>
+      </c>
       <c r="H193" s="15" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="I193" s="15" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="J193" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="K193" s="15" t="s">
-        <v>1146</v>
-      </c>
+      <c r="K193" s="15"/>
       <c r="L193" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="N193" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="P193" s="39" t="s">
-        <v>1147</v>
-      </c>
-      <c r="Q193" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="S193" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="U193" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="N193" s="59"/>
+      <c r="P193" s="39"/>
+      <c r="T193" s="0" t="s">
         <v>109</v>
       </c>
       <c r="V193" s="0" t="s">
@@ -25407,19 +25335,16 @@
       <c r="W193" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="X193" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="Y193" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="AA193" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AB193" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AC193" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD193" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AE193" s="0" t="s">
@@ -25435,45 +25360,24 @@
       <c r="AK193" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM193" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AN193" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AP193" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ193" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU193" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV193" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AW193" s="5" t="n">
         <f aca="false">COUNTIF(AK193:AV193,"Y")</f>
-        <v>7</v>
-      </c>
-      <c r="AX193" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY193" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC193" s="0" t="s">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="BL193" s="6" t="n">
         <f aca="false">COUNTIF(AX193:BK193,"Y")</f>
-        <v>3</v>
-      </c>
-      <c r="BM193" s="3" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="BN193" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BO193" s="0" t="s">
         <v>109</v>
       </c>
       <c r="BQ193" s="0" t="s">
@@ -25486,23 +25390,14 @@
       <c r="BS193" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="BY193" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="CB193" s="0" t="s">
+      <c r="BV193" s="0" t="s">
         <v>109</v>
       </c>
       <c r="CD193" s="8" t="n">
         <f aca="false">COUNTIF(BS193:CC193,"Y")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CE193" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="CF193" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="CH193" s="0" t="s">
         <v>109</v>
       </c>
       <c r="CJ193" s="0" t="s">
@@ -25510,52 +25405,53 @@
       </c>
       <c r="CK193" s="38" t="n">
         <f aca="false">COUNTIF(CE193:CJ193,"Y")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="15" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="C194" s="15" t="s">
         <v>1148</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E194" s="15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E194" s="15"/>
+      <c r="F194" s="6" t="n">
+        <v>2011</v>
+      </c>
+      <c r="G194" s="46"/>
+      <c r="H194" s="15" t="s">
         <v>1149</v>
       </c>
-      <c r="F194" s="6" t="n">
-        <v>2012</v>
-      </c>
-      <c r="G194" s="46" t="s">
+      <c r="I194" s="15" t="s">
         <v>1150</v>
       </c>
-      <c r="H194" s="15" t="s">
+      <c r="J194" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="K194" s="15" t="s">
         <v>1151</v>
-      </c>
-      <c r="I194" s="15" t="s">
-        <v>1152</v>
-      </c>
-      <c r="J194" s="15" t="s">
-        <v>1153</v>
-      </c>
-      <c r="K194" s="15" t="s">
-        <v>1154</v>
       </c>
       <c r="L194" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="N194" s="58"/>
+      <c r="N194" s="59" t="s">
+        <v>134</v>
+      </c>
       <c r="P194" s="39" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="Q194" s="0" t="s">
         <v>268</v>
+      </c>
+      <c r="S194" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="U194" s="0" t="s">
         <v>109</v>
@@ -25594,7 +25490,7 @@
       <c r="AK194" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AL194" s="0" t="s">
+      <c r="AM194" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AN194" s="0" t="s">
@@ -25604,15 +25500,30 @@
         <v>109</v>
       </c>
       <c r="AQ194" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU194" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV194" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AW194" s="5" t="n">
         <f aca="false">COUNTIF(AK194:AV194,"Y")</f>
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="AX194" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY194" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC194" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="BL194" s="6" t="n">
         <f aca="false">COUNTIF(AX194:BK194,"Y")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BM194" s="3" t="s">
         <v>109</v>
@@ -25630,9 +25541,6 @@
       <c r="BS194" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="BW194" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="BY194" s="0" t="s">
         <v>109</v>
       </c>
@@ -25641,59 +25549,68 @@
       </c>
       <c r="CD194" s="8" t="n">
         <f aca="false">COUNTIF(BS194:CC194,"Y")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CE194" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF194" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH194" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="CJ194" s="0" t="s">
         <v>109</v>
       </c>
       <c r="CK194" s="38" t="n">
         <f aca="false">COUNTIF(CE194:CJ194,"Y")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="15" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="C195" s="15" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D195" s="15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E195" s="15" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F195" s="6" t="n">
+        <v>2012</v>
+      </c>
+      <c r="G195" s="46" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H195" s="15" t="s">
         <v>1156</v>
       </c>
-      <c r="D195" s="15" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E195" s="15"/>
-      <c r="F195" s="6" t="n">
-        <v>2014</v>
-      </c>
-      <c r="G195" s="46" t="s">
+      <c r="I195" s="15" t="s">
         <v>1157</v>
       </c>
-      <c r="H195" s="15" t="s">
+      <c r="J195" s="15" t="s">
+        <v>956</v>
+      </c>
+      <c r="K195" s="15" t="s">
         <v>1158</v>
-      </c>
-      <c r="I195" s="15" t="s">
-        <v>1159</v>
-      </c>
-      <c r="J195" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="K195" s="15" t="s">
-        <v>1160</v>
       </c>
       <c r="L195" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="M195" s="3" t="s">
-        <v>1112</v>
-      </c>
-      <c r="N195" s="58" t="s">
-        <v>832</v>
-      </c>
+      <c r="N195" s="59"/>
       <c r="P195" s="39" t="s">
-        <v>1161</v>
+        <v>1159</v>
+      </c>
+      <c r="Q195" s="0" t="s">
+        <v>268</v>
       </c>
       <c r="U195" s="0" t="s">
         <v>109</v>
@@ -25704,16 +25621,49 @@
       <c r="W195" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="X195" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y195" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AB195" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC195" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD195" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE195" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI195" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AJ195" s="4" t="n">
         <f aca="false">COUNTIF(Z195:AI195,"Y")</f>
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="AK195" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL195" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN195" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP195" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ195" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="AW195" s="5" t="n">
         <f aca="false">COUNTIF(AK195:AV195,"Y")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BL195" s="6" t="n">
         <f aca="false">COUNTIF(AX195:BK195,"Y")</f>
@@ -25744,12 +25694,9 @@
       <c r="CB195" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="CC195" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="CD195" s="8" t="n">
         <f aca="false">COUNTIF(BS195:CC195,"Y")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CE195" s="0" t="s">
         <v>109</v>
@@ -25759,6 +25706,118 @@
         <v>1</v>
       </c>
     </row>
+    <row r="196" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="15" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B196" s="15" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C196" s="15" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D196" s="15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E196" s="15"/>
+      <c r="F196" s="6" t="n">
+        <v>2014</v>
+      </c>
+      <c r="G196" s="46" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H196" s="15" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I196" s="15" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J196" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="K196" s="15" t="s">
+        <v>1164</v>
+      </c>
+      <c r="L196" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="M196" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="N196" s="59" t="s">
+        <v>832</v>
+      </c>
+      <c r="P196" s="39" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Q196" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="U196" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="V196" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="W196" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB196" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ196" s="4" t="n">
+        <f aca="false">COUNTIF(Z196:AI196,"Y")</f>
+        <v>1</v>
+      </c>
+      <c r="AW196" s="5" t="n">
+        <f aca="false">COUNTIF(AK196:AV196,"Y")</f>
+        <v>0</v>
+      </c>
+      <c r="BL196" s="6" t="n">
+        <f aca="false">COUNTIF(AX196:BK196,"Y")</f>
+        <v>0</v>
+      </c>
+      <c r="BM196" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN196" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BQ196" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BR196" s="7" t="n">
+        <f aca="false">COUNTIF(BM196:BQ196,"Y")</f>
+        <v>3</v>
+      </c>
+      <c r="BS196" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW196" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY196" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="CB196" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="CC196" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="CD196" s="8" t="n">
+        <f aca="false">COUNTIF(BS196:CC196,"Y")</f>
+        <v>5</v>
+      </c>
+      <c r="CE196" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="CK196" s="38" t="n">
+        <f aca="false">COUNTIF(CE196:CJ196,"Y")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" display="https://doi.org/10.1029/gm029p0058"/>
@@ -25980,66 +26039,67 @@
     <hyperlink ref="P153" r:id="rId217" display="https://formind.org/model/formind/formix/"/>
     <hyperlink ref="G154" r:id="rId218" display="https://doi.org/10.1016/S0378-1127(99)00243-1"/>
     <hyperlink ref="G155" r:id="rId219" display="https://doi.org/10.1055/s-2002-25743"/>
-    <hyperlink ref="G156" r:id="rId220" display="https://doi.org/10.1016/j.ecolmodel.2004.04.016"/>
-    <hyperlink ref="G157" r:id="rId221" display="https://doi.org/10.1016/j.foreco.2004.10.034"/>
-    <hyperlink ref="P157" r:id="rId222" display="http://www.pik-potsdam.de/4c/"/>
-    <hyperlink ref="G158" r:id="rId223" display="https://doi.org/10.1016/j.ecolmodel.2008.05.004"/>
-    <hyperlink ref="P158" r:id="rId224" location="FORGEM" display="http://www.trees4future.eu/transnational-accesses/alt-for/alt-for-technical-information.html#FORGEM"/>
-    <hyperlink ref="G159" r:id="rId225" display="https://doi.org/10.1016/j.ecolmodel.2008.04.007"/>
-    <hyperlink ref="G160" r:id="rId226" display="https://doi.org/10.1016/j.ecolmodel.2013.09.016"/>
-    <hyperlink ref="P160" r:id="rId227" display="https://www.forest-modelling-lab.com/the-3d-cmcc-model"/>
-    <hyperlink ref="G161" r:id="rId228" display="https://doi.org/10.5194/gmd-7-1251-2014"/>
-    <hyperlink ref="G162" r:id="rId229" display="https://doi.org/10.5194/gmd-2016-128"/>
-    <hyperlink ref="G163" r:id="rId230" display="https://doi.org/10.1016/j.ecolmodel.2016.02.004"/>
-    <hyperlink ref="G164" r:id="rId231" display="https://doi.org/10.1002/ecm.1271"/>
-    <hyperlink ref="P164" r:id="rId232" display="https://github.com/TROLL-code/TROLL"/>
-    <hyperlink ref="G165" r:id="rId233" display="https://doi.org/10.1016/j.scitotenv.2017.02.073"/>
-    <hyperlink ref="G166" r:id="rId234" display="https://doi.org/10.3390/f8060220"/>
-    <hyperlink ref="P166" r:id="rId235" display="https://www.forest-modelling-lab.com/the-3d-cmcc-model"/>
-    <hyperlink ref="G167" r:id="rId236" display="https://doi.org/10.5194/gmd-13-1459-2020"/>
-    <hyperlink ref="P167" r:id="rId237" display="https://capsis.cirad.fr/capsis/help_en/heterofor"/>
-    <hyperlink ref="G168" r:id="rId238" display="https://doi.org/10.1016/0022-1694(93)90131-R"/>
-    <hyperlink ref="G169" r:id="rId239" display="https://doi.org/10.1002/(SICI)1099-1085(19990415)13:5&lt;689::AID-HYP773&gt;3.0.CO;2-D"/>
-    <hyperlink ref="G170" r:id="rId240" display="https://doi.org/10.1175/1087-3562(2004)8&lt;1:RRHSSO&gt;2.0.CO;2"/>
-    <hyperlink ref="P170" r:id="rId241" display="http://fiesta.bren.ucsb.edu/~rhessys/"/>
-    <hyperlink ref="G171" r:id="rId242" display="https://doi.org/10.1016/S0304-3800(02)00068-6"/>
-    <hyperlink ref="G172" r:id="rId243" display="https://doi.org/10.1029/2006WR005588"/>
-    <hyperlink ref="P172" r:id="rId244" display="http://www-personal.umich.edu/~ivanov/HYDROWIT/Models.html"/>
-    <hyperlink ref="G173" r:id="rId245" display="https://doi.org/10.1139/s09-003"/>
-    <hyperlink ref="G174" r:id="rId246" display="https://doi.org/10.1016/j.jhydrol.2009.01.006"/>
-    <hyperlink ref="P174" r:id="rId247" display="http://faculty.geog.utoronto.ca/Chen/Chen%27s%20homepage/research.htm"/>
-    <hyperlink ref="G175" r:id="rId248" display="https://doi.org/10.1029/2010WR010165"/>
-    <hyperlink ref="P175" r:id="rId249" display="https://www.epa.gov/water-research/visualizing-ecosystem-land-management-assessments-velma-model-20"/>
-    <hyperlink ref="G176" r:id="rId250" display="https://doi.org/10.1016/j.ecolmodel.2011.04.031"/>
-    <hyperlink ref="G177" r:id="rId251" display="https://doi.org/10.1029/2011MS000086"/>
-    <hyperlink ref="P177" r:id="rId252" display="http://www-personal.umich.edu/~ivanov/HYDROWIT/Models.html"/>
-    <hyperlink ref="G178" r:id="rId253" display="https://doi.org/10.1175/2012EI000472.1"/>
-    <hyperlink ref="P178" r:id="rId254" display="http://hs.umt.edu/RegionalHydrologyLab/software/default.php"/>
-    <hyperlink ref="G179" r:id="rId255" display="https://doi.org/10.1007/s10980-012-9772-x"/>
-    <hyperlink ref="P179" r:id="rId256" display="https://ldndc.imk-ifu.kit.edu/"/>
-    <hyperlink ref="G180" r:id="rId257" display="https://doi.org/10.1002/eco.1362"/>
-    <hyperlink ref="G181" r:id="rId258" display="https://doi.org/10.1016/j.wse.2017.12.007"/>
-    <hyperlink ref="G182" r:id="rId259" display="https://doi.org/10.1029/2018GB006077"/>
-    <hyperlink ref="P182" r:id="rId260" display="http://www-personal.umich.edu/~ivanov/HYDROWIT/Models.html"/>
-    <hyperlink ref="G183" r:id="rId261" display="https://doi.org/10.5194/gmd-2019-117"/>
-    <hyperlink ref="P183" r:id="rId262" display="https://www.envidat.ch/dataset/forhycs-v-1-0-0-model-code"/>
-    <hyperlink ref="G184" r:id="rId263" display="https://doi.org/10.1016/0304-3800(95)00164-6"/>
-    <hyperlink ref="G185" r:id="rId264" display="https://doi.org/10.1016/S0304-3800(97)00191-9"/>
-    <hyperlink ref="G186" r:id="rId265" display="https://doi.org/10.2737/NC-GTR-263"/>
-    <hyperlink ref="G187" r:id="rId266" display="https://doi.org/10.1016/S0378-1127(00)00432-1"/>
-    <hyperlink ref="G188" r:id="rId267" display="https://doi.org/10.1016/S0378-1127(01)00608-9"/>
-    <hyperlink ref="G189" r:id="rId268" display="https://doi.org/10.1016/j.ecolmodel.2003.12.055"/>
-    <hyperlink ref="P189" r:id="rId269" display="https://ites-fe.ethz.ch/openaccess/products/landclim"/>
-    <hyperlink ref="G190" r:id="rId270" display="https://doi.org/10.1016/j.ecolmodel.2005.11.046"/>
-    <hyperlink ref="P190" r:id="rId271" display="https://www.wsl.ch/de/projekte/treemig-1.html"/>
-    <hyperlink ref="G191" r:id="rId272" display="https://doi.org/10.1016/j.ecolmodel.2006.10.009"/>
-    <hyperlink ref="P191" r:id="rId273" display="http://www.landis-ii.org/"/>
-    <hyperlink ref="G192" r:id="rId274" display="https://doi.org/10.1016/j.ecolmodel.2008.02.032"/>
-    <hyperlink ref="P193" r:id="rId275" display="https://www.firelab.org/project/firebgcv2-landscape-fire-model"/>
-    <hyperlink ref="G194" r:id="rId276" display="https://doi.org/10.1016/j.ecolmodel.2012.02.015"/>
-    <hyperlink ref="P194" r:id="rId277" display="http://iland-model.org/startpage"/>
-    <hyperlink ref="G195" r:id="rId278" display="https://doi.org/10.1111/j.1600-0587.2013.00495.x"/>
-    <hyperlink ref="P195" r:id="rId279" display="https://cafnrfaculty.missouri.edu/gislab/landis/"/>
+    <hyperlink ref="G156" r:id="rId220" display="https://doi.org/10.1016/S0378-1127(00)00386-8"/>
+    <hyperlink ref="G157" r:id="rId221" display="https://doi.org/10.1016/j.ecolmodel.2004.04.016"/>
+    <hyperlink ref="G158" r:id="rId222" display="https://doi.org/10.1016/j.foreco.2004.10.034"/>
+    <hyperlink ref="P158" r:id="rId223" display="http://www.pik-potsdam.de/4c/"/>
+    <hyperlink ref="G159" r:id="rId224" display="https://doi.org/10.1016/j.ecolmodel.2008.05.004"/>
+    <hyperlink ref="P159" r:id="rId225" location="FORGEM" display="http://www.trees4future.eu/transnational-accesses/alt-for/alt-for-technical-information.html#FORGEM"/>
+    <hyperlink ref="G160" r:id="rId226" display="https://doi.org/10.1016/j.ecolmodel.2008.04.007"/>
+    <hyperlink ref="G161" r:id="rId227" display="https://doi.org/10.1016/j.ecolmodel.2013.09.016"/>
+    <hyperlink ref="P161" r:id="rId228" display="https://www.forest-modelling-lab.com/the-3d-cmcc-model"/>
+    <hyperlink ref="G162" r:id="rId229" display="https://doi.org/10.5194/gmd-7-1251-2014"/>
+    <hyperlink ref="G163" r:id="rId230" display="https://doi.org/10.5194/gmd-2016-128"/>
+    <hyperlink ref="G164" r:id="rId231" display="https://doi.org/10.1016/j.ecolmodel.2016.02.004"/>
+    <hyperlink ref="G165" r:id="rId232" display="https://doi.org/10.1002/ecm.1271"/>
+    <hyperlink ref="P165" r:id="rId233" display="https://github.com/TROLL-code/TROLL"/>
+    <hyperlink ref="G166" r:id="rId234" display="https://doi.org/10.1016/j.scitotenv.2017.02.073"/>
+    <hyperlink ref="G167" r:id="rId235" display="https://doi.org/10.3390/f8060220"/>
+    <hyperlink ref="P167" r:id="rId236" display="https://www.forest-modelling-lab.com/the-3d-cmcc-model"/>
+    <hyperlink ref="G168" r:id="rId237" display="https://doi.org/10.5194/gmd-13-1459-2020"/>
+    <hyperlink ref="P168" r:id="rId238" display="https://capsis.cirad.fr/capsis/help_en/heterofor"/>
+    <hyperlink ref="G169" r:id="rId239" display="https://doi.org/10.1016/0022-1694(93)90131-R"/>
+    <hyperlink ref="G170" r:id="rId240" display="https://doi.org/10.1002/(SICI)1099-1085(19990415)13:5&lt;689::AID-HYP773&gt;3.0.CO;2-D"/>
+    <hyperlink ref="G171" r:id="rId241" display="https://doi.org/10.1175/1087-3562(2004)8&lt;1:RRHSSO&gt;2.0.CO;2"/>
+    <hyperlink ref="P171" r:id="rId242" display="http://fiesta.bren.ucsb.edu/~rhessys/"/>
+    <hyperlink ref="G172" r:id="rId243" display="https://doi.org/10.1016/S0304-3800(02)00068-6"/>
+    <hyperlink ref="G173" r:id="rId244" display="https://doi.org/10.1029/2006WR005588"/>
+    <hyperlink ref="P173" r:id="rId245" display="http://www-personal.umich.edu/~ivanov/HYDROWIT/Models.html"/>
+    <hyperlink ref="G174" r:id="rId246" display="https://doi.org/10.1139/s09-003"/>
+    <hyperlink ref="G175" r:id="rId247" display="https://doi.org/10.1016/j.jhydrol.2009.01.006"/>
+    <hyperlink ref="P175" r:id="rId248" display="http://faculty.geog.utoronto.ca/Chen/Chen%27s%20homepage/research.htm"/>
+    <hyperlink ref="G176" r:id="rId249" display="https://doi.org/10.1029/2010WR010165"/>
+    <hyperlink ref="P176" r:id="rId250" display="https://www.epa.gov/water-research/visualizing-ecosystem-land-management-assessments-velma-model-20"/>
+    <hyperlink ref="G177" r:id="rId251" display="https://doi.org/10.1016/j.ecolmodel.2011.04.031"/>
+    <hyperlink ref="G178" r:id="rId252" display="https://doi.org/10.1029/2011MS000086"/>
+    <hyperlink ref="P178" r:id="rId253" display="http://www-personal.umich.edu/~ivanov/HYDROWIT/Models.html"/>
+    <hyperlink ref="G179" r:id="rId254" display="https://doi.org/10.1175/2012EI000472.1"/>
+    <hyperlink ref="P179" r:id="rId255" display="http://hs.umt.edu/RegionalHydrologyLab/software/default.php"/>
+    <hyperlink ref="G180" r:id="rId256" display="https://doi.org/10.1007/s10980-012-9772-x"/>
+    <hyperlink ref="P180" r:id="rId257" display="https://ldndc.imk-ifu.kit.edu/"/>
+    <hyperlink ref="G181" r:id="rId258" display="https://doi.org/10.1002/eco.1362"/>
+    <hyperlink ref="G182" r:id="rId259" display="https://doi.org/10.1016/j.wse.2017.12.007"/>
+    <hyperlink ref="G183" r:id="rId260" display="https://doi.org/10.1029/2018GB006077"/>
+    <hyperlink ref="P183" r:id="rId261" display="http://www-personal.umich.edu/~ivanov/HYDROWIT/Models.html"/>
+    <hyperlink ref="G184" r:id="rId262" display="https://doi.org/10.5194/gmd-2019-117"/>
+    <hyperlink ref="P184" r:id="rId263" display="https://www.envidat.ch/dataset/forhycs-v-1-0-0-model-code"/>
+    <hyperlink ref="G185" r:id="rId264" display="https://doi.org/10.1016/0304-3800(95)00164-6"/>
+    <hyperlink ref="G186" r:id="rId265" display="https://doi.org/10.1016/S0304-3800(97)00191-9"/>
+    <hyperlink ref="G187" r:id="rId266" display="https://doi.org/10.2737/NC-GTR-263"/>
+    <hyperlink ref="G188" r:id="rId267" display="https://doi.org/10.1016/S0378-1127(00)00432-1"/>
+    <hyperlink ref="G189" r:id="rId268" display="https://doi.org/10.1016/S0378-1127(01)00608-9"/>
+    <hyperlink ref="G190" r:id="rId269" display="https://doi.org/10.1016/j.ecolmodel.2003.12.055"/>
+    <hyperlink ref="P190" r:id="rId270" display="https://ites-fe.ethz.ch/openaccess/products/landclim"/>
+    <hyperlink ref="G191" r:id="rId271" display="https://doi.org/10.1016/j.ecolmodel.2005.11.046"/>
+    <hyperlink ref="P191" r:id="rId272" display="https://www.wsl.ch/de/projekte/treemig-1.html"/>
+    <hyperlink ref="G192" r:id="rId273" display="https://doi.org/10.1016/j.ecolmodel.2006.10.009"/>
+    <hyperlink ref="P192" r:id="rId274" display="http://www.landis-ii.org/"/>
+    <hyperlink ref="G193" r:id="rId275" display="https://doi.org/10.1016/j.ecolmodel.2008.02.032"/>
+    <hyperlink ref="P194" r:id="rId276" display="https://www.firelab.org/project/firebgcv2-landscape-fire-model"/>
+    <hyperlink ref="G195" r:id="rId277" display="https://doi.org/10.1016/j.ecolmodel.2012.02.015"/>
+    <hyperlink ref="P195" r:id="rId278" display="http://iland-model.org/startpage"/>
+    <hyperlink ref="G196" r:id="rId279" display="https://doi.org/10.1111/j.1600-0587.2013.00495.x"/>
+    <hyperlink ref="P196" r:id="rId280" display="https://cafnrfaculty.missouri.edu/gislab/landis/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/ProcessBasedModelsDatabase.xlsx
+++ b/ProcessBasedModelsDatabase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5229" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5230" uniqueCount="1167">
   <si>
     <t xml:space="preserve">General information</t>
   </si>
@@ -1898,6 +1898,9 @@
   </si>
   <si>
     <t xml:space="preserve">Visual Basic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3PG R package</t>
   </si>
   <si>
     <t xml:space="preserve">CENW</t>
@@ -3939,7 +3942,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4028,14 +4031,14 @@
   <dimension ref="A1:CK1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="L77" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A130" activeCellId="0" sqref="A130"/>
-      <selection pane="bottomRight" activeCell="B156" activeCellId="0" sqref="B156"/>
+      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
+      <selection pane="bottomRight" activeCell="R93" activeCellId="0" sqref="R93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.14"/>
@@ -14799,6 +14802,9 @@
       <c r="Q93" s="0" t="s">
         <v>625</v>
       </c>
+      <c r="R93" s="0" t="s">
+        <v>626</v>
+      </c>
       <c r="U93" s="0" t="s">
         <v>109</v>
       </c>
@@ -14865,22 +14871,22 @@
         <v>559</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D94" s="40" t="s">
         <v>560</v>
       </c>
       <c r="E94" s="40" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F94" s="41" t="n">
         <v>1999</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H94" s="40" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I94" s="40" t="s">
         <v>200</v>
@@ -14889,7 +14895,7 @@
         <v>187</v>
       </c>
       <c r="K94" s="40" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L94" s="43" t="s">
         <v>141</v>
@@ -14898,7 +14904,7 @@
         <v>150</v>
       </c>
       <c r="P94" s="39" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="T94" s="0" t="s">
         <v>109</v>
@@ -15002,7 +15008,7 @@
         <v>559</v>
       </c>
       <c r="C95" s="40" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D95" s="40" t="s">
         <v>560</v>
@@ -15012,13 +15018,13 @@
         <v>2000</v>
       </c>
       <c r="G95" s="42" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H95" s="40" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I95" s="40" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="J95" s="40" t="s">
         <v>602</v>
@@ -15106,7 +15112,7 @@
         <v>559</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D96" s="40" t="s">
         <v>560</v>
@@ -15116,13 +15122,13 @@
         <v>2000</v>
       </c>
       <c r="G96" s="42" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H96" s="40" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="I96" s="40" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J96" s="40" t="s">
         <v>317</v>
@@ -15132,10 +15138,10 @@
         <v>108</v>
       </c>
       <c r="N96" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="P96" s="39" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="T96" s="0" t="s">
         <v>109</v>
@@ -15230,25 +15236,25 @@
         <v>559</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D97" s="40" t="s">
         <v>560</v>
       </c>
       <c r="E97" s="40" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F97" s="41" t="n">
         <v>2002</v>
       </c>
       <c r="G97" s="42" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H97" s="40" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="I97" s="40" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="J97" s="40" t="s">
         <v>549</v>
@@ -15258,7 +15264,7 @@
         <v>108</v>
       </c>
       <c r="P97" s="39" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="S97" s="3" t="s">
         <v>109</v>
@@ -15365,7 +15371,7 @@
         <v>559</v>
       </c>
       <c r="C98" s="40" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D98" s="40" t="s">
         <v>560</v>
@@ -15375,13 +15381,13 @@
         <v>2002</v>
       </c>
       <c r="G98" s="42" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H98" s="40" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="I98" s="40" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J98" s="40" t="s">
         <v>120</v>
@@ -15391,7 +15397,7 @@
         <v>108</v>
       </c>
       <c r="N98" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="P98" s="39"/>
       <c r="Q98" s="0" t="s">
@@ -15484,22 +15490,22 @@
         <v>559</v>
       </c>
       <c r="C99" s="40" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D99" s="40" t="s">
         <v>560</v>
       </c>
       <c r="E99" s="40" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F99" s="41" t="n">
         <v>2004</v>
       </c>
       <c r="G99" s="42" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H99" s="40" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I99" s="40" t="s">
         <v>200</v>
@@ -15512,7 +15518,7 @@
         <v>108</v>
       </c>
       <c r="N99" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="P99" s="52"/>
       <c r="T99" s="0" t="s">
@@ -15614,7 +15620,7 @@
         <v>559</v>
       </c>
       <c r="C100" s="40" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D100" s="40" t="s">
         <v>560</v>
@@ -15624,23 +15630,23 @@
         <v>2005</v>
       </c>
       <c r="G100" s="42" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H100" s="40" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="I100" s="40" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J100" s="40" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="K100" s="40"/>
       <c r="L100" s="43" t="s">
         <v>108</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="P100" s="39"/>
       <c r="T100" s="0" t="s">
@@ -15712,25 +15718,25 @@
         <v>559</v>
       </c>
       <c r="C101" s="40" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D101" s="40" t="s">
         <v>560</v>
       </c>
       <c r="E101" s="40" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F101" s="41" t="n">
         <v>2005</v>
       </c>
       <c r="G101" s="42" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H101" s="40" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="I101" s="40" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="J101" s="40" t="s">
         <v>167</v>
@@ -15740,10 +15746,10 @@
         <v>108</v>
       </c>
       <c r="P101" s="52" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="Q101" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="X101" s="0" t="s">
         <v>109</v>
@@ -15811,7 +15817,7 @@
         <v>559</v>
       </c>
       <c r="C102" s="40" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D102" s="40" t="s">
         <v>560</v>
@@ -15821,10 +15827,10 @@
         <v>2005</v>
       </c>
       <c r="G102" s="42" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H102" s="40" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="I102" s="40" t="s">
         <v>485</v>
@@ -15833,16 +15839,16 @@
         <v>131</v>
       </c>
       <c r="K102" s="40" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L102" s="43" t="s">
         <v>141</v>
       </c>
       <c r="P102" s="39" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="Q102" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>109</v>
@@ -15943,7 +15949,7 @@
         <v>559</v>
       </c>
       <c r="C103" s="40" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D103" s="40" t="s">
         <v>560</v>
@@ -15953,13 +15959,13 @@
         <v>2011</v>
       </c>
       <c r="G103" s="42" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H103" s="40" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="I103" s="40" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="J103" s="40" t="s">
         <v>317</v>
@@ -15969,13 +15975,13 @@
         <v>108</v>
       </c>
       <c r="N103" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P103" s="39" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="Q103" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="S103" s="3" t="s">
         <v>109</v>
@@ -16061,25 +16067,25 @@
         <v>559</v>
       </c>
       <c r="C104" s="40" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D104" s="40" t="s">
         <v>560</v>
       </c>
       <c r="E104" s="40" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F104" s="41" t="n">
         <v>2012</v>
       </c>
       <c r="G104" s="42" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H104" s="40" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I104" s="40" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J104" s="40" t="s">
         <v>107</v>
@@ -16089,7 +16095,7 @@
         <v>108</v>
       </c>
       <c r="O104" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="P104" s="39"/>
       <c r="Q104" s="0" t="s">
@@ -16155,7 +16161,7 @@
         <v>559</v>
       </c>
       <c r="C105" s="40" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D105" s="40" t="s">
         <v>560</v>
@@ -16167,13 +16173,13 @@
         <v>2013</v>
       </c>
       <c r="G105" s="42" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H105" s="40" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="I105" s="40" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="J105" s="40" t="s">
         <v>131</v>
@@ -16282,25 +16288,25 @@
         <v>559</v>
       </c>
       <c r="C106" s="40" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D106" s="40" t="s">
         <v>560</v>
       </c>
       <c r="E106" s="40" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F106" s="41" t="n">
         <v>2018</v>
       </c>
       <c r="G106" s="42" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H106" s="40" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="I106" s="40" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J106" s="40" t="s">
         <v>107</v>
@@ -16310,13 +16316,13 @@
         <v>108</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N106" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="P106" s="39" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="Q106" s="0" t="s">
         <v>362</v>
@@ -16382,7 +16388,7 @@
         <v>559</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D107" s="40" t="s">
         <v>560</v>
@@ -16392,31 +16398,31 @@
         <v>2019</v>
       </c>
       <c r="G107" s="42" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H107" s="40" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="I107" s="40" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="J107" s="40" t="s">
         <v>481</v>
       </c>
       <c r="K107" s="40" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L107" s="43" t="s">
         <v>141</v>
       </c>
       <c r="N107" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="P107" s="39" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Q107" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="U107" s="0" t="s">
         <v>109</v>
@@ -16484,43 +16490,43 @@
         <v>559</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D108" s="40" t="s">
         <v>560</v>
       </c>
       <c r="E108" s="40" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F108" s="41" t="n">
         <v>2019</v>
       </c>
       <c r="G108" s="42" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H108" s="40" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="I108" s="40" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="J108" s="40" t="s">
         <v>481</v>
       </c>
       <c r="K108" s="40" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="L108" s="43" t="s">
         <v>141</v>
       </c>
       <c r="N108" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="P108" s="39" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="Q108" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="U108" s="44"/>
       <c r="X108" s="0" t="s">
@@ -16583,7 +16589,7 @@
         <v>559</v>
       </c>
       <c r="C109" s="40" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D109" s="40" t="s">
         <v>560</v>
@@ -16593,7 +16599,7 @@
         <v>2022</v>
       </c>
       <c r="G109" s="40" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H109" s="40"/>
       <c r="I109" s="40"/>
@@ -16607,7 +16613,7 @@
       </c>
       <c r="P109" s="39"/>
       <c r="Q109" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="U109" s="44"/>
       <c r="CK109" s="38"/>
@@ -16617,26 +16623,26 @@
         <v>451</v>
       </c>
       <c r="B110" s="53" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C110" s="53" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D110" s="53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E110" s="53"/>
       <c r="F110" s="54" t="n">
         <v>1991</v>
       </c>
       <c r="G110" s="55" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H110" s="53" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="I110" s="53" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="J110" s="53" t="s">
         <v>107</v>
@@ -16694,40 +16700,40 @@
         <v>451</v>
       </c>
       <c r="B111" s="53" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C111" s="53" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D111" s="53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E111" s="53" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F111" s="54" t="n">
         <v>1992</v>
       </c>
       <c r="G111" s="55" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H111" s="53" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="I111" s="53" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="J111" s="53" t="s">
         <v>107</v>
       </c>
       <c r="K111" s="53" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="L111" s="56" t="s">
         <v>141</v>
       </c>
       <c r="P111" s="39" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="T111" s="0" t="s">
         <v>109</v>
@@ -16789,44 +16795,44 @@
         <v>451</v>
       </c>
       <c r="B112" s="53" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C112" s="53" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D112" s="53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E112" s="53"/>
       <c r="F112" s="54" t="n">
         <v>1993</v>
       </c>
       <c r="G112" s="55" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H112" s="53" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="I112" s="53" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="J112" s="53" t="s">
         <v>107</v>
       </c>
       <c r="K112" s="53" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L112" s="56" t="s">
         <v>141</v>
       </c>
       <c r="P112" s="39" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Q112" s="0" t="s">
         <v>273</v>
       </c>
       <c r="R112" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="T112" s="0" t="s">
         <v>109</v>
@@ -16909,26 +16915,26 @@
         <v>451</v>
       </c>
       <c r="B113" s="53" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C113" s="53" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D113" s="53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E113" s="53"/>
       <c r="F113" s="54" t="n">
         <v>1993</v>
       </c>
       <c r="G113" s="55" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H113" s="53" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="I113" s="53" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="J113" s="53" t="s">
         <v>167</v>
@@ -16938,13 +16944,13 @@
         <v>108</v>
       </c>
       <c r="P113" s="39" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="Q113" s="0" t="s">
         <v>471</v>
       </c>
       <c r="R113" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="T113" s="0" t="s">
         <v>109</v>
@@ -17003,46 +17009,46 @@
         <v>451</v>
       </c>
       <c r="B114" s="53" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C114" s="53" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D114" s="53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E114" s="53" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F114" s="54" t="n">
         <v>1995</v>
       </c>
       <c r="G114" s="55" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H114" s="53" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="I114" s="53" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J114" s="53" t="s">
         <v>317</v>
       </c>
       <c r="K114" s="53" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="L114" s="56" t="s">
         <v>141</v>
       </c>
       <c r="P114" s="39" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="Q114" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="R114" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="T114" s="0" t="s">
         <v>109</v>
@@ -17104,43 +17110,43 @@
         <v>451</v>
       </c>
       <c r="B115" s="53" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C115" s="53" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D115" s="53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E115" s="53" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F115" s="54" t="n">
         <v>1996</v>
       </c>
       <c r="G115" s="55" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H115" s="53" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="I115" s="53" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="J115" s="53" t="s">
         <v>167</v>
       </c>
       <c r="K115" s="53" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="L115" s="56" t="s">
         <v>141</v>
       </c>
       <c r="P115" s="39" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="R115" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AE115" s="0" t="s">
         <v>109</v>
@@ -17181,28 +17187,28 @@
         <v>451</v>
       </c>
       <c r="B116" s="53" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C116" s="53" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D116" s="53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E116" s="53" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F116" s="54" t="n">
         <v>2010</v>
       </c>
       <c r="G116" s="55" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H116" s="53" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="I116" s="53" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="J116" s="53" t="s">
         <v>167</v>
@@ -17212,10 +17218,10 @@
         <v>108</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P116" s="39" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="T116" s="0" t="s">
         <v>109</v>
@@ -17277,28 +17283,28 @@
         <v>451</v>
       </c>
       <c r="B117" s="53" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C117" s="53" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D117" s="53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E117" s="53" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F117" s="54" t="n">
         <v>2013</v>
       </c>
       <c r="G117" s="55" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H117" s="53" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="I117" s="53" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="J117" s="53" t="s">
         <v>107</v>
@@ -17350,28 +17356,28 @@
         <v>451</v>
       </c>
       <c r="B118" s="53" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C118" s="53" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D118" s="53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E118" s="53" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F118" s="54" t="n">
         <v>2014</v>
       </c>
       <c r="G118" s="55" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H118" s="53" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="I118" s="53" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="J118" s="53" t="s">
         <v>107</v>
@@ -17382,7 +17388,7 @@
       </c>
       <c r="P118" s="39"/>
       <c r="Q118" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AJ118" s="4" t="n">
         <f aca="false">COUNTIF(Z118:AI118,"Y")</f>
@@ -17423,25 +17429,25 @@
         <v>451</v>
       </c>
       <c r="B119" s="53" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C119" s="53" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D119" s="53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E119" s="53" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F119" s="54" t="n">
         <v>2014</v>
       </c>
       <c r="G119" s="55" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H119" s="53" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="I119" s="53" t="s">
         <v>106</v>
@@ -17496,25 +17502,25 @@
         <v>451</v>
       </c>
       <c r="B120" s="53" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C120" s="53" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D120" s="53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E120" s="53" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F120" s="54" t="n">
         <v>2015</v>
       </c>
       <c r="G120" s="55" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H120" s="53" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="I120" s="53" t="s">
         <v>367</v>
@@ -17572,28 +17578,28 @@
         <v>451</v>
       </c>
       <c r="B121" s="53" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C121" s="53" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D121" s="53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E121" s="53" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F121" s="54" t="n">
         <v>2016</v>
       </c>
       <c r="G121" s="55" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H121" s="53" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="I121" s="53" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="J121" s="53" t="s">
         <v>107</v>
@@ -17642,28 +17648,28 @@
         <v>451</v>
       </c>
       <c r="B122" s="53" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C122" s="53" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D122" s="53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E122" s="53" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F122" s="54" t="n">
         <v>2017</v>
       </c>
       <c r="G122" s="55" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H122" s="53" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="I122" s="53" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="J122" s="53" t="s">
         <v>107</v>
@@ -17673,16 +17679,16 @@
         <v>108</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="N122" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="P122" s="39" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="Q122" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AJ122" s="4" t="n">
         <f aca="false">COUNTIF(Z122:AI122,"Y")</f>
@@ -17726,38 +17732,38 @@
         <v>451</v>
       </c>
       <c r="B123" s="53" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C123" s="53" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D123" s="53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E123" s="53"/>
       <c r="F123" s="54" t="n">
         <v>2018</v>
       </c>
       <c r="G123" s="55" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H123" s="53" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="I123" s="53" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="J123" s="53" t="s">
         <v>107</v>
       </c>
       <c r="K123" s="53" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="L123" s="56" t="s">
         <v>141</v>
       </c>
       <c r="P123" s="39" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="Q123" s="0" t="s">
         <v>362</v>
@@ -17801,25 +17807,25 @@
         <v>451</v>
       </c>
       <c r="B124" s="53" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C124" s="53" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D124" s="53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E124" s="53" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F124" s="54" t="n">
         <v>2019</v>
       </c>
       <c r="G124" s="55" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H124" s="53" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="I124" s="53" t="s">
         <v>106</v>
@@ -17832,13 +17838,13 @@
         <v>108</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="P124" s="39" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="Q124" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AJ124" s="4" t="n">
         <f aca="false">COUNTIF(Z124:AI124,"Y")</f>
@@ -17885,28 +17891,28 @@
         <v>451</v>
       </c>
       <c r="B125" s="53" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C125" s="53" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D125" s="53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E125" s="53" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F125" s="54" t="n">
         <v>2019</v>
       </c>
       <c r="G125" s="55" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H125" s="53" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="I125" s="53" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="J125" s="53" t="s">
         <v>107</v>
@@ -17916,7 +17922,7 @@
         <v>108</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="P125" s="39"/>
       <c r="T125" s="44"/>
@@ -17962,28 +17968,28 @@
         <v>451</v>
       </c>
       <c r="B126" s="53" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C126" s="53" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D126" s="53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E126" s="53" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F126" s="54" t="n">
         <v>2020</v>
       </c>
       <c r="G126" s="55" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H126" s="53" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="I126" s="53" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J126" s="53" t="s">
         <v>107</v>
@@ -18041,25 +18047,25 @@
         <v>451</v>
       </c>
       <c r="B127" s="53" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C127" s="53" t="s">
         <v>426</v>
       </c>
       <c r="D127" s="53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E127" s="53" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F127" s="54" t="n">
         <v>2020</v>
       </c>
       <c r="G127" s="55" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H127" s="53" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="I127" s="53" t="s">
         <v>367</v>
@@ -18072,7 +18078,7 @@
         <v>108</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="O127" s="0" t="s">
         <v>421</v>
@@ -18137,39 +18143,39 @@
         <v>451</v>
       </c>
       <c r="B128" s="53" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C128" s="53" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D128" s="53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E128" s="53"/>
       <c r="F128" s="54" t="n">
         <v>2020</v>
       </c>
       <c r="G128" s="55" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H128" s="53" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="I128" s="53"/>
       <c r="J128" s="53" t="s">
         <v>99</v>
       </c>
       <c r="K128" s="53" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="L128" s="56" t="s">
         <v>141</v>
       </c>
       <c r="P128" s="39" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="Q128" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="T128" s="0" t="s">
         <v>109</v>
@@ -18225,28 +18231,28 @@
         <v>451</v>
       </c>
       <c r="B129" s="53" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C129" s="53" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D129" s="53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E129" s="53" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F129" s="54" t="n">
         <v>2021</v>
       </c>
       <c r="G129" s="55" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H129" s="53" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="I129" s="53" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="J129" s="53" t="s">
         <v>107</v>
@@ -18256,11 +18262,11 @@
         <v>108</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="P129" s="39"/>
       <c r="Q129" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="T129" s="0" t="s">
         <v>109</v>
@@ -18319,41 +18325,41 @@
         <v>451</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E130" s="15" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F130" s="6" t="n">
         <v>1972</v>
       </c>
       <c r="G130" s="46" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H130" s="15" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="I130" s="15" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="J130" s="15" t="s">
         <v>107</v>
       </c>
       <c r="K130" s="15" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="L130" s="47" t="s">
         <v>141</v>
       </c>
       <c r="N130" s="44"/>
       <c r="P130" s="39" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="U130" s="0" t="s">
         <v>109</v>
@@ -18406,41 +18412,41 @@
         <v>451</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E131" s="15"/>
       <c r="F131" s="6" t="n">
         <v>1986</v>
       </c>
       <c r="G131" s="46" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H131" s="15" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="I131" s="15" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="J131" s="15" t="s">
         <v>107</v>
       </c>
       <c r="K131" s="15" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="L131" s="47" t="s">
         <v>141</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="P131" s="39" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="Q131" s="0" t="s">
         <v>273</v>
@@ -18526,26 +18532,26 @@
         <v>451</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E132" s="15"/>
       <c r="F132" s="6" t="n">
         <v>1987</v>
       </c>
       <c r="G132" s="46" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H132" s="15" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="I132" s="15" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="J132" s="15" t="s">
         <v>433</v>
@@ -18619,26 +18625,26 @@
         <v>451</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E133" s="15"/>
       <c r="F133" s="6" t="n">
         <v>1991</v>
       </c>
       <c r="G133" s="46" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H133" s="15" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="I133" s="15" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J133" s="15" t="s">
         <v>107</v>
@@ -18648,7 +18654,7 @@
         <v>108</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="N133" s="44"/>
       <c r="P133" s="39"/>
@@ -18712,26 +18718,26 @@
         <v>451</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E134" s="15"/>
       <c r="F134" s="6" t="n">
         <v>1991</v>
       </c>
       <c r="G134" s="46" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H134" s="15" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="I134" s="15" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="J134" s="15" t="s">
         <v>107</v>
@@ -18741,7 +18747,7 @@
         <v>108</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="N134" s="44"/>
       <c r="P134" s="39"/>
@@ -18805,26 +18811,26 @@
         <v>451</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E135" s="15"/>
       <c r="F135" s="6" t="n">
         <v>1993</v>
       </c>
       <c r="G135" s="46" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H135" s="15" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="I135" s="15" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="J135" s="15" t="s">
         <v>218</v>
@@ -18898,38 +18904,38 @@
         <v>451</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E136" s="15"/>
       <c r="F136" s="6" t="n">
         <v>1993</v>
       </c>
       <c r="G136" s="46" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H136" s="15" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="I136" s="15" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="J136" s="15" t="s">
         <v>107</v>
       </c>
       <c r="K136" s="15" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="L136" s="47" t="s">
         <v>141</v>
       </c>
       <c r="P136" s="39" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="U136" s="0" t="s">
         <v>109</v>
@@ -18985,47 +18991,47 @@
         <v>451</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E137" s="15"/>
       <c r="F137" s="6" t="n">
         <v>1996</v>
       </c>
       <c r="G137" s="46" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H137" s="15" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="I137" s="15" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J137" s="15" t="s">
         <v>433</v>
       </c>
       <c r="K137" s="57" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="L137" s="47" t="s">
         <v>141</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="O137" s="0" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="P137" s="39" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="Q137" s="0" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="U137" s="0" t="s">
         <v>109</v>
@@ -19105,26 +19111,26 @@
         <v>451</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E138" s="15"/>
       <c r="F138" s="6" t="n">
         <v>2000</v>
       </c>
       <c r="G138" s="46" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H138" s="15" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="I138" s="15" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="J138" s="15" t="s">
         <v>120</v>
@@ -19134,7 +19140,7 @@
         <v>108</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="P138" s="39"/>
       <c r="U138" s="0" t="s">
@@ -19206,26 +19212,26 @@
         <v>451</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E139" s="15"/>
       <c r="F139" s="6" t="n">
         <v>2002</v>
       </c>
       <c r="G139" s="46" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H139" s="15" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="I139" s="15" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="J139" s="15" t="s">
         <v>317</v>
@@ -19286,26 +19292,26 @@
         <v>451</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E140" s="15"/>
       <c r="F140" s="6" t="n">
         <v>2003</v>
       </c>
       <c r="G140" s="46" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H140" s="15" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="I140" s="15" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="J140" s="15" t="s">
         <v>107</v>
@@ -19315,13 +19321,13 @@
         <v>108</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="P140" s="39" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="Q140" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="T140" s="0" t="s">
         <v>109</v>
@@ -19407,40 +19413,40 @@
         <v>451</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E141" s="15" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="F141" s="6" t="n">
         <v>2003</v>
       </c>
       <c r="G141" s="46" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H141" s="15" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="I141" s="15" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="J141" s="15" t="s">
         <v>602</v>
       </c>
       <c r="K141" s="15" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="L141" s="47" t="s">
         <v>141</v>
       </c>
       <c r="P141" s="39" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="U141" s="0" t="s">
         <v>109</v>
@@ -19508,26 +19514,26 @@
         <v>451</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E142" s="15"/>
       <c r="F142" s="6" t="n">
         <v>2005</v>
       </c>
       <c r="G142" s="46" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H142" s="15" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="I142" s="15" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="J142" s="15" t="s">
         <v>211</v>
@@ -19612,38 +19618,38 @@
         <v>451</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="F143" s="6" t="n">
         <v>2007</v>
       </c>
       <c r="G143" s="46" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H143" s="15" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="I143" s="15" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="J143" s="15" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="K143" s="15"/>
       <c r="L143" s="47" t="s">
         <v>108</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="P143" s="39"/>
       <c r="U143" s="0" t="s">
@@ -19724,26 +19730,26 @@
         <v>451</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E144" s="15"/>
       <c r="F144" s="6" t="n">
         <v>2008</v>
       </c>
       <c r="G144" s="46" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H144" s="15" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I144" s="15" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="J144" s="15" t="s">
         <v>107</v>
@@ -19753,13 +19759,13 @@
         <v>108</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="N144" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="P144" s="39" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="Q144" s="0" t="s">
         <v>273</v>
@@ -19845,26 +19851,26 @@
         <v>451</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E145" s="15"/>
       <c r="F145" s="6" t="n">
         <v>2017</v>
       </c>
       <c r="G145" s="46" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H145" s="15" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="I145" s="15" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="J145" s="15" t="s">
         <v>107</v>
@@ -19874,14 +19880,14 @@
         <v>108</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="N145" s="0" t="s">
         <v>510</v>
       </c>
       <c r="P145" s="39"/>
       <c r="Q145" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="T145" s="0" t="s">
         <v>109</v>
@@ -19967,26 +19973,26 @@
         <v>451</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E146" s="15"/>
       <c r="F146" s="6" t="n">
         <v>2017</v>
       </c>
       <c r="G146" s="46" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H146" s="15" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="I146" s="15" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="J146" s="15" t="s">
         <v>107</v>
@@ -19996,13 +20002,13 @@
         <v>108</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="P146" s="39" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="Q146" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="U146" s="0" t="s">
         <v>109</v>
@@ -20061,43 +20067,43 @@
         <v>451</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E147" s="15" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F147" s="6" t="n">
         <v>2019</v>
       </c>
       <c r="G147" s="46" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H147" s="15" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="I147" s="15" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="J147" s="15" t="s">
         <v>107</v>
       </c>
       <c r="K147" s="15" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="L147" s="47" t="s">
         <v>141</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="P147" s="39" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="Q147" s="0" t="s">
         <v>362</v>
@@ -20192,28 +20198,28 @@
         <v>451</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E148" s="15" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F148" s="6" t="n">
         <v>2021</v>
       </c>
       <c r="G148" s="46" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H148" s="15" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="I148" s="15" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="J148" s="15" t="s">
         <v>131</v>
@@ -20223,10 +20229,10 @@
         <v>141</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="P148" s="39" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="U148" s="0" t="s">
         <v>109</v>
@@ -20312,26 +20318,26 @@
         <v>451</v>
       </c>
       <c r="B149" s="48" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C149" s="48" t="s">
         <v>237</v>
       </c>
       <c r="D149" s="48" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E149" s="48"/>
       <c r="F149" s="49" t="n">
         <v>1993</v>
       </c>
       <c r="G149" s="50" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H149" s="48" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="I149" s="48" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="J149" s="48" t="s">
         <v>107</v>
@@ -20341,7 +20347,7 @@
         <v>108</v>
       </c>
       <c r="N149" s="0" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="P149" s="39"/>
       <c r="U149" s="0" t="s">
@@ -20437,26 +20443,26 @@
         <v>451</v>
       </c>
       <c r="B150" s="48" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C150" s="48" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D150" s="48" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E150" s="48"/>
       <c r="F150" s="49" t="n">
         <v>1995</v>
       </c>
       <c r="G150" s="50" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H150" s="48" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="I150" s="48" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="J150" s="48" t="s">
         <v>481</v>
@@ -20571,26 +20577,26 @@
         <v>451</v>
       </c>
       <c r="B151" s="48" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C151" s="48" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D151" s="48" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E151" s="48"/>
       <c r="F151" s="49" t="n">
         <v>1996</v>
       </c>
       <c r="G151" s="50" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H151" s="48" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="I151" s="48" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="J151" s="48" t="s">
         <v>167</v>
@@ -20600,7 +20606,7 @@
         <v>108</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="P151" s="39"/>
       <c r="S151" s="3" t="s">
@@ -20681,41 +20687,41 @@
         <v>451</v>
       </c>
       <c r="B152" s="48" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C152" s="48" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D152" s="48" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E152" s="48"/>
       <c r="F152" s="49" t="n">
         <v>1998</v>
       </c>
       <c r="G152" s="50" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H152" s="48" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="I152" s="48" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="J152" s="48" t="s">
         <v>317</v>
       </c>
       <c r="K152" s="48" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="L152" s="51" t="s">
         <v>141</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="P152" s="39" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="U152" s="0" t="s">
         <v>109</v>
@@ -20783,26 +20789,26 @@
         <v>451</v>
       </c>
       <c r="B153" s="48" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C153" s="48" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D153" s="48" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E153" s="48"/>
       <c r="F153" s="49" t="n">
         <v>2000</v>
       </c>
       <c r="G153" s="50" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H153" s="48" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="I153" s="48" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="J153" s="48" t="s">
         <v>317</v>
@@ -20812,7 +20818,7 @@
         <v>108</v>
       </c>
       <c r="P153" s="39" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="S153" s="3" t="s">
         <v>109</v>
@@ -20880,28 +20886,28 @@
         <v>451</v>
       </c>
       <c r="B154" s="48" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C154" s="48" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D154" s="48" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E154" s="48" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="F154" s="49" t="n">
         <v>2000</v>
       </c>
       <c r="G154" s="50" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H154" s="48" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="I154" s="48" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="J154" s="48" t="s">
         <v>602</v>
@@ -20977,26 +20983,26 @@
         <v>451</v>
       </c>
       <c r="B155" s="48" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C155" s="48" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D155" s="48" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E155" s="48"/>
       <c r="F155" s="49" t="n">
         <v>2002</v>
       </c>
       <c r="G155" s="50" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H155" s="48" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="I155" s="48" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="J155" s="48" t="s">
         <v>317</v>
@@ -21006,10 +21012,10 @@
         <v>108</v>
       </c>
       <c r="P155" s="39" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="Q155" s="0" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="S155" s="3" t="s">
         <v>109</v>
@@ -21107,34 +21113,34 @@
         <v>451</v>
       </c>
       <c r="B156" s="48" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C156" s="48" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D156" s="48" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E156" s="48"/>
       <c r="F156" s="49" t="n">
         <v>2001</v>
       </c>
       <c r="G156" s="58" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H156" s="48" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="I156" s="48"/>
       <c r="J156" s="48" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="K156" s="48"/>
       <c r="L156" s="51" t="s">
         <v>108</v>
       </c>
       <c r="P156" s="39" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="Q156" s="0" t="s">
         <v>268</v>
@@ -21146,26 +21152,26 @@
         <v>451</v>
       </c>
       <c r="B157" s="48" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C157" s="48" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D157" s="48" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E157" s="48"/>
       <c r="F157" s="49" t="n">
         <v>2004</v>
       </c>
       <c r="G157" s="50" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H157" s="48" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="I157" s="48" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="J157" s="48" t="s">
         <v>107</v>
@@ -21250,40 +21256,40 @@
         <v>451</v>
       </c>
       <c r="B158" s="48" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C158" s="48" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D158" s="48" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E158" s="48" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="F158" s="49" t="n">
         <v>2005</v>
       </c>
       <c r="G158" s="50" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H158" s="48" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="I158" s="48" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="J158" s="48" t="s">
         <v>317</v>
       </c>
       <c r="K158" s="48" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="L158" s="51" t="s">
         <v>141</v>
       </c>
       <c r="P158" s="39" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="T158" s="0" t="s">
         <v>109</v>
@@ -21393,28 +21399,28 @@
         <v>451</v>
       </c>
       <c r="B159" s="48" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C159" s="48" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D159" s="48" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E159" s="48" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F159" s="49" t="n">
         <v>2006</v>
       </c>
       <c r="G159" s="50" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H159" s="48" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="I159" s="48" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="J159" s="48" t="s">
         <v>602</v>
@@ -21424,7 +21430,7 @@
         <v>108</v>
       </c>
       <c r="P159" s="39" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="U159" s="0" t="s">
         <v>109</v>
@@ -21495,28 +21501,28 @@
         <v>451</v>
       </c>
       <c r="B160" s="48" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C160" s="48" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D160" s="48" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E160" s="48" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F160" s="49" t="n">
         <v>2008</v>
       </c>
       <c r="G160" s="50" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H160" s="48" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="I160" s="48" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="J160" s="48" t="s">
         <v>161</v>
@@ -21649,40 +21655,40 @@
         <v>451</v>
       </c>
       <c r="B161" s="48" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C161" s="48" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D161" s="48" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E161" s="48" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F161" s="49" t="n">
         <v>2014</v>
       </c>
       <c r="G161" s="50" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H161" s="48" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="I161" s="48" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="J161" s="48" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="K161" s="48" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="L161" s="51" t="s">
         <v>141</v>
       </c>
       <c r="P161" s="39" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="Q161" s="0" t="s">
         <v>259</v>
@@ -21762,28 +21768,28 @@
         <v>451</v>
       </c>
       <c r="B162" s="48" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C162" s="48" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D162" s="48" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E162" s="48" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F162" s="49" t="n">
         <v>2014</v>
       </c>
       <c r="G162" s="50" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H162" s="48" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="I162" s="48" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="J162" s="48" t="s">
         <v>167</v>
@@ -21794,7 +21800,7 @@
       </c>
       <c r="P162" s="39"/>
       <c r="Q162" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="U162" s="0" t="s">
         <v>109</v>
@@ -21862,25 +21868,25 @@
         <v>451</v>
       </c>
       <c r="B163" s="48" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C163" s="48" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D163" s="48" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E163" s="48" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F163" s="49" t="n">
         <v>2016</v>
       </c>
       <c r="G163" s="50" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H163" s="48" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="I163" s="48" t="s">
         <v>457</v>
@@ -21962,25 +21968,25 @@
         <v>451</v>
       </c>
       <c r="B164" s="48" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C164" s="48" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D164" s="48" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E164" s="48" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F164" s="49" t="n">
         <v>2016</v>
       </c>
       <c r="G164" s="50" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H164" s="48" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="I164" s="48" t="s">
         <v>485</v>
@@ -21993,10 +21999,10 @@
         <v>108</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="N164" s="0" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="P164" s="39"/>
       <c r="Q164" s="0" t="s">
@@ -22107,26 +22113,26 @@
         <v>451</v>
       </c>
       <c r="B165" s="48" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C165" s="48" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D165" s="48" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E165" s="48"/>
       <c r="F165" s="49" t="n">
         <v>2017</v>
       </c>
       <c r="G165" s="50" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H165" s="48" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="I165" s="48" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="J165" s="48" t="s">
         <v>131</v>
@@ -22136,7 +22142,7 @@
         <v>108</v>
       </c>
       <c r="P165" s="39" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="Q165" s="0" t="s">
         <v>268</v>
@@ -22219,28 +22225,28 @@
         <v>451</v>
       </c>
       <c r="B166" s="48" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C166" s="48" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D166" s="48" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E166" s="48" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F166" s="49" t="n">
         <v>2017</v>
       </c>
       <c r="G166" s="50" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H166" s="48" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="I166" s="48" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="J166" s="48" t="s">
         <v>211</v>
@@ -22331,44 +22337,44 @@
         <v>451</v>
       </c>
       <c r="B167" s="48" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C167" s="48" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D167" s="48" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E167" s="48" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F167" s="49" t="n">
         <v>2017</v>
       </c>
       <c r="G167" s="50" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H167" s="48" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="I167" s="48" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="J167" s="48" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="K167" s="48"/>
       <c r="L167" s="51" t="s">
         <v>108</v>
       </c>
       <c r="M167" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="N167" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="P167" s="39" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="Q167" s="0" t="s">
         <v>259</v>
@@ -22460,46 +22466,46 @@
         <v>451</v>
       </c>
       <c r="B168" s="48" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C168" s="48" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D168" s="48" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E168" s="48" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="F168" s="49" t="n">
         <v>2020</v>
       </c>
       <c r="G168" s="50" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H168" s="48" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="I168" s="48" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="J168" s="48" t="s">
         <v>161</v>
       </c>
       <c r="K168" s="48" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="L168" s="51" t="s">
         <v>141</v>
       </c>
       <c r="N168" s="0" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="P168" s="39" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="Q168" s="0" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="T168" s="0" t="s">
         <v>109</v>
@@ -22588,26 +22594,26 @@
     </row>
     <row r="169" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="18" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C169" s="18" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E169" s="18"/>
       <c r="F169" s="4" t="n">
         <v>1993</v>
       </c>
       <c r="G169" s="36" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H169" s="18" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="I169" s="18" t="s">
         <v>200</v>
@@ -22674,29 +22680,29 @@
     </row>
     <row r="170" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="18" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C170" s="18" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D170" s="18" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E170" s="18"/>
       <c r="F170" s="4" t="n">
         <v>1999</v>
       </c>
       <c r="G170" s="36" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H170" s="18" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="I170" s="18" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="J170" s="18" t="s">
         <v>187</v>
@@ -22767,46 +22773,46 @@
     </row>
     <row r="171" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="18" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="F171" s="4" t="n">
         <v>1993</v>
       </c>
       <c r="G171" s="36" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H171" s="18" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="I171" s="18" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="J171" s="18" t="s">
         <v>107</v>
       </c>
       <c r="K171" s="18" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="L171" s="37" t="s">
         <v>141</v>
       </c>
       <c r="N171" s="0" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="P171" s="39" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="Q171" s="0" t="s">
         <v>259</v>
@@ -22916,29 +22922,29 @@
     </row>
     <row r="172" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="18" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C172" s="18" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E172" s="18"/>
       <c r="F172" s="4" t="n">
         <v>2002</v>
       </c>
       <c r="G172" s="36" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H172" s="18" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="I172" s="18" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="J172" s="18" t="s">
         <v>107</v>
@@ -22948,7 +22954,7 @@
         <v>108</v>
       </c>
       <c r="N172" s="0" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="P172" s="39"/>
       <c r="S172" s="3" t="s">
@@ -23005,29 +23011,29 @@
     </row>
     <row r="173" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="18" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C173" s="18" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E173" s="18"/>
       <c r="F173" s="4" t="n">
         <v>2008</v>
       </c>
       <c r="G173" s="36" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H173" s="18" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="I173" s="18" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="J173" s="18" t="s">
         <v>107</v>
@@ -23037,7 +23043,7 @@
         <v>108</v>
       </c>
       <c r="P173" s="39" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="T173" s="0" t="s">
         <v>109</v>
@@ -23132,29 +23138,29 @@
     </row>
     <row r="174" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="18" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C174" s="18" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D174" s="18" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E174" s="18"/>
       <c r="F174" s="4" t="n">
         <v>2008</v>
       </c>
       <c r="G174" s="36" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H174" s="18" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="I174" s="18" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="J174" s="18" t="s">
         <v>120</v>
@@ -23164,7 +23170,7 @@
         <v>108</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="N174" s="59"/>
       <c r="P174" s="39"/>
@@ -23243,29 +23249,29 @@
     </row>
     <row r="175" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="18" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C175" s="18" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D175" s="18" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E175" s="18"/>
       <c r="F175" s="4" t="n">
         <v>2009</v>
       </c>
       <c r="G175" s="36" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H175" s="18" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="I175" s="18" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="J175" s="18" t="s">
         <v>120</v>
@@ -23275,10 +23281,10 @@
         <v>108</v>
       </c>
       <c r="N175" s="0" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="P175" s="39" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="T175" s="0" t="s">
         <v>109</v>
@@ -23355,29 +23361,29 @@
     </row>
     <row r="176" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="18" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C176" s="18" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D176" s="18" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E176" s="18"/>
       <c r="F176" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="G176" s="36" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H176" s="18" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="I176" s="18" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="J176" s="18" t="s">
         <v>107</v>
@@ -23387,7 +23393,7 @@
         <v>108</v>
       </c>
       <c r="P176" s="39" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="T176" s="0" t="s">
         <v>109</v>
@@ -23461,31 +23467,31 @@
     </row>
     <row r="177" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="18" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D177" s="18" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E177" s="18" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F177" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="G177" s="36" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H177" s="18" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="I177" s="18" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="J177" s="18" t="s">
         <v>433</v>
@@ -23495,7 +23501,7 @@
         <v>108</v>
       </c>
       <c r="N177" s="0" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="P177" s="39"/>
       <c r="T177" s="0" t="s">
@@ -23603,41 +23609,41 @@
     </row>
     <row r="178" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="18" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C178" s="18" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D178" s="18" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E178" s="18"/>
       <c r="F178" s="4" t="n">
         <v>2012</v>
       </c>
       <c r="G178" s="36" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H178" s="18" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="I178" s="18" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="J178" s="18" t="s">
         <v>107</v>
       </c>
       <c r="K178" s="18" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="L178" s="37" t="s">
         <v>141</v>
       </c>
       <c r="P178" s="39" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="T178" s="0" t="s">
         <v>109</v>
@@ -23741,26 +23747,26 @@
     </row>
     <row r="179" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="18" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C179" s="18" t="s">
         <v>623</v>
       </c>
       <c r="D179" s="18" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E179" s="18"/>
       <c r="F179" s="4" t="n">
         <v>2013</v>
       </c>
       <c r="G179" s="36" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H179" s="18" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="I179" s="18" t="s">
         <v>564</v>
@@ -23769,7 +23775,7 @@
         <v>107</v>
       </c>
       <c r="K179" s="18" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="L179" s="37" t="s">
         <v>141</v>
@@ -23778,7 +23784,7 @@
         <v>617</v>
       </c>
       <c r="P179" s="39" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="Q179" s="0" t="s">
         <v>268</v>
@@ -23873,29 +23879,29 @@
     </row>
     <row r="180" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="18" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C180" s="18" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D180" s="18" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E180" s="18"/>
       <c r="F180" s="4" t="n">
         <v>2013</v>
       </c>
       <c r="G180" s="36" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H180" s="18" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="I180" s="18" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="J180" s="18" t="s">
         <v>317</v>
@@ -23905,10 +23911,10 @@
         <v>108</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="P180" s="39" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="Q180" s="0" t="s">
         <v>268</v>
@@ -24009,29 +24015,29 @@
     </row>
     <row r="181" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="18" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C181" s="18" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D181" s="18" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E181" s="18"/>
       <c r="F181" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="G181" s="36" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H181" s="18" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="I181" s="18" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="J181" s="18" t="s">
         <v>107</v>
@@ -24041,10 +24047,10 @@
         <v>108</v>
       </c>
       <c r="M181" s="3" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="N181" s="0" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="P181" s="39"/>
       <c r="T181" s="0" t="s">
@@ -24125,29 +24131,29 @@
     </row>
     <row r="182" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="18" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C182" s="18" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D182" s="18" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E182" s="18"/>
       <c r="F182" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="G182" s="36" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H182" s="18" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="I182" s="18" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="J182" s="18" t="s">
         <v>211</v>
@@ -24157,7 +24163,7 @@
         <v>108</v>
       </c>
       <c r="N182" s="0" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="P182" s="39"/>
       <c r="T182" s="0" t="s">
@@ -24220,29 +24226,29 @@
     </row>
     <row r="183" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="18" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C183" s="18" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D183" s="18" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E183" s="18"/>
       <c r="F183" s="4" t="n">
         <v>2019</v>
       </c>
       <c r="G183" s="36" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H183" s="18" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="I183" s="18" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="J183" s="18" t="s">
         <v>107</v>
@@ -24252,10 +24258,10 @@
         <v>108</v>
       </c>
       <c r="N183" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="P183" s="39" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="V183" s="0" t="s">
         <v>109</v>
@@ -24368,28 +24374,28 @@
     </row>
     <row r="184" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="18" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D184" s="18" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E184" s="18" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="F184" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="G184" s="36" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H184" s="18" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="I184" s="18" t="s">
         <v>499</v>
@@ -24402,10 +24408,10 @@
         <v>108</v>
       </c>
       <c r="N184" s="0" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="P184" s="39" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="U184" s="0" t="s">
         <v>109</v>
@@ -24488,29 +24494,29 @@
     </row>
     <row r="185" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="15" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E185" s="15"/>
       <c r="F185" s="6" t="n">
         <v>1996</v>
       </c>
       <c r="G185" s="46" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H185" s="15" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="I185" s="15" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="J185" s="15" t="s">
         <v>107</v>
@@ -24574,29 +24580,29 @@
     </row>
     <row r="186" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="15" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C186" s="15" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E186" s="15"/>
       <c r="F186" s="6" t="n">
         <v>1998</v>
       </c>
       <c r="G186" s="46" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H186" s="15" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="I186" s="15" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="J186" s="15" t="s">
         <v>107</v>
@@ -24663,29 +24669,29 @@
     </row>
     <row r="187" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="15" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E187" s="15"/>
       <c r="F187" s="6" t="n">
         <v>1999</v>
       </c>
       <c r="G187" s="46" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H187" s="15" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="I187" s="15" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="J187" s="15" t="s">
         <v>107</v>
@@ -24760,26 +24766,26 @@
     </row>
     <row r="188" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="15" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E188" s="15"/>
       <c r="F188" s="6" t="n">
         <v>2001</v>
       </c>
       <c r="G188" s="46" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H188" s="15" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="I188" s="15" t="s">
         <v>130</v>
@@ -24884,26 +24890,26 @@
     </row>
     <row r="189" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="15" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E189" s="15"/>
       <c r="F189" s="6" t="n">
         <v>2002</v>
       </c>
       <c r="G189" s="46" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H189" s="15" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="I189" s="15" t="s">
         <v>480</v>
@@ -24916,7 +24922,7 @@
         <v>108</v>
       </c>
       <c r="M189" s="3" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="U189" s="0" t="s">
         <v>109</v>
@@ -24987,44 +24993,44 @@
     </row>
     <row r="190" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="15" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E190" s="15"/>
       <c r="F190" s="6" t="n">
         <v>2004</v>
       </c>
       <c r="G190" s="46" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H190" s="15" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="I190" s="15" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J190" s="15" t="s">
         <v>433</v>
       </c>
       <c r="K190" s="15" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="L190" s="47" t="s">
         <v>141</v>
       </c>
       <c r="N190" s="0" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="P190" s="39" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="U190" s="0" t="s">
         <v>109</v>
@@ -25089,26 +25095,26 @@
     </row>
     <row r="191" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="15" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E191" s="15"/>
       <c r="F191" s="6" t="n">
         <v>2006</v>
       </c>
       <c r="G191" s="46" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H191" s="15" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="I191" s="15" t="s">
         <v>432</v>
@@ -25117,16 +25123,16 @@
         <v>433</v>
       </c>
       <c r="K191" s="15" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="L191" s="47" t="s">
         <v>141</v>
       </c>
       <c r="O191" s="0" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="P191" s="52" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="U191" s="0" t="s">
         <v>109</v>
@@ -25182,48 +25188,48 @@
     </row>
     <row r="192" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="15" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E192" s="15"/>
       <c r="F192" s="6" t="n">
         <v>2007</v>
       </c>
       <c r="G192" s="46" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H192" s="15" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="I192" s="15" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="J192" s="15" t="s">
         <v>107</v>
       </c>
       <c r="K192" s="15" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="L192" s="47" t="s">
         <v>141</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N192" s="59"/>
       <c r="O192" s="0" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="P192" s="39" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="U192" s="0" t="s">
         <v>109</v>
@@ -25291,31 +25297,31 @@
     </row>
     <row r="193" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="15" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E193" s="15" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="F193" s="6" t="n">
         <v>2008</v>
       </c>
       <c r="G193" s="46" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H193" s="15" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="I193" s="15" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="J193" s="15" t="s">
         <v>107</v>
@@ -25410,16 +25416,16 @@
     </row>
     <row r="194" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="15" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E194" s="15"/>
       <c r="F194" s="6" t="n">
@@ -25427,16 +25433,16 @@
       </c>
       <c r="G194" s="46"/>
       <c r="H194" s="15" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="I194" s="15" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="J194" s="15" t="s">
         <v>107</v>
       </c>
       <c r="K194" s="15" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="L194" s="47" t="s">
         <v>141</v>
@@ -25445,7 +25451,7 @@
         <v>134</v>
       </c>
       <c r="P194" s="39" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="Q194" s="0" t="s">
         <v>268</v>
@@ -25570,44 +25576,44 @@
     </row>
     <row r="195" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="15" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E195" s="15" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="F195" s="6" t="n">
         <v>2012</v>
       </c>
       <c r="G195" s="46" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H195" s="15" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="I195" s="15" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="J195" s="15" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="K195" s="15" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="L195" s="47" t="s">
         <v>141</v>
       </c>
       <c r="N195" s="59"/>
       <c r="P195" s="39" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="Q195" s="0" t="s">
         <v>268</v>
@@ -25708,47 +25714,47 @@
     </row>
     <row r="196" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="15" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C196" s="15" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E196" s="15"/>
       <c r="F196" s="6" t="n">
         <v>2014</v>
       </c>
       <c r="G196" s="46" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H196" s="15" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="I196" s="15" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="J196" s="15" t="s">
         <v>107</v>
       </c>
       <c r="K196" s="15" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="L196" s="47" t="s">
         <v>141</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N196" s="59" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="P196" s="39" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="Q196" s="0" t="s">
         <v>268</v>

--- a/ProcessBasedModelsDatabase.xlsx
+++ b/ProcessBasedModelsDatabase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5274" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5276" uniqueCount="1189">
   <si>
     <t xml:space="preserve">General information</t>
   </si>
@@ -2843,6 +2843,9 @@
     <t xml:space="preserve">Université de Montpellier</t>
   </si>
   <si>
+    <t xml:space="preserve">A forest community model for woody species (Angiosperms and Gymnosperms). Inspired by the gap model ForClim, deals with environmental and biotic filtering of forest communities and ecosystem processes such as biomass production</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://capsis.cirad.fr/capsis/help_en/forceeps</t>
   </si>
   <si>
@@ -2958,6 +2961,9 @@
   </si>
   <si>
     <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PICUS model family is based on the patch model approach and comprises the three model variants,each operating on a different level of physiological detail</t>
   </si>
   <si>
     <t xml:space="preserve">https://boku.ac.at/en/wabo/waldbau/research/working-areas/waldoekosystemmodellierung/dynamische-oekosystemmodelle/picus</t>
@@ -4091,14 +4097,14 @@
   <dimension ref="A1:CK200"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="Z60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="I145" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Z1" activeCellId="0" sqref="Z1"/>
-      <selection pane="bottomLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
-      <selection pane="bottomRight" activeCell="AG80" activeCellId="0" sqref="AG80"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A145" activeCellId="0" sqref="A145"/>
+      <selection pane="bottomRight" activeCell="K152" activeCellId="0" sqref="K152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.14"/>
@@ -4111,7 +4117,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="53.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="17.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="39.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="18.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="20.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="28.57"/>
@@ -20418,7 +20424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="15" t="s">
         <v>451</v>
       </c>
@@ -20449,7 +20455,9 @@
       <c r="J152" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="K152" s="15"/>
+      <c r="K152" s="15" t="s">
+        <v>940</v>
+      </c>
       <c r="L152" s="47" t="s">
         <v>141</v>
       </c>
@@ -20457,7 +20465,7 @@
         <v>882</v>
       </c>
       <c r="P152" s="39" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="U152" s="0" t="s">
         <v>109</v>
@@ -20543,23 +20551,23 @@
         <v>451</v>
       </c>
       <c r="B153" s="48" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C153" s="48" t="s">
         <v>237</v>
       </c>
       <c r="D153" s="48" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E153" s="48"/>
       <c r="F153" s="49" t="n">
         <v>1993</v>
       </c>
       <c r="G153" s="50" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H153" s="48" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="I153" s="48" t="s">
         <v>927</v>
@@ -20572,7 +20580,7 @@
         <v>108</v>
       </c>
       <c r="N153" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="P153" s="39"/>
       <c r="U153" s="0" t="s">
@@ -20668,26 +20676,26 @@
         <v>451</v>
       </c>
       <c r="B154" s="48" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C154" s="48" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D154" s="48" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E154" s="48"/>
       <c r="F154" s="49" t="n">
         <v>1995</v>
       </c>
       <c r="G154" s="50" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H154" s="48" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="I154" s="48" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="J154" s="48" t="s">
         <v>481</v>
@@ -20802,26 +20810,26 @@
         <v>451</v>
       </c>
       <c r="B155" s="48" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C155" s="48" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D155" s="48" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E155" s="48"/>
       <c r="F155" s="49" t="n">
         <v>1996</v>
       </c>
       <c r="G155" s="50" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H155" s="48" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="I155" s="48" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="J155" s="48" t="s">
         <v>167</v>
@@ -20912,41 +20920,41 @@
         <v>451</v>
       </c>
       <c r="B156" s="48" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C156" s="48" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D156" s="48" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E156" s="48"/>
       <c r="F156" s="49" t="n">
         <v>1998</v>
       </c>
       <c r="G156" s="50" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H156" s="48" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="I156" s="48" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="J156" s="48" t="s">
         <v>317</v>
       </c>
       <c r="K156" s="48" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="L156" s="51" t="s">
         <v>141</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="P156" s="39" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="U156" s="0" t="s">
         <v>109</v>
@@ -21014,26 +21022,26 @@
         <v>451</v>
       </c>
       <c r="B157" s="48" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C157" s="48" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D157" s="48" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E157" s="48"/>
       <c r="F157" s="49" t="n">
         <v>2000</v>
       </c>
       <c r="G157" s="50" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H157" s="48" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="I157" s="48" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="J157" s="48" t="s">
         <v>317</v>
@@ -21043,7 +21051,7 @@
         <v>108</v>
       </c>
       <c r="P157" s="39" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="S157" s="3" t="s">
         <v>109</v>
@@ -21111,28 +21119,28 @@
         <v>451</v>
       </c>
       <c r="B158" s="48" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C158" s="48" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D158" s="48" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E158" s="48" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="F158" s="49" t="n">
         <v>2000</v>
       </c>
       <c r="G158" s="50" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H158" s="48" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I158" s="48" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="J158" s="48" t="s">
         <v>623</v>
@@ -21208,26 +21216,26 @@
         <v>451</v>
       </c>
       <c r="B159" s="48" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C159" s="48" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D159" s="48" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E159" s="48"/>
       <c r="F159" s="49" t="n">
         <v>2002</v>
       </c>
       <c r="G159" s="50" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H159" s="48" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="I159" s="48" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="J159" s="48" t="s">
         <v>317</v>
@@ -21237,10 +21245,10 @@
         <v>108</v>
       </c>
       <c r="P159" s="39" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="Q159" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="S159" s="3" t="s">
         <v>109</v>
@@ -21338,34 +21346,36 @@
         <v>451</v>
       </c>
       <c r="B160" s="48" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C160" s="48" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D160" s="48" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E160" s="48"/>
       <c r="F160" s="49" t="n">
         <v>2001</v>
       </c>
       <c r="G160" s="58" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H160" s="48" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="I160" s="48"/>
       <c r="J160" s="48" t="s">
-        <v>978</v>
-      </c>
-      <c r="K160" s="48"/>
+        <v>979</v>
+      </c>
+      <c r="K160" s="48" t="s">
+        <v>980</v>
+      </c>
       <c r="L160" s="51" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="P160" s="39" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="Q160" s="0" t="s">
         <v>268</v>
@@ -21377,26 +21387,26 @@
         <v>451</v>
       </c>
       <c r="B161" s="48" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C161" s="48" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="D161" s="48" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E161" s="48"/>
       <c r="F161" s="49" t="n">
         <v>2004</v>
       </c>
       <c r="G161" s="50" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="H161" s="48" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="I161" s="48" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="J161" s="48" t="s">
         <v>107</v>
@@ -21481,40 +21491,40 @@
         <v>451</v>
       </c>
       <c r="B162" s="48" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C162" s="48" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D162" s="48" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E162" s="48" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="F162" s="49" t="n">
         <v>2005</v>
       </c>
       <c r="G162" s="50" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="H162" s="48" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="I162" s="48" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="J162" s="48" t="s">
         <v>317</v>
       </c>
       <c r="K162" s="48" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="L162" s="51" t="s">
         <v>141</v>
       </c>
       <c r="P162" s="39" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="T162" s="0" t="s">
         <v>109</v>
@@ -21624,25 +21634,25 @@
         <v>451</v>
       </c>
       <c r="B163" s="48" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C163" s="48" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="D163" s="48" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E163" s="48" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="F163" s="49" t="n">
         <v>2006</v>
       </c>
       <c r="G163" s="50" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="H163" s="48" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="I163" s="48" t="s">
         <v>657</v>
@@ -21655,7 +21665,7 @@
         <v>108</v>
       </c>
       <c r="P163" s="39" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="U163" s="0" t="s">
         <v>109</v>
@@ -21726,28 +21736,28 @@
         <v>451</v>
       </c>
       <c r="B164" s="48" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C164" s="48" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D164" s="48" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E164" s="48" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F164" s="49" t="n">
         <v>2008</v>
       </c>
       <c r="G164" s="50" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="H164" s="48" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="I164" s="48" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="J164" s="48" t="s">
         <v>161</v>
@@ -21880,40 +21890,40 @@
         <v>451</v>
       </c>
       <c r="B165" s="48" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C165" s="48" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D165" s="48" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E165" s="48" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="F165" s="49" t="n">
         <v>2014</v>
       </c>
       <c r="G165" s="50" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="H165" s="48" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I165" s="48" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="J165" s="48" t="s">
         <v>684</v>
       </c>
       <c r="K165" s="48" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="L165" s="51" t="s">
         <v>141</v>
       </c>
       <c r="P165" s="39" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="Q165" s="0" t="s">
         <v>259</v>
@@ -21993,28 +22003,28 @@
         <v>451</v>
       </c>
       <c r="B166" s="48" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C166" s="48" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="D166" s="48" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E166" s="48" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="F166" s="49" t="n">
         <v>2014</v>
       </c>
       <c r="G166" s="50" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="H166" s="48" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="I166" s="48" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="J166" s="48" t="s">
         <v>167</v>
@@ -22093,25 +22103,25 @@
         <v>451</v>
       </c>
       <c r="B167" s="48" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C167" s="48" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D167" s="48" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E167" s="48" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="F167" s="49" t="n">
         <v>2016</v>
       </c>
       <c r="G167" s="50" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="H167" s="48" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="I167" s="48" t="s">
         <v>457</v>
@@ -22193,25 +22203,25 @@
         <v>451</v>
       </c>
       <c r="B168" s="48" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C168" s="48" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D168" s="48" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E168" s="48" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="F168" s="49" t="n">
         <v>2016</v>
       </c>
       <c r="G168" s="50" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="H168" s="48" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="I168" s="48" t="s">
         <v>485</v>
@@ -22224,10 +22234,10 @@
         <v>108</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="N168" s="0" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="P168" s="39"/>
       <c r="Q168" s="0" t="s">
@@ -22338,26 +22348,26 @@
         <v>451</v>
       </c>
       <c r="B169" s="48" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C169" s="48" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D169" s="48" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E169" s="48"/>
       <c r="F169" s="49" t="n">
         <v>2017</v>
       </c>
       <c r="G169" s="50" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="H169" s="48" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="I169" s="48" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="J169" s="48" t="s">
         <v>131</v>
@@ -22367,7 +22377,7 @@
         <v>108</v>
       </c>
       <c r="P169" s="39" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="Q169" s="0" t="s">
         <v>268</v>
@@ -22450,28 +22460,28 @@
         <v>451</v>
       </c>
       <c r="B170" s="48" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C170" s="48" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="D170" s="48" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E170" s="48" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="F170" s="49" t="n">
         <v>2017</v>
       </c>
       <c r="G170" s="50" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="H170" s="48" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="I170" s="48" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="J170" s="48" t="s">
         <v>211</v>
@@ -22562,28 +22572,28 @@
         <v>451</v>
       </c>
       <c r="B171" s="48" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C171" s="48" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="D171" s="48" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E171" s="48" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="F171" s="49" t="n">
         <v>2017</v>
       </c>
       <c r="G171" s="50" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="H171" s="48" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="I171" s="48" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="J171" s="48" t="s">
         <v>684</v>
@@ -22593,13 +22603,13 @@
         <v>108</v>
       </c>
       <c r="M171" s="3" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="N171" s="0" t="s">
         <v>744</v>
       </c>
       <c r="P171" s="39" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="Q171" s="0" t="s">
         <v>259</v>
@@ -22691,46 +22701,46 @@
         <v>451</v>
       </c>
       <c r="B172" s="48" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C172" s="48" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="D172" s="48" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E172" s="48" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="F172" s="49" t="n">
         <v>2020</v>
       </c>
       <c r="G172" s="50" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="H172" s="48" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="I172" s="48" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="J172" s="48" t="s">
         <v>161</v>
       </c>
       <c r="K172" s="48" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="L172" s="51" t="s">
         <v>141</v>
       </c>
       <c r="N172" s="0" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="P172" s="39" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="Q172" s="0" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="T172" s="0" t="s">
         <v>109</v>
@@ -22819,26 +22829,26 @@
     </row>
     <row r="173" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="18" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C173" s="18" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E173" s="18"/>
       <c r="F173" s="4" t="n">
         <v>1993</v>
       </c>
       <c r="G173" s="36" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="H173" s="18" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="I173" s="18" t="s">
         <v>200</v>
@@ -22905,29 +22915,29 @@
     </row>
     <row r="174" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="18" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C174" s="18" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="D174" s="18" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E174" s="18"/>
       <c r="F174" s="4" t="n">
         <v>1999</v>
       </c>
       <c r="G174" s="36" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="H174" s="18" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="I174" s="18" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="J174" s="18" t="s">
         <v>187</v>
@@ -22998,46 +23008,46 @@
     </row>
     <row r="175" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="18" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C175" s="18" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="D175" s="18" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E175" s="18" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="F175" s="4" t="n">
         <v>1993</v>
       </c>
       <c r="G175" s="36" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="H175" s="18" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="I175" s="18" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="J175" s="18" t="s">
         <v>107</v>
       </c>
       <c r="K175" s="18" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="L175" s="37" t="s">
         <v>141</v>
       </c>
       <c r="N175" s="0" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="P175" s="39" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="Q175" s="0" t="s">
         <v>259</v>
@@ -23147,29 +23157,29 @@
     </row>
     <row r="176" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="18" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C176" s="18" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="D176" s="18" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E176" s="18"/>
       <c r="F176" s="4" t="n">
         <v>2002</v>
       </c>
       <c r="G176" s="36" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="H176" s="18" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="I176" s="18" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="J176" s="18" t="s">
         <v>107</v>
@@ -23179,7 +23189,7 @@
         <v>108</v>
       </c>
       <c r="N176" s="0" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="P176" s="39"/>
       <c r="S176" s="3" t="s">
@@ -23236,26 +23246,26 @@
     </row>
     <row r="177" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="18" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="D177" s="18" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E177" s="18"/>
       <c r="F177" s="4" t="n">
         <v>2008</v>
       </c>
       <c r="G177" s="36" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="H177" s="18" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="I177" s="18" t="s">
         <v>576</v>
@@ -23268,7 +23278,7 @@
         <v>108</v>
       </c>
       <c r="P177" s="39" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="T177" s="0" t="s">
         <v>109</v>
@@ -23363,29 +23373,29 @@
     </row>
     <row r="178" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="18" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C178" s="18" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="D178" s="18" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E178" s="18"/>
       <c r="F178" s="4" t="n">
         <v>2008</v>
       </c>
       <c r="G178" s="36" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="H178" s="18" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="I178" s="18" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="J178" s="18" t="s">
         <v>120</v>
@@ -23395,7 +23405,7 @@
         <v>108</v>
       </c>
       <c r="M178" s="3" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="N178" s="59"/>
       <c r="P178" s="39"/>
@@ -23474,29 +23484,29 @@
     </row>
     <row r="179" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="18" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C179" s="18" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="D179" s="18" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E179" s="18"/>
       <c r="F179" s="4" t="n">
         <v>2009</v>
       </c>
       <c r="G179" s="36" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="H179" s="18" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="I179" s="18" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="J179" s="18" t="s">
         <v>120</v>
@@ -23506,10 +23516,10 @@
         <v>108</v>
       </c>
       <c r="N179" s="0" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="P179" s="39" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="T179" s="0" t="s">
         <v>109</v>
@@ -23586,29 +23596,29 @@
     </row>
     <row r="180" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="18" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C180" s="18" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="D180" s="18" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E180" s="18"/>
       <c r="F180" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="G180" s="36" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="H180" s="18" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="I180" s="18" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="J180" s="18" t="s">
         <v>107</v>
@@ -23618,7 +23628,7 @@
         <v>108</v>
       </c>
       <c r="P180" s="39" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="T180" s="0" t="s">
         <v>109</v>
@@ -23692,31 +23702,31 @@
     </row>
     <row r="181" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="18" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C181" s="18" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D181" s="18" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E181" s="18" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="F181" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="G181" s="36" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="H181" s="18" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="I181" s="18" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="J181" s="18" t="s">
         <v>433</v>
@@ -23726,7 +23736,7 @@
         <v>108</v>
       </c>
       <c r="N181" s="0" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="P181" s="39"/>
       <c r="T181" s="0" t="s">
@@ -23834,26 +23844,26 @@
     </row>
     <row r="182" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="18" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C182" s="18" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="D182" s="18" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E182" s="18"/>
       <c r="F182" s="4" t="n">
         <v>2012</v>
       </c>
       <c r="G182" s="36" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="H182" s="18" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="I182" s="18" t="s">
         <v>576</v>
@@ -23862,13 +23872,13 @@
         <v>107</v>
       </c>
       <c r="K182" s="18" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="L182" s="37" t="s">
         <v>141</v>
       </c>
       <c r="P182" s="39" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="T182" s="0" t="s">
         <v>109</v>
@@ -23972,26 +23982,26 @@
     </row>
     <row r="183" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="18" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C183" s="18" t="s">
         <v>644</v>
       </c>
       <c r="D183" s="18" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E183" s="18"/>
       <c r="F183" s="4" t="n">
         <v>2013</v>
       </c>
       <c r="G183" s="36" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="H183" s="18" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="I183" s="18" t="s">
         <v>585</v>
@@ -24000,7 +24010,7 @@
         <v>107</v>
       </c>
       <c r="K183" s="18" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="L183" s="37" t="s">
         <v>141</v>
@@ -24009,7 +24019,7 @@
         <v>638</v>
       </c>
       <c r="P183" s="39" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="Q183" s="0" t="s">
         <v>268</v>
@@ -24104,26 +24114,26 @@
     </row>
     <row r="184" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="18" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="D184" s="18" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E184" s="18"/>
       <c r="F184" s="4" t="n">
         <v>2013</v>
       </c>
       <c r="G184" s="36" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="H184" s="18" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="I184" s="18" t="s">
         <v>702</v>
@@ -24136,10 +24146,10 @@
         <v>108</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="P184" s="39" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="Q184" s="0" t="s">
         <v>268</v>
@@ -24240,29 +24250,29 @@
     </row>
     <row r="185" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="18" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B185" s="18" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C185" s="18" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="D185" s="18" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E185" s="18"/>
       <c r="F185" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="G185" s="36" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="H185" s="18" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="I185" s="18" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="J185" s="18" t="s">
         <v>107</v>
@@ -24272,10 +24282,10 @@
         <v>108</v>
       </c>
       <c r="M185" s="3" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="N185" s="0" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="P185" s="39"/>
       <c r="T185" s="0" t="s">
@@ -24356,29 +24366,29 @@
     </row>
     <row r="186" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="18" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C186" s="18" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="D186" s="18" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E186" s="18"/>
       <c r="F186" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="G186" s="36" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="H186" s="18" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="I186" s="18" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="J186" s="18" t="s">
         <v>211</v>
@@ -24388,7 +24398,7 @@
         <v>108</v>
       </c>
       <c r="N186" s="0" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="P186" s="39"/>
       <c r="T186" s="0" t="s">
@@ -24451,26 +24461,26 @@
     </row>
     <row r="187" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="18" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C187" s="18" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="D187" s="18" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E187" s="18"/>
       <c r="F187" s="4" t="n">
         <v>2019</v>
       </c>
       <c r="G187" s="36" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="H187" s="18" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="I187" s="18" t="s">
         <v>576</v>
@@ -24486,7 +24496,7 @@
         <v>783</v>
       </c>
       <c r="P187" s="39" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="V187" s="0" t="s">
         <v>109</v>
@@ -24599,28 +24609,28 @@
     </row>
     <row r="188" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="18" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C188" s="18" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="D188" s="18" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E188" s="18" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="F188" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="G188" s="36" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="H188" s="18" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="I188" s="18" t="s">
         <v>499</v>
@@ -24633,10 +24643,10 @@
         <v>108</v>
       </c>
       <c r="N188" s="0" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="P188" s="39" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="U188" s="0" t="s">
         <v>109</v>
@@ -24719,29 +24729,29 @@
     </row>
     <row r="189" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="15" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="E189" s="15"/>
       <c r="F189" s="6" t="n">
         <v>1996</v>
       </c>
       <c r="G189" s="46" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="H189" s="15" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="I189" s="15" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="J189" s="15" t="s">
         <v>107</v>
@@ -24805,29 +24815,29 @@
     </row>
     <row r="190" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="15" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="E190" s="15"/>
       <c r="F190" s="6" t="n">
         <v>1998</v>
       </c>
       <c r="G190" s="46" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="H190" s="15" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="I190" s="15" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="J190" s="15" t="s">
         <v>107</v>
@@ -24894,29 +24904,29 @@
     </row>
     <row r="191" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="15" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="E191" s="15"/>
       <c r="F191" s="6" t="n">
         <v>1999</v>
       </c>
       <c r="G191" s="46" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="H191" s="15" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="I191" s="15" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="J191" s="15" t="s">
         <v>107</v>
@@ -24991,26 +25001,26 @@
     </row>
     <row r="192" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="15" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="E192" s="15"/>
       <c r="F192" s="6" t="n">
         <v>2001</v>
       </c>
       <c r="G192" s="46" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="H192" s="15" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="I192" s="15" t="s">
         <v>130</v>
@@ -25115,26 +25125,26 @@
     </row>
     <row r="193" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="15" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="E193" s="15"/>
       <c r="F193" s="6" t="n">
         <v>2002</v>
       </c>
       <c r="G193" s="46" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="H193" s="15" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="I193" s="15" t="s">
         <v>480</v>
@@ -25147,7 +25157,7 @@
         <v>108</v>
       </c>
       <c r="M193" s="3" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="U193" s="0" t="s">
         <v>109</v>
@@ -25218,26 +25228,26 @@
     </row>
     <row r="194" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="15" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C194" s="15" t="s">
         <v>887</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="E194" s="15"/>
       <c r="F194" s="6" t="n">
         <v>2004</v>
       </c>
       <c r="G194" s="46" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="H194" s="15" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="I194" s="15" t="s">
         <v>885</v>
@@ -25246,16 +25256,16 @@
         <v>433</v>
       </c>
       <c r="K194" s="15" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="L194" s="47" t="s">
         <v>141</v>
       </c>
       <c r="N194" s="0" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="P194" s="39" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="U194" s="0" t="s">
         <v>109</v>
@@ -25320,26 +25330,26 @@
     </row>
     <row r="195" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="15" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="E195" s="15"/>
       <c r="F195" s="6" t="n">
         <v>2006</v>
       </c>
       <c r="G195" s="46" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="H195" s="15" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="I195" s="15" t="s">
         <v>432</v>
@@ -25348,16 +25358,16 @@
         <v>433</v>
       </c>
       <c r="K195" s="15" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="L195" s="47" t="s">
         <v>141</v>
       </c>
       <c r="O195" s="0" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="P195" s="52" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="U195" s="0" t="s">
         <v>109</v>
@@ -25413,48 +25423,48 @@
     </row>
     <row r="196" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="15" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C196" s="15" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="E196" s="15"/>
       <c r="F196" s="6" t="n">
         <v>2007</v>
       </c>
       <c r="G196" s="46" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="H196" s="15" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="I196" s="15" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="J196" s="15" t="s">
         <v>107</v>
       </c>
       <c r="K196" s="15" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="L196" s="47" t="s">
         <v>141</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="N196" s="59"/>
       <c r="O196" s="0" t="s">
         <v>887</v>
       </c>
       <c r="P196" s="39" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="U196" s="0" t="s">
         <v>109</v>
@@ -25522,31 +25532,31 @@
     </row>
     <row r="197" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="15" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="D197" s="15" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="E197" s="15" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="F197" s="6" t="n">
         <v>2008</v>
       </c>
       <c r="G197" s="46" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="H197" s="15" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="I197" s="15" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="J197" s="15" t="s">
         <v>107</v>
@@ -25641,16 +25651,16 @@
     </row>
     <row r="198" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="15" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="D198" s="15" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="E198" s="15"/>
       <c r="F198" s="6" t="n">
@@ -25658,16 +25668,16 @@
       </c>
       <c r="G198" s="46"/>
       <c r="H198" s="15" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="I198" s="15" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="J198" s="15" t="s">
         <v>107</v>
       </c>
       <c r="K198" s="15" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="L198" s="47" t="s">
         <v>141</v>
@@ -25676,7 +25686,7 @@
         <v>134</v>
       </c>
       <c r="P198" s="39" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="Q198" s="0" t="s">
         <v>268</v>
@@ -25801,44 +25811,44 @@
     </row>
     <row r="199" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="15" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="D199" s="15" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="E199" s="15" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="F199" s="6" t="n">
         <v>2012</v>
       </c>
       <c r="G199" s="46" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="H199" s="15" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="I199" s="15" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="J199" s="15" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="K199" s="15" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="L199" s="47" t="s">
         <v>141</v>
       </c>
       <c r="N199" s="59"/>
       <c r="P199" s="39" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="Q199" s="0" t="s">
         <v>268</v>
@@ -25939,47 +25949,47 @@
     </row>
     <row r="200" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="15" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C200" s="15" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="D200" s="15" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="E200" s="15"/>
       <c r="F200" s="6" t="n">
         <v>2014</v>
       </c>
       <c r="G200" s="46" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="H200" s="15" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="I200" s="15" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="J200" s="15" t="s">
         <v>107</v>
       </c>
       <c r="K200" s="15" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="L200" s="47" t="s">
         <v>141</v>
       </c>
       <c r="M200" s="3" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="N200" s="59" t="s">
         <v>854</v>
       </c>
       <c r="P200" s="39" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="Q200" s="0" t="s">
         <v>268</v>
@@ -26148,14 +26158,14 @@
     <hyperlink ref="P72" r:id="rId96" display="http://www.ecoshift.net/brook/brook90.htm"/>
     <hyperlink ref="G73" r:id="rId97" display="https://doi.org/10.1046/j.1365-2486.2003.00628.x"/>
     <hyperlink ref="P73" r:id="rId98" display="https://www.bordeaux.inra.fr/ispa-ecofun/wordpress/index.php/musica-model/"/>
-    <hyperlink ref="G74" r:id="rId99" display="https://doi.org/10"/>
+    <hyperlink ref="G74" r:id="rId99" display="https://doi.org/10.1016/j.atmosenv.2005.11.070"/>
     <hyperlink ref="G75" r:id="rId100" display="https://doi.org/10.1093/treephys/26.6.807"/>
     <hyperlink ref="G76" r:id="rId101" display="https://doi.org/10.1029/2010JG001340"/>
     <hyperlink ref="P76" r:id="rId102" display="https://github.com/HydroComplexity/MLCan2.0"/>
-    <hyperlink ref="G77" r:id="rId103" display="https://doi.org/10"/>
+    <hyperlink ref="G77" r:id="rId103" display="https://doi.org/10.5194/acp-11-77-2011"/>
     <hyperlink ref="G78" r:id="rId104" display="https://doi.org/10.5194/gmd-5-919-2012"/>
     <hyperlink ref="P78" r:id="rId105" display="https://maespa.github.io/"/>
-    <hyperlink ref="G79" r:id="rId106" display="https://doi.org/10"/>
+    <hyperlink ref="G79" r:id="rId106" display="https://doi.org/10.5194/acp-13-693-2013"/>
     <hyperlink ref="G80" r:id="rId107" display="https://doi.org/10.1016/j.ecolmodel.2015.06.007"/>
     <hyperlink ref="G81" r:id="rId108" display="https://doi.org/10.1016/j.agrformet.2015.06.012"/>
     <hyperlink ref="P81" r:id="rId109" display="https://emf-creaf.github.io/medfate/"/>

--- a/ProcessBasedModelsDatabase.xlsx
+++ b/ProcessBasedModelsDatabase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5300" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5311" uniqueCount="1206">
   <si>
     <t xml:space="preserve">General information</t>
   </si>
@@ -3624,6 +3624,21 @@
   </si>
   <si>
     <t xml:space="preserve">https://cafnrfaculty.missouri.edu/gislab/landis/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FATE-HD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1111/gcb.12466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboratoire d’Ecologie Alpine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FATE is a spatially and temporally explicit vegetation model. It uses plant functional groups (PFG) and integrates important mechanisms driving vegetation dynamics, structure and diversity, such as demographic cycle, obviously, but also seeds dispersal, abiotic filtering or biotic interactions (through the competition for resources like light availability or soil nutrient availability).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leca-dev.github.io/RFate/index.html</t>
   </si>
 </sst>
 </file>
@@ -4130,17 +4145,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CL201"/>
+  <dimension ref="A1:CL202"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="O59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="H170" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
-      <selection pane="bottomRight" activeCell="R83" activeCellId="0" sqref="R83"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A170" activeCellId="0" sqref="A170"/>
+      <selection pane="bottomRight" activeCell="O202" activeCellId="0" sqref="O202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.14"/>
@@ -26362,6 +26377,47 @@
       <c r="CL201" s="38" t="n">
         <f aca="false">COUNTIF(CF201:CK201,"Y")</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="15" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B202" s="15" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C202" s="15" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D202" s="15" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E202" s="46"/>
+      <c r="F202" s="6" t="n">
+        <v>2014</v>
+      </c>
+      <c r="G202" s="46" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H202" s="46"/>
+      <c r="I202" s="15" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J202" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K202" s="15" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L202" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="M202" s="47"/>
+      <c r="Q202" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="R202" s="0" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -26650,6 +26706,7 @@
     <hyperlink ref="Q200" r:id="rId282" display="http://iland-model.org/startpage"/>
     <hyperlink ref="G201" r:id="rId283" display="https://doi.org/10.1111/j.1600-0587.2013.00495.x"/>
     <hyperlink ref="Q201" r:id="rId284" display="https://cafnrfaculty.missouri.edu/gislab/landis/"/>
+    <hyperlink ref="Q202" r:id="rId285" display="https://leca-dev.github.io/RFate/index.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/ProcessBasedModelsDatabase.xlsx
+++ b/ProcessBasedModelsDatabase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5311" uniqueCount="1206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5312" uniqueCount="1207">
   <si>
     <t xml:space="preserve">General information</t>
   </si>
@@ -3149,6 +3149,9 @@
     <t xml:space="preserve">https://github.com/TROLL-code/TROLL</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/gsalzet/rcontroll</t>
+  </si>
+  <si>
     <t xml:space="preserve">FORCCHN</t>
   </si>
   <si>
@@ -3254,7 +3257,7 @@
     <t xml:space="preserve">FOREST-BGC, BIOME-BGC, TOPMODEL</t>
   </si>
   <si>
-    <t xml:space="preserve">http://fiesta.bren.ucsb.edu/~rhessys/</t>
+    <t xml:space="preserve">https://rhessys.github.io/</t>
   </si>
   <si>
     <t xml:space="preserve">TOPMODEL-SPA</t>
@@ -4148,14 +4151,14 @@
   <dimension ref="A1:CL202"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="H170" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="P159" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A170" activeCellId="0" sqref="A170"/>
-      <selection pane="bottomRight" activeCell="O202" activeCellId="0" sqref="O202"/>
+      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="A159" activeCellId="0" sqref="A159"/>
+      <selection pane="bottomRight" activeCell="Q176" activeCellId="0" sqref="Q176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.14"/>
@@ -22672,6 +22675,9 @@
       <c r="R170" s="0" t="s">
         <v>269</v>
       </c>
+      <c r="S170" s="0" t="s">
+        <v>1042</v>
+      </c>
       <c r="T170" s="3" t="s">
         <v>110</v>
       </c>
@@ -22753,25 +22759,25 @@
         <v>954</v>
       </c>
       <c r="C171" s="48" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D171" s="48" t="s">
         <v>955</v>
       </c>
       <c r="E171" s="48" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="F171" s="49" t="n">
         <v>2017</v>
       </c>
       <c r="G171" s="50" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H171" s="48" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="I171" s="48" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="J171" s="48" t="s">
         <v>212</v>
@@ -22866,22 +22872,22 @@
         <v>954</v>
       </c>
       <c r="C172" s="48" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D172" s="48" t="s">
         <v>955</v>
       </c>
       <c r="E172" s="48" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="F172" s="49" t="n">
         <v>2017</v>
       </c>
       <c r="G172" s="50" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H172" s="48" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I172" s="48" t="s">
         <v>1019</v>
@@ -22996,44 +23002,44 @@
         <v>954</v>
       </c>
       <c r="C173" s="48" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D173" s="48" t="s">
         <v>955</v>
       </c>
       <c r="E173" s="48" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="F173" s="49" t="n">
         <v>2020</v>
       </c>
       <c r="G173" s="50" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H173" s="48" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="I173" s="48" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="J173" s="48" t="s">
         <v>162</v>
       </c>
       <c r="K173" s="48" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="L173" s="51" t="s">
         <v>142</v>
       </c>
       <c r="M173" s="51"/>
       <c r="O173" s="0" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="Q173" s="39" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="R173" s="0" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="U173" s="0" t="s">
         <v>110</v>
@@ -23122,26 +23128,26 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="18" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C174" s="18" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D174" s="18" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E174" s="18"/>
       <c r="F174" s="4" t="n">
         <v>1993</v>
       </c>
       <c r="G174" s="36" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H174" s="18" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="I174" s="18" t="s">
         <v>201</v>
@@ -23209,29 +23215,29 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="18" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C175" s="18" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D175" s="18" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E175" s="18"/>
       <c r="F175" s="4" t="n">
         <v>1999</v>
       </c>
       <c r="G175" s="36" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H175" s="18" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="I175" s="18" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="J175" s="18" t="s">
         <v>188</v>
@@ -23303,47 +23309,47 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="18" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C176" s="18" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D176" s="18" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E176" s="18" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="F176" s="4" t="n">
         <v>1993</v>
       </c>
       <c r="G176" s="36" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H176" s="18" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I176" s="18" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J176" s="18" t="s">
         <v>108</v>
       </c>
       <c r="K176" s="18" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="L176" s="37" t="s">
         <v>142</v>
       </c>
       <c r="M176" s="37"/>
       <c r="O176" s="0" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="Q176" s="39" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="R176" s="0" t="s">
         <v>260</v>
@@ -23453,29 +23459,29 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="18" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D177" s="18" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E177" s="18"/>
       <c r="F177" s="4" t="n">
         <v>2002</v>
       </c>
       <c r="G177" s="36" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H177" s="18" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="I177" s="18" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="J177" s="18" t="s">
         <v>108</v>
@@ -23486,7 +23492,7 @@
       </c>
       <c r="M177" s="37"/>
       <c r="O177" s="0" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="Q177" s="39"/>
       <c r="T177" s="3" t="s">
@@ -23543,26 +23549,26 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="18" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C178" s="18" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D178" s="18" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E178" s="18"/>
       <c r="F178" s="4" t="n">
         <v>2008</v>
       </c>
       <c r="G178" s="36" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H178" s="18" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="I178" s="18" t="s">
         <v>577</v>
@@ -23576,7 +23582,7 @@
       </c>
       <c r="M178" s="37"/>
       <c r="Q178" s="39" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="U178" s="0" t="s">
         <v>110</v>
@@ -23671,29 +23677,29 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="18" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C179" s="18" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D179" s="18" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E179" s="18"/>
       <c r="F179" s="4" t="n">
         <v>2008</v>
       </c>
       <c r="G179" s="36" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H179" s="18" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="I179" s="18" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="J179" s="18" t="s">
         <v>121</v>
@@ -23704,7 +23710,7 @@
       </c>
       <c r="M179" s="37"/>
       <c r="N179" s="3" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="O179" s="59"/>
       <c r="Q179" s="39"/>
@@ -23783,29 +23789,29 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="18" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C180" s="18" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D180" s="18" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E180" s="18"/>
       <c r="F180" s="4" t="n">
         <v>2009</v>
       </c>
       <c r="G180" s="36" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H180" s="18" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="I180" s="18" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="J180" s="18" t="s">
         <v>121</v>
@@ -23816,10 +23822,10 @@
       </c>
       <c r="M180" s="37"/>
       <c r="O180" s="0" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="Q180" s="39" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="U180" s="0" t="s">
         <v>110</v>
@@ -23896,29 +23902,29 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="18" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C181" s="18" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D181" s="18" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E181" s="18"/>
       <c r="F181" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="G181" s="36" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H181" s="18" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="I181" s="18" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="J181" s="18" t="s">
         <v>108</v>
@@ -23929,7 +23935,7 @@
       </c>
       <c r="M181" s="37"/>
       <c r="Q181" s="39" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="U181" s="0" t="s">
         <v>110</v>
@@ -24003,31 +24009,31 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="18" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C182" s="18" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D182" s="18" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E182" s="18" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="F182" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="G182" s="36" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H182" s="18" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="I182" s="18" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="J182" s="18" t="s">
         <v>434</v>
@@ -24038,7 +24044,7 @@
       </c>
       <c r="M182" s="37"/>
       <c r="O182" s="0" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="Q182" s="39"/>
       <c r="U182" s="0" t="s">
@@ -24146,26 +24152,26 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="18" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C183" s="18" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D183" s="18" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E183" s="18"/>
       <c r="F183" s="4" t="n">
         <v>2012</v>
       </c>
       <c r="G183" s="36" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H183" s="18" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="I183" s="18" t="s">
         <v>577</v>
@@ -24174,14 +24180,14 @@
         <v>108</v>
       </c>
       <c r="K183" s="18" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="L183" s="37" t="s">
         <v>142</v>
       </c>
       <c r="M183" s="37"/>
       <c r="Q183" s="39" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="U183" s="0" t="s">
         <v>110</v>
@@ -24285,26 +24291,26 @@
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="18" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C184" s="18" t="s">
         <v>648</v>
       </c>
       <c r="D184" s="18" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E184" s="18"/>
       <c r="F184" s="4" t="n">
         <v>2013</v>
       </c>
       <c r="G184" s="36" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H184" s="18" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="I184" s="18" t="s">
         <v>589</v>
@@ -24313,7 +24319,7 @@
         <v>108</v>
       </c>
       <c r="K184" s="18" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="L184" s="37" t="s">
         <v>142</v>
@@ -24323,7 +24329,7 @@
         <v>642</v>
       </c>
       <c r="Q184" s="39" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="R184" s="0" t="s">
         <v>269</v>
@@ -24418,26 +24424,26 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="18" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B185" s="18" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C185" s="18" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D185" s="18" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E185" s="18"/>
       <c r="F185" s="4" t="n">
         <v>2013</v>
       </c>
       <c r="G185" s="36" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H185" s="18" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="I185" s="18" t="s">
         <v>713</v>
@@ -24451,10 +24457,10 @@
       </c>
       <c r="M185" s="37"/>
       <c r="N185" s="3" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="Q185" s="39" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="R185" s="0" t="s">
         <v>269</v>
@@ -24555,29 +24561,29 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="18" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C186" s="18" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D186" s="18" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E186" s="18"/>
       <c r="F186" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="G186" s="36" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H186" s="18" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="I186" s="18" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="J186" s="18" t="s">
         <v>108</v>
@@ -24588,10 +24594,10 @@
       </c>
       <c r="M186" s="37"/>
       <c r="N186" s="3" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="O186" s="0" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="Q186" s="39"/>
       <c r="U186" s="0" t="s">
@@ -24672,29 +24678,29 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="18" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C187" s="18" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D187" s="18" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E187" s="18"/>
       <c r="F187" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="G187" s="36" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H187" s="18" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="I187" s="18" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="J187" s="18" t="s">
         <v>212</v>
@@ -24705,7 +24711,7 @@
       </c>
       <c r="M187" s="37"/>
       <c r="O187" s="0" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="Q187" s="39"/>
       <c r="U187" s="0" t="s">
@@ -24768,26 +24774,26 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="18" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C188" s="18" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D188" s="18" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E188" s="18"/>
       <c r="F188" s="4" t="n">
         <v>2019</v>
       </c>
       <c r="G188" s="36" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H188" s="18" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="I188" s="18" t="s">
         <v>577</v>
@@ -24804,7 +24810,7 @@
         <v>795</v>
       </c>
       <c r="Q188" s="39" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="W188" s="0" t="s">
         <v>110</v>
@@ -24917,28 +24923,28 @@
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="18" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B189" s="18" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D189" s="18" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E189" s="18" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="F189" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="G189" s="36" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H189" s="18" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="I189" s="18" t="s">
         <v>500</v>
@@ -24952,10 +24958,10 @@
       </c>
       <c r="M189" s="37"/>
       <c r="O189" s="0" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="Q189" s="39" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="V189" s="0" t="s">
         <v>110</v>
@@ -25038,29 +25044,29 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="15" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E190" s="15"/>
       <c r="F190" s="6" t="n">
         <v>1996</v>
       </c>
       <c r="G190" s="46" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H190" s="15" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="I190" s="15" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="J190" s="15" t="s">
         <v>108</v>
@@ -25125,29 +25131,29 @@
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="15" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E191" s="15"/>
       <c r="F191" s="6" t="n">
         <v>1998</v>
       </c>
       <c r="G191" s="46" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H191" s="15" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="I191" s="15" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="J191" s="15" t="s">
         <v>108</v>
@@ -25215,29 +25221,29 @@
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="15" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E192" s="15"/>
       <c r="F192" s="6" t="n">
         <v>1999</v>
       </c>
       <c r="G192" s="46" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H192" s="15" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="I192" s="15" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="J192" s="15" t="s">
         <v>108</v>
@@ -25313,26 +25319,26 @@
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="15" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E193" s="15"/>
       <c r="F193" s="6" t="n">
         <v>2001</v>
       </c>
       <c r="G193" s="46" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="H193" s="15" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="I193" s="15" t="s">
         <v>131</v>
@@ -25438,26 +25444,26 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="15" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E194" s="15"/>
       <c r="F194" s="6" t="n">
         <v>2002</v>
       </c>
       <c r="G194" s="46" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H194" s="15" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="I194" s="15" t="s">
         <v>481</v>
@@ -25471,7 +25477,7 @@
       </c>
       <c r="M194" s="47"/>
       <c r="N194" s="3" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="V194" s="0" t="s">
         <v>110</v>
@@ -25542,26 +25548,26 @@
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="15" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C195" s="15" t="s">
         <v>899</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E195" s="15"/>
       <c r="F195" s="6" t="n">
         <v>2004</v>
       </c>
       <c r="G195" s="46" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H195" s="15" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="I195" s="15" t="s">
         <v>897</v>
@@ -25570,17 +25576,17 @@
         <v>434</v>
       </c>
       <c r="K195" s="15" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="L195" s="47" t="s">
         <v>142</v>
       </c>
       <c r="M195" s="47"/>
       <c r="O195" s="0" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="Q195" s="39" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="V195" s="0" t="s">
         <v>110</v>
@@ -25645,26 +25651,26 @@
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="15" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C196" s="15" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E196" s="15"/>
       <c r="F196" s="6" t="n">
         <v>2006</v>
       </c>
       <c r="G196" s="46" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H196" s="15" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="I196" s="15" t="s">
         <v>433</v>
@@ -25673,17 +25679,17 @@
         <v>434</v>
       </c>
       <c r="K196" s="15" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="L196" s="47" t="s">
         <v>142</v>
       </c>
       <c r="M196" s="47"/>
       <c r="P196" s="0" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="Q196" s="52" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="V196" s="0" t="s">
         <v>110</v>
@@ -25739,49 +25745,49 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="15" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D197" s="15" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E197" s="15"/>
       <c r="F197" s="6" t="n">
         <v>2007</v>
       </c>
       <c r="G197" s="46" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="H197" s="15" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="I197" s="15" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="J197" s="15" t="s">
         <v>108</v>
       </c>
       <c r="K197" s="15" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="L197" s="47" t="s">
         <v>142</v>
       </c>
       <c r="M197" s="47"/>
       <c r="N197" s="3" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="O197" s="59"/>
       <c r="P197" s="0" t="s">
         <v>899</v>
       </c>
       <c r="Q197" s="39" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="V197" s="0" t="s">
         <v>110</v>
@@ -25849,31 +25855,31 @@
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="15" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D198" s="15" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E198" s="15" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="F198" s="6" t="n">
         <v>2008</v>
       </c>
       <c r="G198" s="46" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="H198" s="15" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="I198" s="15" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="J198" s="15" t="s">
         <v>108</v>
@@ -25969,16 +25975,16 @@
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="15" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D199" s="15" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E199" s="15"/>
       <c r="F199" s="6" t="n">
@@ -25986,16 +25992,16 @@
       </c>
       <c r="G199" s="46"/>
       <c r="H199" s="15" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="I199" s="15" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="J199" s="15" t="s">
         <v>108</v>
       </c>
       <c r="K199" s="15" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="L199" s="47" t="s">
         <v>142</v>
@@ -26005,7 +26011,7 @@
         <v>135</v>
       </c>
       <c r="Q199" s="39" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="R199" s="0" t="s">
         <v>269</v>
@@ -26130,37 +26136,37 @@
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="15" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C200" s="15" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D200" s="15" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E200" s="15" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="F200" s="6" t="n">
         <v>2012</v>
       </c>
       <c r="G200" s="46" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="H200" s="15" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="I200" s="15" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="J200" s="15" t="s">
         <v>991</v>
       </c>
       <c r="K200" s="15" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="L200" s="47" t="s">
         <v>142</v>
@@ -26168,7 +26174,7 @@
       <c r="M200" s="47"/>
       <c r="O200" s="59"/>
       <c r="Q200" s="39" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="R200" s="0" t="s">
         <v>269</v>
@@ -26269,48 +26275,48 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="15" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D201" s="15" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E201" s="15"/>
       <c r="F201" s="6" t="n">
         <v>2014</v>
       </c>
       <c r="G201" s="46" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H201" s="15" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="I201" s="15" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="J201" s="15" t="s">
         <v>108</v>
       </c>
       <c r="K201" s="15" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="L201" s="47" t="s">
         <v>142</v>
       </c>
       <c r="M201" s="47"/>
       <c r="N201" s="3" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="O201" s="59" t="s">
         <v>866</v>
       </c>
       <c r="Q201" s="39" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="R201" s="0" t="s">
         <v>269</v>
@@ -26381,40 +26387,40 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="15" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E202" s="46"/>
       <c r="F202" s="6" t="n">
         <v>2014</v>
       </c>
       <c r="G202" s="46" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="H202" s="46"/>
       <c r="I202" s="15" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="J202" s="15" t="s">
         <v>132</v>
       </c>
       <c r="K202" s="15" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L202" s="47" t="s">
         <v>142</v>
       </c>
       <c r="M202" s="47"/>
       <c r="Q202" s="3" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="R202" s="0" t="s">
         <v>568</v>
@@ -26667,46 +26673,45 @@
     <hyperlink ref="G174" r:id="rId243" display="https://doi.org/10.1016/0022-1694(93)90131-R"/>
     <hyperlink ref="G175" r:id="rId244" display="https://doi.org/10.1002/(SICI)1099-1085(19990415)13:5&lt;689::AID-HYP773&gt;3.0.CO;2-D"/>
     <hyperlink ref="G176" r:id="rId245" display="https://doi.org/10.1175/1087-3562(2004)8&lt;1:RRHSSO&gt;2.0.CO;2"/>
-    <hyperlink ref="Q176" r:id="rId246" display="http://fiesta.bren.ucsb.edu/~rhessys/"/>
-    <hyperlink ref="G177" r:id="rId247" display="https://doi.org/10.1016/S0304-3800(02)00068-6"/>
-    <hyperlink ref="G178" r:id="rId248" display="https://doi.org/10.1029/2006WR005588"/>
-    <hyperlink ref="Q178" r:id="rId249" display="http://www-personal.umich.edu/~ivanov/HYDROWIT/Models.html"/>
-    <hyperlink ref="G179" r:id="rId250" display="https://doi.org/10.1139/s09-003"/>
-    <hyperlink ref="G180" r:id="rId251" display="https://doi.org/10.1016/j.jhydrol.2009.01.006"/>
-    <hyperlink ref="Q180" r:id="rId252" display="http://faculty.geog.utoronto.ca/Chen/Chen%27s%20homepage/research.htm"/>
-    <hyperlink ref="G181" r:id="rId253" display="https://doi.org/10.1029/2010WR010165"/>
-    <hyperlink ref="Q181" r:id="rId254" display="https://www.epa.gov/water-research/visualizing-ecosystem-land-management-assessments-velma-model-20"/>
-    <hyperlink ref="G182" r:id="rId255" display="https://doi.org/10.1016/j.ecolmodel.2011.04.031"/>
-    <hyperlink ref="G183" r:id="rId256" display="https://doi.org/10.1029/2011MS000086"/>
-    <hyperlink ref="Q183" r:id="rId257" display="http://www-personal.umich.edu/~ivanov/HYDROWIT/Models.html"/>
-    <hyperlink ref="G184" r:id="rId258" display="https://doi.org/10.1175/2012EI000472.1"/>
-    <hyperlink ref="Q184" r:id="rId259" display="http://hs.umt.edu/RegionalHydrologyLab/software/default.php"/>
-    <hyperlink ref="G185" r:id="rId260" display="https://doi.org/10.1007/s10980-012-9772-x"/>
-    <hyperlink ref="Q185" r:id="rId261" display="https://ldndc.imk-ifu.kit.edu/"/>
-    <hyperlink ref="G186" r:id="rId262" display="https://doi.org/10.1002/eco.1362"/>
-    <hyperlink ref="G187" r:id="rId263" display="https://doi.org/10.1016/j.wse.2017.12.007"/>
-    <hyperlink ref="G188" r:id="rId264" display="https://doi.org/10.1029/2018GB006077"/>
-    <hyperlink ref="Q188" r:id="rId265" display="http://www-personal.umich.edu/~ivanov/HYDROWIT/Models.html"/>
-    <hyperlink ref="G189" r:id="rId266" display="https://doi.org/10.5194/gmd-2019-117"/>
-    <hyperlink ref="Q189" r:id="rId267" display="https://www.envidat.ch/dataset/forhycs-v-1-0-0-model-code"/>
-    <hyperlink ref="G190" r:id="rId268" display="https://doi.org/10.1016/0304-3800(95)00164-6"/>
-    <hyperlink ref="G191" r:id="rId269" display="https://doi.org/10.1016/S0304-3800(97)00191-9"/>
-    <hyperlink ref="G192" r:id="rId270" display="https://doi.org/10.2737/NC-GTR-263"/>
-    <hyperlink ref="G193" r:id="rId271" display="https://doi.org/10.1016/S0378-1127(00)00432-1"/>
-    <hyperlink ref="G194" r:id="rId272" display="https://doi.org/10.1016/S0378-1127(01)00608-9"/>
-    <hyperlink ref="G195" r:id="rId273" display="https://doi.org/10.1016/j.ecolmodel.2003.12.055"/>
-    <hyperlink ref="Q195" r:id="rId274" display="https://ites-fe.ethz.ch/openaccess/products/landclim"/>
-    <hyperlink ref="G196" r:id="rId275" display="https://doi.org/10.1016/j.ecolmodel.2005.11.046"/>
-    <hyperlink ref="Q196" r:id="rId276" display="https://www.wsl.ch/de/projekte/treemig-1.html"/>
-    <hyperlink ref="G197" r:id="rId277" display="https://doi.org/10.1016/j.ecolmodel.2006.10.009"/>
-    <hyperlink ref="Q197" r:id="rId278" display="http://www.landis-ii.org/"/>
-    <hyperlink ref="G198" r:id="rId279" display="https://doi.org/10.1016/j.ecolmodel.2008.02.032"/>
-    <hyperlink ref="Q199" r:id="rId280" display="https://www.firelab.org/project/firebgcv2-landscape-fire-model"/>
-    <hyperlink ref="G200" r:id="rId281" display="https://doi.org/10.1016/j.ecolmodel.2012.02.015"/>
-    <hyperlink ref="Q200" r:id="rId282" display="http://iland-model.org/startpage"/>
-    <hyperlink ref="G201" r:id="rId283" display="https://doi.org/10.1111/j.1600-0587.2013.00495.x"/>
-    <hyperlink ref="Q201" r:id="rId284" display="https://cafnrfaculty.missouri.edu/gislab/landis/"/>
-    <hyperlink ref="Q202" r:id="rId285" display="https://leca-dev.github.io/RFate/index.html"/>
+    <hyperlink ref="G177" r:id="rId246" display="https://doi.org/10.1016/S0304-3800(02)00068-6"/>
+    <hyperlink ref="G178" r:id="rId247" display="https://doi.org/10.1029/2006WR005588"/>
+    <hyperlink ref="Q178" r:id="rId248" display="http://www-personal.umich.edu/~ivanov/HYDROWIT/Models.html"/>
+    <hyperlink ref="G179" r:id="rId249" display="https://doi.org/10.1139/s09-003"/>
+    <hyperlink ref="G180" r:id="rId250" display="https://doi.org/10.1016/j.jhydrol.2009.01.006"/>
+    <hyperlink ref="Q180" r:id="rId251" display="http://faculty.geog.utoronto.ca/Chen/Chen%27s%20homepage/research.htm"/>
+    <hyperlink ref="G181" r:id="rId252" display="https://doi.org/10.1029/2010WR010165"/>
+    <hyperlink ref="Q181" r:id="rId253" display="https://www.epa.gov/water-research/visualizing-ecosystem-land-management-assessments-velma-model-20"/>
+    <hyperlink ref="G182" r:id="rId254" display="https://doi.org/10.1016/j.ecolmodel.2011.04.031"/>
+    <hyperlink ref="G183" r:id="rId255" display="https://doi.org/10.1029/2011MS000086"/>
+    <hyperlink ref="Q183" r:id="rId256" display="http://www-personal.umich.edu/~ivanov/HYDROWIT/Models.html"/>
+    <hyperlink ref="G184" r:id="rId257" display="https://doi.org/10.1175/2012EI000472.1"/>
+    <hyperlink ref="Q184" r:id="rId258" display="http://hs.umt.edu/RegionalHydrologyLab/software/default.php"/>
+    <hyperlink ref="G185" r:id="rId259" display="https://doi.org/10.1007/s10980-012-9772-x"/>
+    <hyperlink ref="Q185" r:id="rId260" display="https://ldndc.imk-ifu.kit.edu/"/>
+    <hyperlink ref="G186" r:id="rId261" display="https://doi.org/10.1002/eco.1362"/>
+    <hyperlink ref="G187" r:id="rId262" display="https://doi.org/10.1016/j.wse.2017.12.007"/>
+    <hyperlink ref="G188" r:id="rId263" display="https://doi.org/10.1029/2018GB006077"/>
+    <hyperlink ref="Q188" r:id="rId264" display="http://www-personal.umich.edu/~ivanov/HYDROWIT/Models.html"/>
+    <hyperlink ref="G189" r:id="rId265" display="https://doi.org/10.5194/gmd-2019-117"/>
+    <hyperlink ref="Q189" r:id="rId266" display="https://www.envidat.ch/dataset/forhycs-v-1-0-0-model-code"/>
+    <hyperlink ref="G190" r:id="rId267" display="https://doi.org/10.1016/0304-3800(95)00164-6"/>
+    <hyperlink ref="G191" r:id="rId268" display="https://doi.org/10.1016/S0304-3800(97)00191-9"/>
+    <hyperlink ref="G192" r:id="rId269" display="https://doi.org/10.2737/NC-GTR-263"/>
+    <hyperlink ref="G193" r:id="rId270" display="https://doi.org/10.1016/S0378-1127(00)00432-1"/>
+    <hyperlink ref="G194" r:id="rId271" display="https://doi.org/10.1016/S0378-1127(01)00608-9"/>
+    <hyperlink ref="G195" r:id="rId272" display="https://doi.org/10.1016/j.ecolmodel.2003.12.055"/>
+    <hyperlink ref="Q195" r:id="rId273" display="https://ites-fe.ethz.ch/openaccess/products/landclim"/>
+    <hyperlink ref="G196" r:id="rId274" display="https://doi.org/10.1016/j.ecolmodel.2005.11.046"/>
+    <hyperlink ref="Q196" r:id="rId275" display="https://www.wsl.ch/de/projekte/treemig-1.html"/>
+    <hyperlink ref="G197" r:id="rId276" display="https://doi.org/10.1016/j.ecolmodel.2006.10.009"/>
+    <hyperlink ref="Q197" r:id="rId277" display="http://www.landis-ii.org/"/>
+    <hyperlink ref="G198" r:id="rId278" display="https://doi.org/10.1016/j.ecolmodel.2008.02.032"/>
+    <hyperlink ref="Q199" r:id="rId279" display="https://www.firelab.org/project/firebgcv2-landscape-fire-model"/>
+    <hyperlink ref="G200" r:id="rId280" display="https://doi.org/10.1016/j.ecolmodel.2012.02.015"/>
+    <hyperlink ref="Q200" r:id="rId281" display="http://iland-model.org/startpage"/>
+    <hyperlink ref="G201" r:id="rId282" display="https://doi.org/10.1111/j.1600-0587.2013.00495.x"/>
+    <hyperlink ref="Q201" r:id="rId283" display="https://cafnrfaculty.missouri.edu/gislab/landis/"/>
+    <hyperlink ref="Q202" r:id="rId284" display="https://leca-dev.github.io/RFate/index.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
